--- a/Data/Listings/Maple_listings.xlsx
+++ b/Data/Listings/Maple_listings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/levan/Documents/MegaValuationer/Data/Listings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F677BD8-2F19-454B-BC70-5C08D1F870F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA881197-C080-454D-8B93-F611F480A9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4455,7 +4455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4469,26 +4469,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4810,7 +4799,7 @@
   <dimension ref="A1:U114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4953,245 +4942,245 @@
         <v>430</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3">
         <v>5100000</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3">
         <v>58</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4">
         <v>5150000</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4">
         <v>56</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" t="s">
         <v>57</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" t="s">
         <v>58</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5">
         <v>6000000</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5">
         <v>35</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" t="s">
         <v>66</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" t="s">
         <v>36</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6">
         <v>6500000</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6">
         <v>5</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" t="s">
         <v>74</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" t="s">
         <v>76</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6">
         <v>15</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" t="s">
         <v>77</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S6" t="s">
         <v>78</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" t="s">
         <v>36</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="U6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5257,670 +5246,670 @@
         <v>514</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8">
         <v>5700000</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8">
         <v>4</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" t="s">
         <v>92</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" t="s">
         <v>93</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" t="s">
         <v>94</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8">
         <v>18</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" t="s">
         <v>95</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="S8" t="s">
         <v>96</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="T8" t="s">
         <v>36</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="U8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9">
         <v>5500000</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9">
         <v>4</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" t="s">
         <v>101</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="P9" t="s">
         <v>102</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9">
         <v>86</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" t="s">
         <v>103</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S9" t="s">
         <v>104</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="T9" t="s">
         <v>36</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="U9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" t="s">
         <v>108</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10">
         <v>5500000</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10">
         <v>4</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" t="s">
         <v>109</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="P10" t="s">
         <v>110</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10">
         <v>24</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R10" t="s">
         <v>103</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="S10" t="s">
         <v>104</v>
       </c>
-      <c r="T10" s="6" t="s">
+      <c r="T10" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="6" t="s">
+      <c r="U10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11">
         <v>7500000</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11">
         <v>5</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" t="s">
         <v>114</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O11" t="s">
         <v>115</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P11" t="s">
         <v>116</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11">
         <v>11</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11" t="s">
         <v>117</v>
       </c>
-      <c r="S11" s="6" t="s">
+      <c r="S11" t="s">
         <v>104</v>
       </c>
-      <c r="T11" s="6" t="s">
+      <c r="T11" t="s">
         <v>36</v>
       </c>
-      <c r="U11" s="6" t="s">
+      <c r="U11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12">
         <v>4900000</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12">
         <v>3</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" t="s">
         <v>53</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" t="s">
         <v>122</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="O12" t="s">
         <v>123</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="P12" t="s">
         <v>124</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12">
         <v>32</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="R12" t="s">
         <v>125</v>
       </c>
-      <c r="S12" s="6" t="s">
+      <c r="S12" t="s">
         <v>126</v>
       </c>
-      <c r="T12" s="6" t="s">
+      <c r="T12" t="s">
         <v>36</v>
       </c>
-      <c r="U12" s="6" t="s">
+      <c r="U12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13">
         <v>5500000</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13">
         <v>3</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O13" t="s">
         <v>130</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="P13" t="s">
         <v>124</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13">
         <v>32</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" t="s">
         <v>131</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="S13" t="s">
         <v>132</v>
       </c>
-      <c r="T13" s="6" t="s">
+      <c r="T13" t="s">
         <v>36</v>
       </c>
-      <c r="U13" s="6" t="s">
+      <c r="U13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14">
         <v>6500000</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14">
         <v>5</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" t="s">
         <v>72</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" t="s">
         <v>137</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" t="s">
         <v>138</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="P14" t="s">
         <v>139</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14">
         <v>22</v>
       </c>
-      <c r="R14" s="6" t="s">
+      <c r="R14" t="s">
         <v>140</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="S14" t="s">
         <v>141</v>
       </c>
-      <c r="T14" s="6" t="s">
+      <c r="T14" t="s">
         <v>36</v>
       </c>
-      <c r="U14" s="6" t="s">
+      <c r="U14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15">
         <v>6000000</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15">
         <v>4</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O15" t="s">
         <v>146</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="P15" t="s">
         <v>147</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15">
         <v>1</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="R15" t="s">
         <v>148</v>
       </c>
-      <c r="S15" s="6" t="s">
+      <c r="S15" t="s">
         <v>149</v>
       </c>
-      <c r="T15" s="6" t="s">
+      <c r="T15" t="s">
         <v>36</v>
       </c>
-      <c r="U15" s="6" t="s">
+      <c r="U15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16">
         <v>4900000</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16">
         <v>3</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" t="s">
         <v>53</v>
       </c>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" t="s">
         <v>154</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O16" t="s">
         <v>155</v>
       </c>
-      <c r="P16" s="6" t="s">
+      <c r="P16" t="s">
         <v>156</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16">
         <v>33</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="R16" t="s">
         <v>157</v>
       </c>
-      <c r="S16" s="6" t="s">
+      <c r="S16" t="s">
         <v>158</v>
       </c>
-      <c r="T16" s="6" t="s">
+      <c r="T16" t="s">
         <v>36</v>
       </c>
-      <c r="U16" s="6" t="s">
+      <c r="U16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" t="s">
         <v>161</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17">
         <v>5500000</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17">
         <v>4</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" t="s">
         <v>42</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="N17" t="s">
         <v>163</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="O17" t="s">
         <v>164</v>
       </c>
-      <c r="P17" s="6" t="s">
+      <c r="P17" t="s">
         <v>165</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17">
         <v>73</v>
       </c>
-      <c r="R17" s="6" t="s">
+      <c r="R17" t="s">
         <v>157</v>
       </c>
-      <c r="S17" s="6" t="s">
+      <c r="S17" t="s">
         <v>158</v>
       </c>
-      <c r="T17" s="6" t="s">
+      <c r="T17" t="s">
         <v>36</v>
       </c>
-      <c r="U17" s="6" t="s">
+      <c r="U17" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18">
         <v>6000000</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18">
         <v>5</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" t="s">
         <v>72</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O18" t="s">
         <v>170</v>
       </c>
-      <c r="P18" s="6" t="s">
+      <c r="P18" t="s">
         <v>171</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18">
         <v>31</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="R18" t="s">
         <v>157</v>
       </c>
-      <c r="S18" s="6" t="s">
+      <c r="S18" t="s">
         <v>158</v>
       </c>
-      <c r="T18" s="6" t="s">
+      <c r="T18" t="s">
         <v>36</v>
       </c>
-      <c r="U18" s="6" t="s">
+      <c r="U18" t="s">
         <v>172</v>
       </c>
     </row>
@@ -6054,65 +6043,65 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" t="s">
         <v>189</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21">
         <v>5950000</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21">
         <v>5</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" t="s">
         <v>72</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" t="s">
         <v>191</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="O21" t="s">
         <v>192</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P21" t="s">
         <v>193</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21">
         <v>51</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="R21" t="s">
         <v>194</v>
       </c>
-      <c r="S21" s="6" t="s">
+      <c r="S21" t="s">
         <v>195</v>
       </c>
-      <c r="T21" s="6" t="s">
+      <c r="T21" t="s">
         <v>36</v>
       </c>
-      <c r="U21" s="6" t="s">
+      <c r="U21" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6178,127 +6167,127 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23">
         <v>5500000</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23">
         <v>3</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" t="s">
         <v>53</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="M23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="N23" t="s">
         <v>208</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="O23" t="s">
         <v>209</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="P23" t="s">
         <v>85</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="Q23">
         <v>14</v>
       </c>
-      <c r="R23" s="6" t="s">
+      <c r="R23" t="s">
         <v>210</v>
       </c>
-      <c r="S23" s="6" t="s">
+      <c r="S23" t="s">
         <v>203</v>
       </c>
-      <c r="T23" s="6" t="s">
+      <c r="T23" t="s">
         <v>36</v>
       </c>
-      <c r="U23" s="6" t="s">
+      <c r="U23" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24">
         <v>5200000</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24">
         <v>3</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" t="s">
         <v>53</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="M24" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="N24" t="s">
         <v>215</v>
       </c>
-      <c r="O24" s="6" t="s">
+      <c r="O24" t="s">
         <v>216</v>
       </c>
-      <c r="P24" s="6" t="s">
+      <c r="P24" t="s">
         <v>76</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="Q24">
         <v>15</v>
       </c>
-      <c r="R24" s="6" t="s">
+      <c r="R24" t="s">
         <v>217</v>
       </c>
-      <c r="S24" s="6" t="s">
+      <c r="S24" t="s">
         <v>218</v>
       </c>
-      <c r="T24" s="6" t="s">
+      <c r="T24" t="s">
         <v>36</v>
       </c>
-      <c r="U24" s="6" t="s">
+      <c r="U24" t="s">
         <v>219</v>
       </c>
     </row>
@@ -6562,127 +6551,127 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" t="s">
         <v>250</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29">
         <v>5300000</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29">
         <v>4</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" t="s">
         <v>28</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" t="s">
         <v>29</v>
       </c>
-      <c r="M29" s="8" t="s">
+      <c r="M29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="6" t="s">
+      <c r="N29" t="s">
         <v>252</v>
       </c>
-      <c r="O29" s="6" t="s">
+      <c r="O29" t="s">
         <v>253</v>
       </c>
-      <c r="P29" s="6" t="s">
+      <c r="P29" t="s">
         <v>254</v>
       </c>
-      <c r="Q29" s="6">
+      <c r="Q29">
         <v>87</v>
       </c>
-      <c r="R29" s="6" t="s">
+      <c r="R29" t="s">
         <v>255</v>
       </c>
-      <c r="S29" s="6" t="s">
+      <c r="S29" t="s">
         <v>239</v>
       </c>
-      <c r="T29" s="6" t="s">
+      <c r="T29" t="s">
         <v>36</v>
       </c>
-      <c r="U29" s="6" t="s">
+      <c r="U29" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" t="s">
         <v>258</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30">
         <v>6995000</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30">
         <v>5</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" t="s">
         <v>28</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" t="s">
         <v>72</v>
       </c>
-      <c r="M30" s="8" t="s">
+      <c r="M30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N30" s="6" t="s">
+      <c r="N30" t="s">
         <v>260</v>
       </c>
-      <c r="O30" s="6" t="s">
+      <c r="O30" t="s">
         <v>261</v>
       </c>
-      <c r="P30" s="6" t="s">
+      <c r="P30" t="s">
         <v>262</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="Q30">
         <v>147</v>
       </c>
-      <c r="R30" s="6" t="s">
+      <c r="R30" t="s">
         <v>238</v>
       </c>
-      <c r="S30" s="6" t="s">
+      <c r="S30" t="s">
         <v>239</v>
       </c>
-      <c r="T30" s="6" t="s">
+      <c r="T30" t="s">
         <v>36</v>
       </c>
-      <c r="U30" s="6" t="s">
+      <c r="U30" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6751,307 +6740,307 @@
         <v>675</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" t="s">
         <v>272</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32">
         <v>6650000</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32">
         <v>5</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="K32" t="s">
         <v>72</v>
       </c>
-      <c r="M32" s="8" t="s">
+      <c r="M32" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N32" s="6" t="s">
+      <c r="N32" t="s">
         <v>274</v>
       </c>
-      <c r="O32" s="6" t="s">
+      <c r="O32" t="s">
         <v>275</v>
       </c>
-      <c r="P32" s="6" t="s">
+      <c r="P32" t="s">
         <v>276</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="Q32">
         <v>47</v>
       </c>
-      <c r="R32" s="6" t="s">
+      <c r="R32" t="s">
         <v>247</v>
       </c>
-      <c r="S32" s="6" t="s">
+      <c r="S32" t="s">
         <v>239</v>
       </c>
-      <c r="T32" s="6" t="s">
+      <c r="T32" t="s">
         <v>36</v>
       </c>
-      <c r="U32" s="6" t="s">
+      <c r="U32" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" t="s">
         <v>279</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33">
         <v>4880000</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33">
         <v>3</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="K33" t="s">
         <v>53</v>
       </c>
-      <c r="M33" s="8" t="s">
+      <c r="M33" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N33" s="6" t="s">
+      <c r="N33" t="s">
         <v>281</v>
       </c>
-      <c r="O33" s="6" t="s">
+      <c r="O33" t="s">
         <v>282</v>
       </c>
-      <c r="P33" s="6" t="s">
+      <c r="P33" t="s">
         <v>225</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="Q33">
         <v>25</v>
       </c>
-      <c r="R33" s="6" t="s">
+      <c r="R33" t="s">
         <v>283</v>
       </c>
-      <c r="S33" s="6" t="s">
+      <c r="S33" t="s">
         <v>284</v>
       </c>
-      <c r="T33" s="6" t="s">
+      <c r="T33" t="s">
         <v>36</v>
       </c>
-      <c r="U33" s="6" t="s">
+      <c r="U33" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" t="s">
         <v>287</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34">
         <v>5200000</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34">
         <v>4</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J34" t="s">
         <v>28</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="K34" t="s">
         <v>29</v>
       </c>
-      <c r="M34" s="8" t="s">
+      <c r="M34" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O34" s="6" t="s">
+      <c r="O34" t="s">
         <v>289</v>
       </c>
-      <c r="P34" s="6" t="s">
+      <c r="P34" t="s">
         <v>290</v>
       </c>
-      <c r="Q34" s="6">
+      <c r="Q34">
         <v>12</v>
       </c>
-      <c r="R34" s="6" t="s">
+      <c r="R34" t="s">
         <v>291</v>
       </c>
-      <c r="S34" s="6" t="s">
+      <c r="S34" t="s">
         <v>292</v>
       </c>
-      <c r="T34" s="6" t="s">
+      <c r="T34" t="s">
         <v>36</v>
       </c>
-      <c r="U34" s="6" t="s">
+      <c r="U34" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" t="s">
         <v>295</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35">
         <v>6200000</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35">
         <v>5</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J35" t="s">
         <v>28</v>
       </c>
-      <c r="K35" s="6" t="s">
+      <c r="K35" t="s">
         <v>72</v>
       </c>
-      <c r="M35" s="8" t="s">
+      <c r="M35" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O35" s="6" t="s">
+      <c r="O35" t="s">
         <v>297</v>
       </c>
-      <c r="P35" s="6" t="s">
+      <c r="P35" t="s">
         <v>290</v>
       </c>
-      <c r="Q35" s="6">
+      <c r="Q35">
         <v>12</v>
       </c>
-      <c r="R35" s="6" t="s">
+      <c r="R35" t="s">
         <v>291</v>
       </c>
-      <c r="S35" s="6" t="s">
+      <c r="S35" t="s">
         <v>292</v>
       </c>
-      <c r="T35" s="6" t="s">
+      <c r="T35" t="s">
         <v>36</v>
       </c>
-      <c r="U35" s="6" t="s">
+      <c r="U35" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" t="s">
         <v>300</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" t="s">
         <v>41</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36">
         <v>6900000</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36">
         <v>5</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="J36" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="K36" t="s">
         <v>72</v>
       </c>
-      <c r="M36" s="8" t="s">
+      <c r="M36" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N36" s="6" t="s">
+      <c r="N36" t="s">
         <v>302</v>
       </c>
-      <c r="O36" s="6" t="s">
+      <c r="O36" t="s">
         <v>303</v>
       </c>
-      <c r="P36" s="6" t="s">
+      <c r="P36" t="s">
         <v>165</v>
       </c>
-      <c r="Q36" s="6">
+      <c r="Q36">
         <v>73</v>
       </c>
-      <c r="R36" s="6" t="s">
+      <c r="R36" t="s">
         <v>304</v>
       </c>
-      <c r="S36" s="6" t="s">
+      <c r="S36" t="s">
         <v>305</v>
       </c>
-      <c r="T36" s="6" t="s">
+      <c r="T36" t="s">
         <v>36</v>
       </c>
-      <c r="U36" s="6" t="s">
+      <c r="U36" t="s">
         <v>306</v>
       </c>
     </row>
@@ -7120,124 +7109,124 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" t="s">
         <v>316</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38">
         <v>6000000</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38">
         <v>4</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" t="s">
         <v>28</v>
       </c>
-      <c r="K38" s="6" t="s">
+      <c r="K38" t="s">
         <v>42</v>
       </c>
-      <c r="M38" s="8" t="s">
+      <c r="M38" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N38" s="6" t="s">
+      <c r="N38" t="s">
         <v>318</v>
       </c>
-      <c r="O38" s="6" t="s">
+      <c r="O38" t="s">
         <v>319</v>
       </c>
-      <c r="P38" s="6" t="s">
+      <c r="P38" t="s">
         <v>320</v>
       </c>
-      <c r="Q38" s="6">
+      <c r="Q38">
         <v>4</v>
       </c>
-      <c r="R38" s="6" t="s">
+      <c r="R38" t="s">
         <v>321</v>
       </c>
-      <c r="S38" s="6" t="s">
+      <c r="S38" t="s">
         <v>305</v>
       </c>
-      <c r="T38" s="6" t="s">
+      <c r="T38" t="s">
         <v>36</v>
       </c>
-      <c r="U38" s="6" t="s">
+      <c r="U38" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" t="s">
         <v>250</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" t="s">
         <v>108</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39">
         <v>5300000</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39">
         <v>4</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="J39" t="s">
         <v>28</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="K39" t="s">
         <v>29</v>
       </c>
-      <c r="M39" s="8" t="s">
+      <c r="M39" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O39" s="6" t="s">
+      <c r="O39" t="s">
         <v>325</v>
       </c>
-      <c r="P39" s="6" t="s">
+      <c r="P39" t="s">
         <v>147</v>
       </c>
-      <c r="Q39" s="6">
+      <c r="Q39">
         <v>1</v>
       </c>
-      <c r="R39" s="6" t="s">
+      <c r="R39" t="s">
         <v>326</v>
       </c>
-      <c r="S39" s="6" t="s">
+      <c r="S39" t="s">
         <v>327</v>
       </c>
-      <c r="T39" s="6" t="s">
+      <c r="T39" t="s">
         <v>36</v>
       </c>
-      <c r="U39" s="6" t="s">
+      <c r="U39" t="s">
         <v>328</v>
       </c>
     </row>
@@ -7306,65 +7295,65 @@
         <v>336</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" t="s">
         <v>338</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" t="s">
         <v>52</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41">
         <v>5500000</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41">
         <v>4</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J41" t="s">
         <v>28</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="K41" t="s">
         <v>42</v>
       </c>
-      <c r="M41" s="8" t="s">
+      <c r="M41" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N41" s="6" t="s">
+      <c r="N41" t="s">
         <v>340</v>
       </c>
-      <c r="O41" s="6" t="s">
+      <c r="O41" t="s">
         <v>341</v>
       </c>
-      <c r="P41" s="6" t="s">
+      <c r="P41" t="s">
         <v>342</v>
       </c>
-      <c r="Q41" s="6">
+      <c r="Q41">
         <v>52</v>
       </c>
-      <c r="R41" s="6" t="s">
+      <c r="R41" t="s">
         <v>334</v>
       </c>
-      <c r="S41" s="6" t="s">
+      <c r="S41" t="s">
         <v>335</v>
       </c>
-      <c r="T41" s="6" t="s">
+      <c r="T41" t="s">
         <v>36</v>
       </c>
-      <c r="U41" s="6" t="s">
+      <c r="U41" t="s">
         <v>343</v>
       </c>
     </row>
@@ -7433,124 +7422,124 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" t="s">
         <v>350</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" t="s">
         <v>52</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43">
         <v>6200000</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43">
         <v>4</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="J43" t="s">
         <v>28</v>
       </c>
-      <c r="K43" s="6" t="s">
+      <c r="K43" t="s">
         <v>42</v>
       </c>
-      <c r="M43" s="8" t="s">
+      <c r="M43" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N43" s="6" t="s">
+      <c r="N43" t="s">
         <v>352</v>
       </c>
-      <c r="O43" s="6" t="s">
+      <c r="O43" t="s">
         <v>353</v>
       </c>
-      <c r="P43" s="6" t="s">
+      <c r="P43" t="s">
         <v>354</v>
       </c>
-      <c r="Q43" s="6">
+      <c r="Q43">
         <v>38</v>
       </c>
-      <c r="R43" s="6" t="s">
+      <c r="R43" t="s">
         <v>334</v>
       </c>
-      <c r="S43" s="6" t="s">
+      <c r="S43" t="s">
         <v>335</v>
       </c>
-      <c r="T43" s="6" t="s">
+      <c r="T43" t="s">
         <v>36</v>
       </c>
-      <c r="U43" s="6" t="s">
+      <c r="U43" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" t="s">
         <v>357</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44">
         <v>6700000</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44">
         <v>5</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="J44" t="s">
         <v>28</v>
       </c>
-      <c r="K44" s="6" t="s">
+      <c r="K44" t="s">
         <v>72</v>
       </c>
-      <c r="M44" s="8" t="s">
+      <c r="M44" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O44" s="6" t="s">
+      <c r="O44" t="s">
         <v>359</v>
       </c>
-      <c r="P44" s="6" t="s">
+      <c r="P44" t="s">
         <v>360</v>
       </c>
-      <c r="Q44" s="6">
+      <c r="Q44">
         <v>30</v>
       </c>
-      <c r="R44" s="6" t="s">
+      <c r="R44" t="s">
         <v>361</v>
       </c>
-      <c r="S44" s="6" t="s">
+      <c r="S44" t="s">
         <v>335</v>
       </c>
-      <c r="T44" s="6" t="s">
+      <c r="T44" t="s">
         <v>36</v>
       </c>
-      <c r="U44" s="6" t="s">
+      <c r="U44" t="s">
         <v>362</v>
       </c>
     </row>
@@ -7619,62 +7608,62 @@
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" t="s">
         <v>250</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" t="s">
         <v>52</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" t="s">
         <v>108</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46">
         <v>5500000</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46">
         <v>4</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="J46" t="s">
         <v>28</v>
       </c>
-      <c r="K46" s="6" t="s">
+      <c r="K46" t="s">
         <v>29</v>
       </c>
-      <c r="M46" s="8" t="s">
+      <c r="M46" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O46" s="6" t="s">
+      <c r="O46" t="s">
         <v>371</v>
       </c>
-      <c r="P46" s="6" t="s">
+      <c r="P46" t="s">
         <v>94</v>
       </c>
-      <c r="Q46" s="6">
+      <c r="Q46">
         <v>18</v>
       </c>
-      <c r="R46" s="6" t="s">
+      <c r="R46" t="s">
         <v>334</v>
       </c>
-      <c r="S46" s="6" t="s">
+      <c r="S46" t="s">
         <v>335</v>
       </c>
-      <c r="T46" s="6" t="s">
+      <c r="T46" t="s">
         <v>36</v>
       </c>
-      <c r="U46" s="6" t="s">
+      <c r="U46" t="s">
         <v>372</v>
       </c>
     </row>
@@ -7740,186 +7729,186 @@
         <v>639</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" t="s">
         <v>25</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" t="s">
         <v>27</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48">
         <v>6500000</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48">
         <v>5</v>
       </c>
-      <c r="J48" s="6" t="s">
+      <c r="J48" t="s">
         <v>28</v>
       </c>
-      <c r="K48" s="6" t="s">
+      <c r="K48" t="s">
         <v>72</v>
       </c>
-      <c r="M48" s="8" t="s">
+      <c r="M48" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N48" s="6" t="s">
+      <c r="N48" t="s">
         <v>74</v>
       </c>
-      <c r="O48" s="6" t="s">
+      <c r="O48" t="s">
         <v>382</v>
       </c>
-      <c r="P48" s="6" t="s">
+      <c r="P48" t="s">
         <v>383</v>
       </c>
-      <c r="Q48" s="6">
+      <c r="Q48">
         <v>2</v>
       </c>
-      <c r="R48" s="6" t="s">
+      <c r="R48" t="s">
         <v>384</v>
       </c>
-      <c r="S48" s="6" t="s">
+      <c r="S48" t="s">
         <v>385</v>
       </c>
-      <c r="T48" s="6" t="s">
+      <c r="T48" t="s">
         <v>36</v>
       </c>
-      <c r="U48" s="6" t="s">
+      <c r="U48" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" t="s">
         <v>388</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" t="s">
         <v>52</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" t="s">
         <v>27</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49">
         <v>5800000</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49">
         <v>4</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="J49" t="s">
         <v>28</v>
       </c>
-      <c r="K49" s="6" t="s">
+      <c r="K49" t="s">
         <v>42</v>
       </c>
-      <c r="M49" s="8" t="s">
+      <c r="M49" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O49" s="6" t="s">
+      <c r="O49" t="s">
         <v>390</v>
       </c>
-      <c r="P49" s="6" t="s">
+      <c r="P49" t="s">
         <v>391</v>
       </c>
-      <c r="Q49" s="6">
+      <c r="Q49">
         <v>7</v>
       </c>
-      <c r="R49" s="6" t="s">
+      <c r="R49" t="s">
         <v>361</v>
       </c>
-      <c r="S49" s="6" t="s">
+      <c r="S49" t="s">
         <v>335</v>
       </c>
-      <c r="T49" s="6" t="s">
+      <c r="T49" t="s">
         <v>36</v>
       </c>
-      <c r="U49" s="6" t="s">
+      <c r="U49" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" t="s">
         <v>350</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" t="s">
         <v>25</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" t="s">
         <v>52</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" t="s">
         <v>27</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50">
         <v>6200000</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I50">
         <v>4</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J50" t="s">
         <v>28</v>
       </c>
-      <c r="K50" s="6" t="s">
+      <c r="K50" t="s">
         <v>42</v>
       </c>
-      <c r="M50" s="8" t="s">
+      <c r="M50" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N50" s="6" t="s">
+      <c r="N50" t="s">
         <v>352</v>
       </c>
-      <c r="O50" s="6" t="s">
+      <c r="O50" t="s">
         <v>395</v>
       </c>
-      <c r="P50" s="6" t="s">
+      <c r="P50" t="s">
         <v>225</v>
       </c>
-      <c r="Q50" s="6">
+      <c r="Q50">
         <v>25</v>
       </c>
-      <c r="R50" s="6" t="s">
+      <c r="R50" t="s">
         <v>217</v>
       </c>
-      <c r="S50" s="6" t="s">
+      <c r="S50" t="s">
         <v>218</v>
       </c>
-      <c r="T50" s="6" t="s">
+      <c r="T50" t="s">
         <v>36</v>
       </c>
-      <c r="U50" s="6" t="s">
+      <c r="U50" t="s">
         <v>396</v>
       </c>
     </row>
@@ -7985,65 +7974,65 @@
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" t="s">
         <v>25</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" t="s">
         <v>41</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" t="s">
         <v>27</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52">
         <v>7500000</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52">
         <v>5</v>
       </c>
-      <c r="J52" s="6" t="s">
+      <c r="J52" t="s">
         <v>28</v>
       </c>
-      <c r="K52" s="6" t="s">
+      <c r="K52" t="s">
         <v>72</v>
       </c>
-      <c r="M52" s="8" t="s">
+      <c r="M52" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N52" s="6" t="s">
+      <c r="N52" t="s">
         <v>404</v>
       </c>
-      <c r="O52" s="6" t="s">
+      <c r="O52" t="s">
         <v>405</v>
       </c>
-      <c r="P52" s="6" t="s">
+      <c r="P52" t="s">
         <v>225</v>
       </c>
-      <c r="Q52" s="6">
+      <c r="Q52">
         <v>25</v>
       </c>
-      <c r="R52" s="6" t="s">
+      <c r="R52" t="s">
         <v>217</v>
       </c>
-      <c r="S52" s="6" t="s">
+      <c r="S52" t="s">
         <v>218</v>
       </c>
-      <c r="T52" s="6" t="s">
+      <c r="T52" t="s">
         <v>36</v>
       </c>
-      <c r="U52" s="6" t="s">
+      <c r="U52" t="s">
         <v>406</v>
       </c>
     </row>
@@ -8109,127 +8098,127 @@
         <v>566</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" t="s">
         <v>300</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" t="s">
         <v>41</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" t="s">
         <v>27</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54">
         <v>6900000</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54">
         <v>5</v>
       </c>
-      <c r="J54" s="6" t="s">
+      <c r="J54" t="s">
         <v>28</v>
       </c>
-      <c r="K54" s="6" t="s">
+      <c r="K54" t="s">
         <v>72</v>
       </c>
-      <c r="M54" s="8" t="s">
+      <c r="M54" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N54" s="6" t="s">
+      <c r="N54" t="s">
         <v>302</v>
       </c>
-      <c r="O54" s="6" t="s">
+      <c r="O54" t="s">
         <v>415</v>
       </c>
-      <c r="P54" s="6" t="s">
+      <c r="P54" t="s">
         <v>416</v>
       </c>
-      <c r="Q54" s="6">
+      <c r="Q54">
         <v>74</v>
       </c>
-      <c r="R54" s="6" t="s">
+      <c r="R54" t="s">
         <v>417</v>
       </c>
-      <c r="S54" s="6" t="s">
+      <c r="S54" t="s">
         <v>218</v>
       </c>
-      <c r="T54" s="6" t="s">
+      <c r="T54" t="s">
         <v>36</v>
       </c>
-      <c r="U54" s="6" t="s">
+      <c r="U54" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" t="s">
         <v>420</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" t="s">
         <v>52</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G55" t="s">
         <v>27</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55">
         <v>4950000</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I55">
         <v>3</v>
       </c>
-      <c r="J55" s="6" t="s">
+      <c r="J55" t="s">
         <v>28</v>
       </c>
-      <c r="K55" s="6" t="s">
+      <c r="K55" t="s">
         <v>53</v>
       </c>
-      <c r="M55" s="8" t="s">
+      <c r="M55" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N55" s="6" t="s">
+      <c r="N55" t="s">
         <v>183</v>
       </c>
-      <c r="O55" s="6" t="s">
+      <c r="O55" t="s">
         <v>422</v>
       </c>
-      <c r="P55" s="6" t="s">
+      <c r="P55" t="s">
         <v>423</v>
       </c>
-      <c r="Q55" s="6">
+      <c r="Q55">
         <v>98</v>
       </c>
-      <c r="R55" s="6" t="s">
+      <c r="R55" t="s">
         <v>217</v>
       </c>
-      <c r="S55" s="6" t="s">
+      <c r="S55" t="s">
         <v>218</v>
       </c>
-      <c r="T55" s="6" t="s">
+      <c r="T55" t="s">
         <v>36</v>
       </c>
-      <c r="U55" s="6" t="s">
+      <c r="U55" t="s">
         <v>424</v>
       </c>
     </row>
@@ -8298,729 +8287,729 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" t="s">
         <v>432</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" t="s">
         <v>25</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" t="s">
         <v>52</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" t="s">
         <v>108</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57">
         <v>6400000</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I57">
         <v>4</v>
       </c>
-      <c r="J57" s="6" t="s">
+      <c r="J57" t="s">
         <v>28</v>
       </c>
-      <c r="K57" s="6" t="s">
+      <c r="K57" t="s">
         <v>42</v>
       </c>
-      <c r="M57" s="8" t="s">
+      <c r="M57" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N57" s="6" t="s">
+      <c r="N57" t="s">
         <v>434</v>
       </c>
-      <c r="O57" s="6" t="s">
+      <c r="O57" t="s">
         <v>435</v>
       </c>
-      <c r="P57" s="6" t="s">
+      <c r="P57" t="s">
         <v>367</v>
       </c>
-      <c r="Q57" s="6">
+      <c r="Q57">
         <v>21</v>
       </c>
-      <c r="R57" s="6" t="s">
+      <c r="R57" t="s">
         <v>384</v>
       </c>
-      <c r="S57" s="6" t="s">
+      <c r="S57" t="s">
         <v>385</v>
       </c>
-      <c r="T57" s="6" t="s">
+      <c r="T57" t="s">
         <v>36</v>
       </c>
-      <c r="U57" s="6" t="s">
+      <c r="U57" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" t="s">
         <v>25</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" t="s">
         <v>52</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" t="s">
         <v>27</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58">
         <v>6000000</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58">
         <v>4</v>
       </c>
-      <c r="J58" s="6" t="s">
+      <c r="J58" t="s">
         <v>28</v>
       </c>
-      <c r="K58" s="6" t="s">
+      <c r="K58" t="s">
         <v>42</v>
       </c>
-      <c r="M58" s="8" t="s">
+      <c r="M58" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N58" s="6" t="s">
+      <c r="N58" t="s">
         <v>439</v>
       </c>
-      <c r="O58" s="6" t="s">
+      <c r="O58" t="s">
         <v>440</v>
       </c>
-      <c r="P58" s="6" t="s">
+      <c r="P58" t="s">
         <v>367</v>
       </c>
-      <c r="Q58" s="6">
+      <c r="Q58">
         <v>21</v>
       </c>
-      <c r="R58" s="6" t="s">
+      <c r="R58" t="s">
         <v>384</v>
       </c>
-      <c r="S58" s="6" t="s">
+      <c r="S58" t="s">
         <v>385</v>
       </c>
-      <c r="T58" s="6" t="s">
+      <c r="T58" t="s">
         <v>36</v>
       </c>
-      <c r="U58" s="6" t="s">
+      <c r="U58" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" t="s">
         <v>443</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" t="s">
         <v>24</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" t="s">
         <v>25</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F59" t="s">
         <v>52</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G59" t="s">
         <v>27</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59">
         <v>6175000</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59">
         <v>4</v>
       </c>
-      <c r="J59" s="6" t="s">
+      <c r="J59" t="s">
         <v>28</v>
       </c>
-      <c r="K59" s="6" t="s">
+      <c r="K59" t="s">
         <v>42</v>
       </c>
-      <c r="M59" s="8" t="s">
+      <c r="M59" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N59" s="6" t="s">
+      <c r="N59" t="s">
         <v>445</v>
       </c>
-      <c r="O59" s="6" t="s">
+      <c r="O59" t="s">
         <v>446</v>
       </c>
-      <c r="P59" s="6" t="s">
+      <c r="P59" t="s">
         <v>367</v>
       </c>
-      <c r="Q59" s="6">
+      <c r="Q59">
         <v>21</v>
       </c>
-      <c r="R59" s="6" t="s">
+      <c r="R59" t="s">
         <v>217</v>
       </c>
-      <c r="S59" s="6" t="s">
+      <c r="S59" t="s">
         <v>218</v>
       </c>
-      <c r="T59" s="6" t="s">
+      <c r="T59" t="s">
         <v>36</v>
       </c>
-      <c r="U59" s="6" t="s">
+      <c r="U59" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" t="s">
         <v>449</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" t="s">
         <v>25</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" t="s">
         <v>41</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G60" t="s">
         <v>27</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60">
         <v>6000000</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I60">
         <v>4</v>
       </c>
-      <c r="J60" s="6" t="s">
+      <c r="J60" t="s">
         <v>28</v>
       </c>
-      <c r="K60" s="6" t="s">
+      <c r="K60" t="s">
         <v>72</v>
       </c>
-      <c r="M60" s="8" t="s">
+      <c r="M60" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O60" s="6" t="s">
+      <c r="O60" t="s">
         <v>451</v>
       </c>
-      <c r="P60" s="6" t="s">
+      <c r="P60" t="s">
         <v>452</v>
       </c>
-      <c r="Q60" s="6">
+      <c r="Q60">
         <v>3</v>
       </c>
-      <c r="R60" s="6" t="s">
+      <c r="R60" t="s">
         <v>453</v>
       </c>
-      <c r="S60" s="6" t="s">
+      <c r="S60" t="s">
         <v>454</v>
       </c>
-      <c r="T60" s="6" t="s">
+      <c r="T60" t="s">
         <v>36</v>
       </c>
-      <c r="U60" s="6" t="s">
+      <c r="U60" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" t="s">
         <v>457</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" t="s">
         <v>25</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F61" t="s">
         <v>41</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="G61" t="s">
         <v>27</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H61">
         <v>6100000</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61">
         <v>4</v>
       </c>
-      <c r="J61" s="6" t="s">
+      <c r="J61" t="s">
         <v>28</v>
       </c>
-      <c r="K61" s="6" t="s">
+      <c r="K61" t="s">
         <v>42</v>
       </c>
-      <c r="M61" s="8" t="s">
+      <c r="M61" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N61" s="6" t="s">
+      <c r="N61" t="s">
         <v>310</v>
       </c>
-      <c r="O61" s="6" t="s">
+      <c r="O61" t="s">
         <v>459</v>
       </c>
-      <c r="P61" s="6" t="s">
+      <c r="P61" t="s">
         <v>460</v>
       </c>
-      <c r="Q61" s="6">
+      <c r="Q61">
         <v>45</v>
       </c>
-      <c r="R61" s="6" t="s">
+      <c r="R61" t="s">
         <v>461</v>
       </c>
-      <c r="S61" s="6" t="s">
+      <c r="S61" t="s">
         <v>462</v>
       </c>
-      <c r="T61" s="6" t="s">
+      <c r="T61" t="s">
         <v>36</v>
       </c>
-      <c r="U61" s="6" t="s">
+      <c r="U61" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" t="s">
         <v>465</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" t="s">
         <v>24</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" t="s">
         <v>52</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="G62" t="s">
         <v>108</v>
       </c>
-      <c r="H62" s="6">
+      <c r="H62">
         <v>6700000</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I62">
         <v>5</v>
       </c>
-      <c r="J62" s="6" t="s">
+      <c r="J62" t="s">
         <v>28</v>
       </c>
-      <c r="K62" s="6" t="s">
+      <c r="K62" t="s">
         <v>72</v>
       </c>
-      <c r="M62" s="8" t="s">
+      <c r="M62" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O62" s="6" t="s">
+      <c r="O62" t="s">
         <v>467</v>
       </c>
-      <c r="P62" s="6" t="s">
+      <c r="P62" t="s">
         <v>110</v>
       </c>
-      <c r="Q62" s="6">
+      <c r="Q62">
         <v>24</v>
       </c>
-      <c r="R62" s="6" t="s">
+      <c r="R62" t="s">
         <v>468</v>
       </c>
-      <c r="S62" s="6" t="s">
+      <c r="S62" t="s">
         <v>469</v>
       </c>
-      <c r="T62" s="6" t="s">
+      <c r="T62" t="s">
         <v>36</v>
       </c>
-      <c r="U62" s="6" t="s">
+      <c r="U62" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="63" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" t="s">
         <v>472</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" t="s">
         <v>25</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F63" t="s">
         <v>41</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="G63" t="s">
         <v>27</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H63">
         <v>6999000</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I63">
         <v>5</v>
       </c>
-      <c r="J63" s="6" t="s">
+      <c r="J63" t="s">
         <v>28</v>
       </c>
-      <c r="K63" s="6" t="s">
+      <c r="K63" t="s">
         <v>72</v>
       </c>
-      <c r="M63" s="8" t="s">
+      <c r="M63" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O63" s="6" t="s">
+      <c r="O63" t="s">
         <v>474</v>
       </c>
-      <c r="P63" s="6" t="s">
+      <c r="P63" t="s">
         <v>377</v>
       </c>
-      <c r="Q63" s="6">
+      <c r="Q63">
         <v>8</v>
       </c>
-      <c r="R63" s="6" t="s">
+      <c r="R63" t="s">
         <v>475</v>
       </c>
-      <c r="S63" s="6" t="s">
+      <c r="S63" t="s">
         <v>476</v>
       </c>
-      <c r="T63" s="6" t="s">
+      <c r="T63" t="s">
         <v>36</v>
       </c>
-      <c r="U63" s="6" t="s">
+      <c r="U63" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="64" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" t="s">
         <v>479</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" t="s">
         <v>25</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="F64" t="s">
         <v>41</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G64" t="s">
         <v>108</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H64">
         <v>5100000</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I64">
         <v>3</v>
       </c>
-      <c r="J64" s="6" t="s">
+      <c r="J64" t="s">
         <v>28</v>
       </c>
-      <c r="K64" s="6" t="s">
+      <c r="K64" t="s">
         <v>53</v>
       </c>
-      <c r="M64" s="8" t="s">
+      <c r="M64" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N64" s="6" t="s">
+      <c r="N64" t="s">
         <v>481</v>
       </c>
-      <c r="O64" s="6" t="s">
+      <c r="O64" t="s">
         <v>482</v>
       </c>
-      <c r="P64" s="6" t="s">
+      <c r="P64" t="s">
         <v>452</v>
       </c>
-      <c r="Q64" s="6">
+      <c r="Q64">
         <v>3</v>
       </c>
-      <c r="R64" s="6" t="s">
+      <c r="R64" t="s">
         <v>483</v>
       </c>
-      <c r="S64" s="6" t="s">
+      <c r="S64" t="s">
         <v>484</v>
       </c>
-      <c r="T64" s="6" t="s">
+      <c r="T64" t="s">
         <v>36</v>
       </c>
-      <c r="U64" s="6" t="s">
+      <c r="U64" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="65" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" t="s">
         <v>250</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" t="s">
         <v>25</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F65" t="s">
         <v>52</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G65" t="s">
         <v>27</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H65">
         <v>5500000</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I65">
         <v>4</v>
       </c>
-      <c r="J65" s="6" t="s">
+      <c r="J65" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="6" t="s">
+      <c r="K65" t="s">
         <v>29</v>
       </c>
-      <c r="M65" s="8" t="s">
+      <c r="M65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O65" s="6" t="s">
+      <c r="O65" t="s">
         <v>488</v>
       </c>
-      <c r="P65" s="6" t="s">
+      <c r="P65" t="s">
         <v>489</v>
       </c>
-      <c r="Q65" s="6">
+      <c r="Q65">
         <v>71</v>
       </c>
-      <c r="R65" s="6" t="s">
+      <c r="R65" t="s">
         <v>490</v>
       </c>
-      <c r="S65" s="6" t="s">
+      <c r="S65" t="s">
         <v>491</v>
       </c>
-      <c r="T65" s="6" t="s">
+      <c r="T65" t="s">
         <v>36</v>
       </c>
-      <c r="U65" s="6" t="s">
+      <c r="U65" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="66" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" t="s">
         <v>494</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" t="s">
         <v>24</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" t="s">
         <v>25</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F66" t="s">
         <v>41</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G66" t="s">
         <v>27</v>
       </c>
-      <c r="H66" s="6">
+      <c r="H66">
         <v>5050000</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I66">
         <v>4</v>
       </c>
-      <c r="J66" s="6" t="s">
+      <c r="J66" t="s">
         <v>28</v>
       </c>
-      <c r="K66" s="6" t="s">
+      <c r="K66" t="s">
         <v>29</v>
       </c>
-      <c r="M66" s="8" t="s">
+      <c r="M66" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N66" s="6" t="s">
+      <c r="N66" t="s">
         <v>496</v>
       </c>
-      <c r="O66" s="6" t="s">
+      <c r="O66" t="s">
         <v>497</v>
       </c>
-      <c r="P66" s="6" t="s">
+      <c r="P66" t="s">
         <v>360</v>
       </c>
-      <c r="Q66" s="6">
+      <c r="Q66">
         <v>30</v>
       </c>
-      <c r="R66" s="6" t="s">
+      <c r="R66" t="s">
         <v>498</v>
       </c>
-      <c r="S66" s="6" t="s">
+      <c r="S66" t="s">
         <v>499</v>
       </c>
-      <c r="T66" s="6" t="s">
+      <c r="T66" t="s">
         <v>36</v>
       </c>
-      <c r="U66" s="6" t="s">
+      <c r="U66" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" t="s">
         <v>502</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" t="s">
         <v>24</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" t="s">
         <v>25</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F67" t="s">
         <v>52</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G67" t="s">
         <v>27</v>
       </c>
-      <c r="H67" s="6">
+      <c r="H67">
         <v>5500000</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I67">
         <v>3</v>
       </c>
-      <c r="J67" s="6" t="s">
+      <c r="J67" t="s">
         <v>28</v>
       </c>
-      <c r="K67" s="6" t="s">
+      <c r="K67" t="s">
         <v>53</v>
       </c>
-      <c r="M67" s="8" t="s">
+      <c r="M67" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O67" s="6" t="s">
+      <c r="O67" t="s">
         <v>504</v>
       </c>
-      <c r="P67" s="6" t="s">
+      <c r="P67" t="s">
         <v>225</v>
       </c>
-      <c r="Q67" s="6">
+      <c r="Q67">
         <v>25</v>
       </c>
-      <c r="R67" s="6" t="s">
+      <c r="R67" t="s">
         <v>505</v>
       </c>
-      <c r="S67" s="6" t="s">
+      <c r="S67" t="s">
         <v>506</v>
       </c>
-      <c r="T67" s="6" t="s">
+      <c r="T67" t="s">
         <v>36</v>
       </c>
-      <c r="U67" s="6" t="s">
+      <c r="U67" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="68" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" t="s">
         <v>509</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" t="s">
         <v>25</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F68" t="s">
         <v>52</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G68" t="s">
         <v>27</v>
       </c>
-      <c r="H68" s="6">
+      <c r="H68">
         <v>5250000</v>
       </c>
-      <c r="I68" s="6">
+      <c r="I68">
         <v>4</v>
       </c>
-      <c r="J68" s="6" t="s">
+      <c r="J68" t="s">
         <v>28</v>
       </c>
-      <c r="K68" s="6" t="s">
+      <c r="K68" t="s">
         <v>29</v>
       </c>
-      <c r="M68" s="8" t="s">
+      <c r="M68" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O68" s="6" t="s">
+      <c r="O68" t="s">
         <v>511</v>
       </c>
-      <c r="P68" s="6" t="s">
+      <c r="P68" t="s">
         <v>452</v>
       </c>
-      <c r="Q68" s="6">
+      <c r="Q68">
         <v>3</v>
       </c>
-      <c r="R68" s="6" t="s">
+      <c r="R68" t="s">
         <v>512</v>
       </c>
-      <c r="S68" s="6" t="s">
+      <c r="S68" t="s">
         <v>513</v>
       </c>
-      <c r="T68" s="6" t="s">
+      <c r="T68" t="s">
         <v>36</v>
       </c>
-      <c r="U68" s="6" t="s">
+      <c r="U68" t="s">
         <v>514</v>
       </c>
     </row>
@@ -9151,65 +9140,65 @@
         <v>598</v>
       </c>
     </row>
-    <row r="71" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" t="s">
         <v>524</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" t="s">
         <v>24</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" t="s">
         <v>25</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="F71" t="s">
         <v>52</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="G71" t="s">
         <v>108</v>
       </c>
-      <c r="H71" s="6">
+      <c r="H71">
         <v>5800000</v>
       </c>
-      <c r="I71" s="6">
+      <c r="I71">
         <v>4</v>
       </c>
-      <c r="J71" s="6" t="s">
+      <c r="J71" t="s">
         <v>28</v>
       </c>
-      <c r="K71" s="6" t="s">
+      <c r="K71" t="s">
         <v>42</v>
       </c>
-      <c r="M71" s="8" t="s">
+      <c r="M71" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N71" s="6" t="s">
+      <c r="N71" t="s">
         <v>43</v>
       </c>
-      <c r="O71" s="6" t="s">
+      <c r="O71" t="s">
         <v>526</v>
       </c>
-      <c r="P71" s="6" t="s">
+      <c r="P71" t="s">
         <v>342</v>
       </c>
-      <c r="Q71" s="6">
+      <c r="Q71">
         <v>52</v>
       </c>
-      <c r="R71" s="6" t="s">
+      <c r="R71" t="s">
         <v>527</v>
       </c>
-      <c r="S71" s="6" t="s">
+      <c r="S71" t="s">
         <v>528</v>
       </c>
-      <c r="T71" s="6" t="s">
+      <c r="T71" t="s">
         <v>36</v>
       </c>
-      <c r="U71" s="6" t="s">
+      <c r="U71" t="s">
         <v>529</v>
       </c>
     </row>
@@ -9343,183 +9332,183 @@
         <v>542</v>
       </c>
     </row>
-    <row r="74" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" t="s">
         <v>544</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" t="s">
         <v>24</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" t="s">
         <v>25</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F74" t="s">
         <v>52</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G74" t="s">
         <v>108</v>
       </c>
-      <c r="H74" s="6">
+      <c r="H74">
         <v>6800000</v>
       </c>
-      <c r="I74" s="6">
+      <c r="I74">
         <v>4</v>
       </c>
-      <c r="J74" s="6" t="s">
+      <c r="J74" t="s">
         <v>28</v>
       </c>
-      <c r="K74" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M74" s="8" t="s">
+      <c r="K74" t="s">
+        <v>42</v>
+      </c>
+      <c r="M74" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N74" s="6" t="s">
+      <c r="N74" t="s">
         <v>546</v>
       </c>
-      <c r="O74" s="6" t="s">
+      <c r="O74" t="s">
         <v>547</v>
       </c>
-      <c r="P74" s="6" t="s">
+      <c r="P74" t="s">
         <v>452</v>
       </c>
-      <c r="Q74" s="6">
+      <c r="Q74">
         <v>3</v>
       </c>
-      <c r="R74" s="6" t="s">
+      <c r="R74" t="s">
         <v>548</v>
       </c>
-      <c r="S74" s="6" t="s">
+      <c r="S74" t="s">
         <v>549</v>
       </c>
-      <c r="T74" s="6" t="s">
+      <c r="T74" t="s">
         <v>36</v>
       </c>
-      <c r="U74" s="6" t="s">
+      <c r="U74" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="75" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" t="s">
         <v>300</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" t="s">
         <v>25</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="F75" t="s">
         <v>41</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="G75" t="s">
         <v>27</v>
       </c>
-      <c r="H75" s="6">
+      <c r="H75">
         <v>6900000</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I75">
         <v>5</v>
       </c>
-      <c r="J75" s="6" t="s">
+      <c r="J75" t="s">
         <v>28</v>
       </c>
-      <c r="K75" s="6" t="s">
+      <c r="K75" t="s">
         <v>72</v>
       </c>
-      <c r="M75" s="8" t="s">
+      <c r="M75" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O75" s="6" t="s">
+      <c r="O75" t="s">
         <v>553</v>
       </c>
-      <c r="P75" s="6" t="s">
+      <c r="P75" t="s">
         <v>193</v>
       </c>
-      <c r="Q75" s="6">
+      <c r="Q75">
         <v>51</v>
       </c>
-      <c r="R75" s="6" t="s">
+      <c r="R75" t="s">
         <v>554</v>
       </c>
-      <c r="S75" s="6" t="s">
+      <c r="S75" t="s">
         <v>555</v>
       </c>
-      <c r="T75" s="6" t="s">
+      <c r="T75" t="s">
         <v>36</v>
       </c>
-      <c r="U75" s="6" t="s">
+      <c r="U75" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="76" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" t="s">
         <v>316</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" t="s">
         <v>24</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" t="s">
         <v>25</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="F76" t="s">
         <v>52</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G76" t="s">
         <v>27</v>
       </c>
-      <c r="H76" s="6">
+      <c r="H76">
         <v>6100000</v>
       </c>
-      <c r="I76" s="6">
+      <c r="I76">
         <v>4</v>
       </c>
-      <c r="J76" s="6" t="s">
+      <c r="J76" t="s">
         <v>28</v>
       </c>
-      <c r="K76" s="6" t="s">
+      <c r="K76" t="s">
         <v>42</v>
       </c>
-      <c r="M76" s="8" t="s">
+      <c r="M76" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O76" s="6" t="s">
+      <c r="O76" t="s">
         <v>559</v>
       </c>
-      <c r="P76" s="6" t="s">
+      <c r="P76" t="s">
         <v>452</v>
       </c>
-      <c r="Q76" s="6">
+      <c r="Q76">
         <v>3</v>
       </c>
-      <c r="R76" s="6" t="s">
+      <c r="R76" t="s">
         <v>560</v>
       </c>
-      <c r="S76" s="6" t="s">
+      <c r="S76" t="s">
         <v>561</v>
       </c>
-      <c r="T76" s="6" t="s">
+      <c r="T76" t="s">
         <v>36</v>
       </c>
-      <c r="U76" s="6" t="s">
+      <c r="U76" t="s">
         <v>562</v>
       </c>
     </row>
@@ -9653,65 +9642,65 @@
         <v>716</v>
       </c>
     </row>
-    <row r="79" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" t="s">
         <v>574</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" t="s">
         <v>24</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" t="s">
         <v>25</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="F79" t="s">
         <v>41</v>
       </c>
-      <c r="G79" s="6" t="s">
+      <c r="G79" t="s">
         <v>27</v>
       </c>
-      <c r="H79" s="6">
+      <c r="H79">
         <v>6000000</v>
       </c>
-      <c r="I79" s="6">
+      <c r="I79">
         <v>4</v>
       </c>
-      <c r="J79" s="6" t="s">
+      <c r="J79" t="s">
         <v>28</v>
       </c>
-      <c r="K79" s="6" t="s">
+      <c r="K79" t="s">
         <v>42</v>
       </c>
-      <c r="M79" s="8" t="s">
+      <c r="M79" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N79" s="6" t="s">
+      <c r="N79" t="s">
         <v>576</v>
       </c>
-      <c r="O79" s="6" t="s">
+      <c r="O79" t="s">
         <v>577</v>
       </c>
-      <c r="P79" s="6" t="s">
+      <c r="P79" t="s">
         <v>124</v>
       </c>
-      <c r="Q79" s="6">
+      <c r="Q79">
         <v>32</v>
       </c>
-      <c r="R79" s="6" t="s">
+      <c r="R79" t="s">
         <v>560</v>
       </c>
-      <c r="S79" s="6" t="s">
+      <c r="S79" t="s">
         <v>561</v>
       </c>
-      <c r="T79" s="6" t="s">
+      <c r="T79" t="s">
         <v>36</v>
       </c>
-      <c r="U79" s="6" t="s">
+      <c r="U79" t="s">
         <v>578</v>
       </c>
     </row>
@@ -9780,127 +9769,127 @@
         <v>248</v>
       </c>
     </row>
-    <row r="81" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" t="s">
         <v>112</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" t="s">
         <v>25</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="F81" t="s">
         <v>41</v>
       </c>
-      <c r="G81" s="6" t="s">
+      <c r="G81" t="s">
         <v>27</v>
       </c>
-      <c r="H81" s="6">
+      <c r="H81">
         <v>7500000</v>
       </c>
-      <c r="I81" s="6">
+      <c r="I81">
         <v>5</v>
       </c>
-      <c r="J81" s="6" t="s">
+      <c r="J81" t="s">
         <v>28</v>
       </c>
-      <c r="K81" s="6" t="s">
+      <c r="K81" t="s">
         <v>72</v>
       </c>
-      <c r="M81" s="8" t="s">
+      <c r="M81" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N81" s="6" t="s">
+      <c r="N81" t="s">
         <v>404</v>
       </c>
-      <c r="O81" s="6" t="s">
+      <c r="O81" t="s">
         <v>588</v>
       </c>
-      <c r="P81" s="6" t="s">
+      <c r="P81" t="s">
         <v>584</v>
       </c>
-      <c r="Q81" s="6">
+      <c r="Q81">
         <v>17</v>
       </c>
-      <c r="R81" s="6" t="s">
+      <c r="R81" t="s">
         <v>560</v>
       </c>
-      <c r="S81" s="6" t="s">
+      <c r="S81" t="s">
         <v>561</v>
       </c>
-      <c r="T81" s="6" t="s">
+      <c r="T81" t="s">
         <v>36</v>
       </c>
-      <c r="U81" s="6" t="s">
+      <c r="U81" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" t="s">
         <v>213</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" t="s">
         <v>24</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E82" t="s">
         <v>25</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="F82" t="s">
         <v>41</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="G82" t="s">
         <v>27</v>
       </c>
-      <c r="H82" s="6">
+      <c r="H82">
         <v>5200000</v>
       </c>
-      <c r="I82" s="6">
+      <c r="I82">
         <v>3</v>
       </c>
-      <c r="J82" s="6" t="s">
+      <c r="J82" t="s">
         <v>28</v>
       </c>
-      <c r="K82" s="6" t="s">
+      <c r="K82" t="s">
         <v>53</v>
       </c>
-      <c r="M82" s="8" t="s">
+      <c r="M82" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N82" s="6" t="s">
+      <c r="N82" t="s">
         <v>592</v>
       </c>
-      <c r="O82" s="6" t="s">
+      <c r="O82" t="s">
         <v>593</v>
       </c>
-      <c r="P82" s="6" t="s">
+      <c r="P82" t="s">
         <v>85</v>
       </c>
-      <c r="Q82" s="6">
+      <c r="Q82">
         <v>14</v>
       </c>
-      <c r="R82" s="6" t="s">
+      <c r="R82" t="s">
         <v>560</v>
       </c>
-      <c r="S82" s="6" t="s">
+      <c r="S82" t="s">
         <v>561</v>
       </c>
-      <c r="T82" s="6" t="s">
+      <c r="T82" t="s">
         <v>36</v>
       </c>
-      <c r="U82" s="6" t="s">
+      <c r="U82" t="s">
         <v>594</v>
       </c>
     </row>
@@ -9969,310 +9958,310 @@
         <v>270</v>
       </c>
     </row>
-    <row r="84" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" t="s">
         <v>600</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" t="s">
         <v>24</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" t="s">
         <v>25</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F84" t="s">
         <v>52</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="G84" t="s">
         <v>27</v>
       </c>
-      <c r="H84" s="6">
+      <c r="H84">
         <v>5800000</v>
       </c>
-      <c r="I84" s="6">
+      <c r="I84">
         <v>4</v>
       </c>
-      <c r="J84" s="6" t="s">
+      <c r="J84" t="s">
         <v>28</v>
       </c>
-      <c r="K84" s="6" t="s">
+      <c r="K84" t="s">
         <v>29</v>
       </c>
-      <c r="M84" s="8" t="s">
+      <c r="M84" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N84" s="6" t="s">
+      <c r="N84" t="s">
         <v>602</v>
       </c>
-      <c r="O84" s="6" t="s">
+      <c r="O84" t="s">
         <v>603</v>
       </c>
-      <c r="P84" s="6" t="s">
+      <c r="P84" t="s">
         <v>147</v>
       </c>
-      <c r="Q84" s="6">
+      <c r="Q84">
         <v>1</v>
       </c>
-      <c r="R84" s="6" t="s">
+      <c r="R84" t="s">
         <v>560</v>
       </c>
-      <c r="S84" s="6" t="s">
+      <c r="S84" t="s">
         <v>561</v>
       </c>
-      <c r="T84" s="6" t="s">
+      <c r="T84" t="s">
         <v>36</v>
       </c>
-      <c r="U84" s="6" t="s">
+      <c r="U84" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="85" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" t="s">
         <v>524</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E85" t="s">
         <v>25</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="F85" t="s">
         <v>52</v>
       </c>
-      <c r="G85" s="6" t="s">
+      <c r="G85" t="s">
         <v>108</v>
       </c>
-      <c r="H85" s="6">
+      <c r="H85">
         <v>5800000</v>
       </c>
-      <c r="I85" s="6">
+      <c r="I85">
         <v>4</v>
       </c>
-      <c r="J85" s="6" t="s">
+      <c r="J85" t="s">
         <v>28</v>
       </c>
-      <c r="K85" s="6" t="s">
+      <c r="K85" t="s">
         <v>42</v>
       </c>
-      <c r="M85" s="8" t="s">
+      <c r="M85" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N85" s="6" t="s">
+      <c r="N85" t="s">
         <v>607</v>
       </c>
-      <c r="O85" s="6" t="s">
+      <c r="O85" t="s">
         <v>608</v>
       </c>
-      <c r="P85" s="6" t="s">
+      <c r="P85" t="s">
         <v>383</v>
       </c>
-      <c r="Q85" s="6">
+      <c r="Q85">
         <v>2</v>
       </c>
-      <c r="R85" s="6" t="s">
+      <c r="R85" t="s">
         <v>609</v>
       </c>
-      <c r="S85" s="6" t="s">
+      <c r="S85" t="s">
         <v>561</v>
       </c>
-      <c r="T85" s="6" t="s">
+      <c r="T85" t="s">
         <v>36</v>
       </c>
-      <c r="U85" s="6" t="s">
+      <c r="U85" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="86" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" t="s">
         <v>612</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" t="s">
         <v>24</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E86" t="s">
         <v>25</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="F86" t="s">
         <v>41</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G86" t="s">
         <v>27</v>
       </c>
-      <c r="H86" s="6">
+      <c r="H86">
         <v>6100000</v>
       </c>
-      <c r="I86" s="6">
+      <c r="I86">
         <v>4</v>
       </c>
-      <c r="J86" s="6" t="s">
+      <c r="J86" t="s">
         <v>28</v>
       </c>
-      <c r="K86" s="6" t="s">
+      <c r="K86" t="s">
         <v>42</v>
       </c>
-      <c r="M86" s="8" t="s">
+      <c r="M86" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N86" s="6" t="s">
+      <c r="N86" t="s">
         <v>614</v>
       </c>
-      <c r="O86" s="6" t="s">
+      <c r="O86" t="s">
         <v>615</v>
       </c>
-      <c r="P86" s="6" t="s">
+      <c r="P86" t="s">
         <v>377</v>
       </c>
-      <c r="Q86" s="6">
+      <c r="Q86">
         <v>8</v>
       </c>
-      <c r="R86" s="6" t="s">
+      <c r="R86" t="s">
         <v>616</v>
       </c>
-      <c r="S86" s="6" t="s">
+      <c r="S86" t="s">
         <v>561</v>
       </c>
-      <c r="T86" s="6" t="s">
+      <c r="T86" t="s">
         <v>36</v>
       </c>
-      <c r="U86" s="6" t="s">
+      <c r="U86" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" t="s">
         <v>619</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E87" t="s">
         <v>25</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="F87" t="s">
         <v>52</v>
       </c>
-      <c r="G87" s="6" t="s">
+      <c r="G87" t="s">
         <v>27</v>
       </c>
-      <c r="H87" s="6">
+      <c r="H87">
         <v>6199000</v>
       </c>
-      <c r="I87" s="6">
+      <c r="I87">
         <v>5</v>
       </c>
-      <c r="J87" s="6" t="s">
+      <c r="J87" t="s">
         <v>28</v>
       </c>
-      <c r="K87" s="6" t="s">
+      <c r="K87" t="s">
         <v>72</v>
       </c>
-      <c r="M87" s="8" t="s">
+      <c r="M87" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N87" s="6" t="s">
+      <c r="N87" t="s">
         <v>621</v>
       </c>
-      <c r="O87" s="6" t="s">
+      <c r="O87" t="s">
         <v>622</v>
       </c>
-      <c r="P87" s="6" t="s">
+      <c r="P87" t="s">
         <v>623</v>
       </c>
-      <c r="Q87" s="6">
+      <c r="Q87">
         <v>122</v>
       </c>
-      <c r="R87" s="6" t="s">
+      <c r="R87" t="s">
         <v>624</v>
       </c>
-      <c r="S87" s="6" t="s">
+      <c r="S87" t="s">
         <v>625</v>
       </c>
-      <c r="T87" s="6" t="s">
+      <c r="T87" t="s">
         <v>36</v>
       </c>
-      <c r="U87" s="6" t="s">
+      <c r="U87" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" t="s">
         <v>628</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" t="s">
         <v>24</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E88" t="s">
         <v>25</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="F88" t="s">
         <v>52</v>
       </c>
-      <c r="G88" s="6" t="s">
+      <c r="G88" t="s">
         <v>27</v>
       </c>
-      <c r="H88" s="6">
+      <c r="H88">
         <v>5500000</v>
       </c>
-      <c r="I88" s="6">
+      <c r="I88">
         <v>4</v>
       </c>
-      <c r="J88" s="6" t="s">
+      <c r="J88" t="s">
         <v>28</v>
       </c>
-      <c r="K88" s="6" t="s">
+      <c r="K88" t="s">
         <v>42</v>
       </c>
-      <c r="M88" s="8" t="s">
+      <c r="M88" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O88" s="6" t="s">
+      <c r="O88" t="s">
         <v>630</v>
       </c>
-      <c r="P88" s="6" t="s">
+      <c r="P88" t="s">
         <v>452</v>
       </c>
-      <c r="Q88" s="6">
+      <c r="Q88">
         <v>3</v>
       </c>
-      <c r="R88" s="6" t="s">
+      <c r="R88" t="s">
         <v>631</v>
       </c>
-      <c r="S88" s="6" t="s">
+      <c r="S88" t="s">
         <v>625</v>
       </c>
-      <c r="T88" s="6" t="s">
+      <c r="T88" t="s">
         <v>36</v>
       </c>
-      <c r="U88" s="6" t="s">
+      <c r="U88" t="s">
         <v>632</v>
       </c>
     </row>
@@ -10341,124 +10330,124 @@
         <v>412</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" t="s">
         <v>641</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" t="s">
         <v>24</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" t="s">
         <v>25</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F90" t="s">
         <v>52</v>
       </c>
-      <c r="G90" s="6" t="s">
+      <c r="G90" t="s">
         <v>27</v>
       </c>
-      <c r="H90" s="6">
+      <c r="H90">
         <v>5749999</v>
       </c>
-      <c r="I90" s="6">
+      <c r="I90">
         <v>4</v>
       </c>
-      <c r="J90" s="6" t="s">
+      <c r="J90" t="s">
         <v>28</v>
       </c>
-      <c r="K90" s="6" t="s">
+      <c r="K90" t="s">
         <v>42</v>
       </c>
-      <c r="M90" s="8" t="s">
+      <c r="M90" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N90" s="6" t="s">
+      <c r="N90" t="s">
         <v>643</v>
       </c>
-      <c r="O90" s="6" t="s">
+      <c r="O90" t="s">
         <v>644</v>
       </c>
-      <c r="P90" s="6" t="s">
+      <c r="P90" t="s">
         <v>400</v>
       </c>
-      <c r="Q90" s="6">
+      <c r="Q90">
         <v>16</v>
       </c>
-      <c r="R90" s="6" t="s">
+      <c r="R90" t="s">
         <v>645</v>
       </c>
-      <c r="S90" s="6" t="s">
+      <c r="S90" t="s">
         <v>646</v>
       </c>
-      <c r="T90" s="6" t="s">
+      <c r="T90" t="s">
         <v>36</v>
       </c>
-      <c r="U90" s="6" t="s">
+      <c r="U90" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="91" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" t="s">
         <v>649</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" t="s">
         <v>24</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" t="s">
         <v>25</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="F91" t="s">
         <v>41</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="G91" t="s">
         <v>27</v>
       </c>
-      <c r="H91" s="6">
+      <c r="H91">
         <v>6500000</v>
       </c>
-      <c r="I91" s="6">
+      <c r="I91">
         <v>4</v>
       </c>
-      <c r="J91" s="6" t="s">
+      <c r="J91" t="s">
         <v>28</v>
       </c>
-      <c r="K91" s="6" t="s">
+      <c r="K91" t="s">
         <v>42</v>
       </c>
-      <c r="M91" s="8" t="s">
+      <c r="M91" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O91" s="6" t="s">
+      <c r="O91" t="s">
         <v>651</v>
       </c>
-      <c r="P91" s="6" t="s">
+      <c r="P91" t="s">
         <v>312</v>
       </c>
-      <c r="Q91" s="6">
+      <c r="Q91">
         <v>42</v>
       </c>
-      <c r="R91" s="6" t="s">
+      <c r="R91" t="s">
         <v>652</v>
       </c>
-      <c r="S91" s="6" t="s">
+      <c r="S91" t="s">
         <v>653</v>
       </c>
-      <c r="T91" s="6" t="s">
+      <c r="T91" t="s">
         <v>36</v>
       </c>
-      <c r="U91" s="6" t="s">
+      <c r="U91" t="s">
         <v>654</v>
       </c>
     </row>
@@ -10527,65 +10516,65 @@
         <v>535</v>
       </c>
     </row>
-    <row r="93" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" t="s">
         <v>619</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" t="s">
         <v>24</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" t="s">
         <v>25</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F93" t="s">
         <v>52</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="G93" t="s">
         <v>27</v>
       </c>
-      <c r="H93" s="6">
+      <c r="H93">
         <v>5900000</v>
       </c>
-      <c r="I93" s="6">
+      <c r="I93">
         <v>5</v>
       </c>
-      <c r="J93" s="6" t="s">
+      <c r="J93" t="s">
         <v>28</v>
       </c>
-      <c r="K93" s="6" t="s">
+      <c r="K93" t="s">
         <v>72</v>
       </c>
-      <c r="M93" s="8" t="s">
+      <c r="M93" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N93" s="6" t="s">
+      <c r="N93" t="s">
         <v>662</v>
       </c>
-      <c r="O93" s="6" t="s">
+      <c r="O93" t="s">
         <v>663</v>
       </c>
-      <c r="P93" s="6" t="s">
+      <c r="P93" t="s">
         <v>664</v>
       </c>
-      <c r="Q93" s="6">
+      <c r="Q93">
         <v>10</v>
       </c>
-      <c r="R93" s="6" t="s">
+      <c r="R93" t="s">
         <v>665</v>
       </c>
-      <c r="S93" s="6" t="s">
+      <c r="S93" t="s">
         <v>666</v>
       </c>
-      <c r="T93" s="6" t="s">
+      <c r="T93" t="s">
         <v>36</v>
       </c>
-      <c r="U93" s="6" t="s">
+      <c r="U93" t="s">
         <v>667</v>
       </c>
     </row>
@@ -10654,363 +10643,363 @@
         <v>788</v>
       </c>
     </row>
-    <row r="95" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" t="s">
         <v>677</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" t="s">
         <v>24</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" t="s">
         <v>25</v>
       </c>
-      <c r="F95" s="6" t="s">
+      <c r="F95" t="s">
         <v>52</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="G95" t="s">
         <v>27</v>
       </c>
-      <c r="H95" s="6">
+      <c r="H95">
         <v>5500000</v>
       </c>
-      <c r="I95" s="6">
+      <c r="I95">
         <v>4</v>
       </c>
-      <c r="J95" s="6" t="s">
+      <c r="J95" t="s">
         <v>28</v>
       </c>
-      <c r="K95" s="6" t="s">
+      <c r="K95" t="s">
         <v>42</v>
       </c>
-      <c r="M95" s="8" t="s">
+      <c r="M95" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O95" s="6" t="s">
+      <c r="O95" t="s">
         <v>679</v>
       </c>
-      <c r="P95" s="6" t="s">
+      <c r="P95" t="s">
         <v>680</v>
       </c>
-      <c r="Q95" s="6">
+      <c r="Q95">
         <v>70</v>
       </c>
-      <c r="R95" s="6" t="s">
+      <c r="R95" t="s">
         <v>548</v>
       </c>
-      <c r="S95" s="6" t="s">
+      <c r="S95" t="s">
         <v>549</v>
       </c>
-      <c r="T95" s="6" t="s">
+      <c r="T95" t="s">
         <v>36</v>
       </c>
-      <c r="U95" s="6" t="s">
+      <c r="U95" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="96" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" t="s">
         <v>683</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" t="s">
         <v>24</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" t="s">
         <v>25</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="F96" t="s">
         <v>41</v>
       </c>
-      <c r="G96" s="6" t="s">
+      <c r="G96" t="s">
         <v>27</v>
       </c>
-      <c r="H96" s="6">
+      <c r="H96">
         <v>5300000</v>
       </c>
-      <c r="I96" s="6">
+      <c r="I96">
         <v>4</v>
       </c>
-      <c r="J96" s="6" t="s">
+      <c r="J96" t="s">
         <v>28</v>
       </c>
-      <c r="K96" s="6" t="s">
+      <c r="K96" t="s">
         <v>29</v>
       </c>
-      <c r="M96" s="8" t="s">
+      <c r="M96" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O96" s="6" t="s">
+      <c r="O96" t="s">
         <v>685</v>
       </c>
-      <c r="P96" s="6" t="s">
+      <c r="P96" t="s">
         <v>246</v>
       </c>
-      <c r="Q96" s="6">
+      <c r="Q96">
         <v>65</v>
       </c>
-      <c r="R96" s="6" t="s">
+      <c r="R96" t="s">
         <v>548</v>
       </c>
-      <c r="S96" s="6" t="s">
+      <c r="S96" t="s">
         <v>549</v>
       </c>
-      <c r="T96" s="6" t="s">
+      <c r="T96" t="s">
         <v>36</v>
       </c>
-      <c r="U96" s="6" t="s">
+      <c r="U96" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="97" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" t="s">
         <v>688</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" t="s">
         <v>24</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E97" t="s">
         <v>25</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="F97" t="s">
         <v>41</v>
       </c>
-      <c r="G97" s="6" t="s">
+      <c r="G97" t="s">
         <v>27</v>
       </c>
-      <c r="H97" s="6">
+      <c r="H97">
         <v>6800000</v>
       </c>
-      <c r="I97" s="6">
+      <c r="I97">
         <v>4</v>
       </c>
-      <c r="J97" s="6" t="s">
+      <c r="J97" t="s">
         <v>28</v>
       </c>
-      <c r="K97" s="6" t="s">
+      <c r="K97" t="s">
         <v>42</v>
       </c>
-      <c r="M97" s="8" t="s">
+      <c r="M97" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N97" s="6" t="s">
+      <c r="N97" t="s">
         <v>690</v>
       </c>
-      <c r="O97" s="6" t="s">
+      <c r="O97" t="s">
         <v>691</v>
       </c>
-      <c r="P97" s="6" t="s">
+      <c r="P97" t="s">
         <v>231</v>
       </c>
-      <c r="Q97" s="6">
+      <c r="Q97">
         <v>57</v>
       </c>
-      <c r="R97" s="6" t="s">
+      <c r="R97" t="s">
         <v>548</v>
       </c>
-      <c r="S97" s="6" t="s">
+      <c r="S97" t="s">
         <v>549</v>
       </c>
-      <c r="T97" s="6" t="s">
+      <c r="T97" t="s">
         <v>36</v>
       </c>
-      <c r="U97" s="6" t="s">
+      <c r="U97" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="98" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" t="s">
         <v>338</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" t="s">
         <v>24</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E98" t="s">
         <v>25</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="F98" t="s">
         <v>52</v>
       </c>
-      <c r="G98" s="6" t="s">
+      <c r="G98" t="s">
         <v>27</v>
       </c>
-      <c r="H98" s="6">
+      <c r="H98">
         <v>5600000</v>
       </c>
-      <c r="I98" s="6">
+      <c r="I98">
         <v>4</v>
       </c>
-      <c r="J98" s="6" t="s">
+      <c r="J98" t="s">
         <v>28</v>
       </c>
-      <c r="K98" s="6" t="s">
+      <c r="K98" t="s">
         <v>42</v>
       </c>
-      <c r="M98" s="8" t="s">
+      <c r="M98" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O98" s="6" t="s">
+      <c r="O98" t="s">
         <v>695</v>
       </c>
-      <c r="P98" s="6" t="s">
+      <c r="P98" t="s">
         <v>539</v>
       </c>
-      <c r="Q98" s="6">
+      <c r="Q98">
         <v>46</v>
       </c>
-      <c r="R98" s="6" t="s">
+      <c r="R98" t="s">
         <v>696</v>
       </c>
-      <c r="S98" s="6" t="s">
+      <c r="S98" t="s">
         <v>549</v>
       </c>
-      <c r="T98" s="6" t="s">
+      <c r="T98" t="s">
         <v>36</v>
       </c>
-      <c r="U98" s="6" t="s">
+      <c r="U98" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="99" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" t="s">
         <v>524</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D99" t="s">
         <v>24</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="E99" t="s">
         <v>25</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="F99" t="s">
         <v>52</v>
       </c>
-      <c r="G99" s="6" t="s">
+      <c r="G99" t="s">
         <v>27</v>
       </c>
-      <c r="H99" s="6">
+      <c r="H99">
         <v>5900000</v>
       </c>
-      <c r="I99" s="6">
+      <c r="I99">
         <v>4</v>
       </c>
-      <c r="J99" s="6" t="s">
+      <c r="J99" t="s">
         <v>28</v>
       </c>
-      <c r="K99" s="6" t="s">
+      <c r="K99" t="s">
         <v>42</v>
       </c>
-      <c r="M99" s="8" t="s">
+      <c r="M99" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O99" s="6" t="s">
+      <c r="O99" t="s">
         <v>700</v>
       </c>
-      <c r="P99" s="6" t="s">
+      <c r="P99" t="s">
         <v>701</v>
       </c>
-      <c r="Q99" s="6">
+      <c r="Q99">
         <v>9</v>
       </c>
-      <c r="R99" s="6" t="s">
+      <c r="R99" t="s">
         <v>702</v>
       </c>
-      <c r="S99" s="6" t="s">
+      <c r="S99" t="s">
         <v>703</v>
       </c>
-      <c r="T99" s="6" t="s">
+      <c r="T99" t="s">
         <v>36</v>
       </c>
-      <c r="U99" s="6" t="s">
+      <c r="U99" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="100" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" t="s">
         <v>420</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" t="s">
         <v>24</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E100" t="s">
         <v>25</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="F100" t="s">
         <v>52</v>
       </c>
-      <c r="G100" s="6" t="s">
+      <c r="G100" t="s">
         <v>27</v>
       </c>
-      <c r="H100" s="6">
+      <c r="H100">
         <v>4950000</v>
       </c>
-      <c r="I100" s="6">
+      <c r="I100">
         <v>3</v>
       </c>
-      <c r="J100" s="6" t="s">
+      <c r="J100" t="s">
         <v>28</v>
       </c>
-      <c r="K100" s="6" t="s">
+      <c r="K100" t="s">
         <v>53</v>
       </c>
-      <c r="M100" s="8" t="s">
+      <c r="M100" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N100" s="6" t="s">
+      <c r="N100" t="s">
         <v>707</v>
       </c>
-      <c r="O100" s="6" t="s">
+      <c r="O100" t="s">
         <v>708</v>
       </c>
-      <c r="P100" s="6" t="s">
+      <c r="P100" t="s">
         <v>701</v>
       </c>
-      <c r="Q100" s="6">
+      <c r="Q100">
         <v>9</v>
       </c>
-      <c r="R100" s="6" t="s">
+      <c r="R100" t="s">
         <v>709</v>
       </c>
-      <c r="S100" s="6" t="s">
+      <c r="S100" t="s">
         <v>710</v>
       </c>
-      <c r="T100" s="6" t="s">
+      <c r="T100" t="s">
         <v>36</v>
       </c>
-      <c r="U100" s="6" t="s">
+      <c r="U100" t="s">
         <v>711</v>
       </c>
     </row>
@@ -11079,65 +11068,65 @@
         <v>187</v>
       </c>
     </row>
-    <row r="102" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" t="s">
         <v>350</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" t="s">
         <v>24</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="E102" t="s">
         <v>25</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="F102" t="s">
         <v>52</v>
       </c>
-      <c r="G102" s="6" t="s">
+      <c r="G102" t="s">
         <v>27</v>
       </c>
-      <c r="H102" s="6">
+      <c r="H102">
         <v>6200000</v>
       </c>
-      <c r="I102" s="6">
+      <c r="I102">
         <v>4</v>
       </c>
-      <c r="J102" s="6" t="s">
+      <c r="J102" t="s">
         <v>28</v>
       </c>
-      <c r="K102" s="6" t="s">
+      <c r="K102" t="s">
         <v>42</v>
       </c>
-      <c r="M102" s="8" t="s">
+      <c r="M102" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N102" s="6" t="s">
+      <c r="N102" t="s">
         <v>352</v>
       </c>
-      <c r="O102" s="6" t="s">
+      <c r="O102" t="s">
         <v>719</v>
       </c>
-      <c r="P102" s="6" t="s">
+      <c r="P102" t="s">
         <v>320</v>
       </c>
-      <c r="Q102" s="6">
+      <c r="Q102">
         <v>4</v>
       </c>
-      <c r="R102" s="6" t="s">
+      <c r="R102" t="s">
         <v>715</v>
       </c>
-      <c r="S102" s="6" t="s">
+      <c r="S102" t="s">
         <v>710</v>
       </c>
-      <c r="T102" s="6" t="s">
+      <c r="T102" t="s">
         <v>36</v>
       </c>
-      <c r="U102" s="6" t="s">
+      <c r="U102" t="s">
         <v>720</v>
       </c>
     </row>
@@ -11206,434 +11195,434 @@
         <v>572</v>
       </c>
     </row>
-    <row r="104" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" t="s">
         <v>730</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" t="s">
         <v>24</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E104" t="s">
         <v>25</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="F104" t="s">
         <v>41</v>
       </c>
-      <c r="G104" s="6" t="s">
+      <c r="G104" t="s">
         <v>27</v>
       </c>
-      <c r="H104" s="6">
+      <c r="H104">
         <v>6000000</v>
       </c>
-      <c r="I104" s="6">
+      <c r="I104">
         <v>5</v>
       </c>
-      <c r="J104" s="6" t="s">
+      <c r="J104" t="s">
         <v>28</v>
       </c>
-      <c r="K104" s="6" t="s">
+      <c r="K104" t="s">
         <v>72</v>
       </c>
-      <c r="M104" s="8" t="s">
+      <c r="M104" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N104" s="6" t="s">
+      <c r="N104" t="s">
         <v>732</v>
       </c>
-      <c r="O104" s="6" t="s">
+      <c r="O104" t="s">
         <v>733</v>
       </c>
-      <c r="P104" s="6" t="s">
+      <c r="P104" t="s">
         <v>734</v>
       </c>
-      <c r="Q104" s="6">
+      <c r="Q104">
         <v>128</v>
       </c>
-      <c r="R104" s="6" t="s">
+      <c r="R104" t="s">
         <v>735</v>
       </c>
-      <c r="S104" s="6" t="s">
+      <c r="S104" t="s">
         <v>736</v>
       </c>
-      <c r="T104" s="6" t="s">
+      <c r="T104" t="s">
         <v>36</v>
       </c>
-      <c r="U104" s="6" t="s">
+      <c r="U104" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="105" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" t="s">
         <v>739</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" t="s">
         <v>24</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E105" t="s">
         <v>25</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="F105" t="s">
         <v>41</v>
       </c>
-      <c r="G105" s="6" t="s">
+      <c r="G105" t="s">
         <v>27</v>
       </c>
-      <c r="H105" s="6">
+      <c r="H105">
         <v>7200000</v>
       </c>
-      <c r="I105" s="6">
+      <c r="I105">
         <v>5</v>
       </c>
-      <c r="J105" s="6" t="s">
+      <c r="J105" t="s">
         <v>28</v>
       </c>
-      <c r="K105" s="6" t="s">
+      <c r="K105" t="s">
         <v>72</v>
       </c>
-      <c r="M105" s="8" t="s">
+      <c r="M105" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N105" s="6" t="s">
+      <c r="N105" t="s">
         <v>741</v>
       </c>
-      <c r="O105" s="6" t="s">
+      <c r="O105" t="s">
         <v>742</v>
       </c>
-      <c r="P105" s="6" t="s">
+      <c r="P105" t="s">
         <v>743</v>
       </c>
-      <c r="Q105" s="6">
+      <c r="Q105">
         <v>67</v>
       </c>
-      <c r="R105" s="6" t="s">
+      <c r="R105" t="s">
         <v>548</v>
       </c>
-      <c r="S105" s="6" t="s">
+      <c r="S105" t="s">
         <v>549</v>
       </c>
-      <c r="T105" s="6" t="s">
+      <c r="T105" t="s">
         <v>36</v>
       </c>
-      <c r="U105" s="6" t="s">
+      <c r="U105" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="106" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" t="s">
         <v>509</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" t="s">
         <v>24</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E106" t="s">
         <v>25</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="F106" t="s">
         <v>52</v>
       </c>
-      <c r="G106" s="6" t="s">
+      <c r="G106" t="s">
         <v>27</v>
       </c>
-      <c r="H106" s="6">
+      <c r="H106">
         <v>5200000</v>
       </c>
-      <c r="I106" s="6">
+      <c r="I106">
         <v>4</v>
       </c>
-      <c r="J106" s="6" t="s">
+      <c r="J106" t="s">
         <v>28</v>
       </c>
-      <c r="K106" s="6" t="s">
+      <c r="K106" t="s">
         <v>29</v>
       </c>
-      <c r="M106" s="8" t="s">
+      <c r="M106" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N106" s="6" t="s">
+      <c r="N106" t="s">
         <v>747</v>
       </c>
-      <c r="O106" s="6" t="s">
+      <c r="O106" t="s">
         <v>748</v>
       </c>
-      <c r="P106" s="6" t="s">
+      <c r="P106" t="s">
         <v>749</v>
       </c>
-      <c r="Q106" s="6">
+      <c r="Q106">
         <v>39</v>
       </c>
-      <c r="R106" s="6" t="s">
+      <c r="R106" t="s">
         <v>750</v>
       </c>
-      <c r="S106" s="6" t="s">
+      <c r="S106" t="s">
         <v>751</v>
       </c>
-      <c r="T106" s="6" t="s">
+      <c r="T106" t="s">
         <v>36</v>
       </c>
-      <c r="U106" s="6" t="s">
+      <c r="U106" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="107" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" t="s">
         <v>754</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" t="s">
         <v>24</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="E107" t="s">
         <v>25</v>
       </c>
-      <c r="F107" s="6" t="s">
+      <c r="F107" t="s">
         <v>52</v>
       </c>
-      <c r="G107" s="6" t="s">
+      <c r="G107" t="s">
         <v>27</v>
       </c>
-      <c r="H107" s="6">
+      <c r="H107">
         <v>6000000</v>
       </c>
-      <c r="I107" s="6">
+      <c r="I107">
         <v>4</v>
       </c>
-      <c r="J107" s="6" t="s">
+      <c r="J107" t="s">
         <v>28</v>
       </c>
-      <c r="K107" s="6" t="s">
+      <c r="K107" t="s">
         <v>42</v>
       </c>
-      <c r="M107" s="8" t="s">
+      <c r="M107" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N107" s="6" t="s">
+      <c r="N107" t="s">
         <v>756</v>
       </c>
-      <c r="O107" s="6" t="s">
+      <c r="O107" t="s">
         <v>757</v>
       </c>
-      <c r="P107" s="6" t="s">
+      <c r="P107" t="s">
         <v>758</v>
       </c>
-      <c r="Q107" s="6">
+      <c r="Q107">
         <v>49</v>
       </c>
-      <c r="R107" s="6" t="s">
+      <c r="R107" t="s">
         <v>759</v>
       </c>
-      <c r="S107" s="6" t="s">
+      <c r="S107" t="s">
         <v>760</v>
       </c>
-      <c r="T107" s="6" t="s">
+      <c r="T107" t="s">
         <v>36</v>
       </c>
-      <c r="U107" s="6" t="s">
+      <c r="U107" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="108" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" t="s">
         <v>763</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" t="s">
         <v>24</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="E108" t="s">
         <v>25</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="F108" t="s">
         <v>52</v>
       </c>
-      <c r="G108" s="6" t="s">
+      <c r="G108" t="s">
         <v>27</v>
       </c>
-      <c r="H108" s="6">
+      <c r="H108">
         <v>6000000</v>
       </c>
-      <c r="I108" s="6">
+      <c r="I108">
         <v>4</v>
       </c>
-      <c r="J108" s="6" t="s">
+      <c r="J108" t="s">
         <v>28</v>
       </c>
-      <c r="K108" s="6" t="s">
+      <c r="K108" t="s">
         <v>42</v>
       </c>
-      <c r="M108" s="8" t="s">
+      <c r="M108" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N108" s="6" t="s">
+      <c r="N108" t="s">
         <v>765</v>
       </c>
-      <c r="O108" s="6" t="s">
+      <c r="O108" t="s">
         <v>319</v>
       </c>
-      <c r="P108" s="6" t="s">
+      <c r="P108" t="s">
         <v>56</v>
       </c>
-      <c r="Q108" s="6">
+      <c r="Q108">
         <v>56</v>
       </c>
-      <c r="R108" s="6" t="s">
+      <c r="R108" t="s">
         <v>766</v>
       </c>
-      <c r="S108" s="6" t="s">
+      <c r="S108" t="s">
         <v>760</v>
       </c>
-      <c r="T108" s="6" t="s">
+      <c r="T108" t="s">
         <v>36</v>
       </c>
-      <c r="U108" s="6" t="s">
+      <c r="U108" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="109" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" t="s">
         <v>420</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D109" t="s">
         <v>24</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="E109" t="s">
         <v>25</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="F109" t="s">
         <v>52</v>
       </c>
-      <c r="G109" s="6" t="s">
+      <c r="G109" t="s">
         <v>27</v>
       </c>
-      <c r="H109" s="6">
+      <c r="H109">
         <v>4950000</v>
       </c>
-      <c r="I109" s="6">
+      <c r="I109">
         <v>3</v>
       </c>
-      <c r="J109" s="6" t="s">
+      <c r="J109" t="s">
         <v>28</v>
       </c>
-      <c r="K109" s="6" t="s">
+      <c r="K109" t="s">
         <v>53</v>
       </c>
-      <c r="M109" s="8" t="s">
+      <c r="M109" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N109" s="6" t="s">
+      <c r="N109" t="s">
         <v>770</v>
       </c>
-      <c r="O109" s="6" t="s">
+      <c r="O109" t="s">
         <v>771</v>
       </c>
-      <c r="P109" s="6" t="s">
+      <c r="P109" t="s">
         <v>658</v>
       </c>
-      <c r="Q109" s="6">
+      <c r="Q109">
         <v>43</v>
       </c>
-      <c r="R109" s="6" t="s">
+      <c r="R109" t="s">
         <v>772</v>
       </c>
-      <c r="S109" s="6" t="s">
+      <c r="S109" t="s">
         <v>760</v>
       </c>
-      <c r="T109" s="6" t="s">
+      <c r="T109" t="s">
         <v>36</v>
       </c>
-      <c r="U109" s="6" t="s">
+      <c r="U109" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="110" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" t="s">
         <v>628</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D110" t="s">
         <v>24</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="E110" t="s">
         <v>25</v>
       </c>
-      <c r="F110" s="6" t="s">
+      <c r="F110" t="s">
         <v>52</v>
       </c>
-      <c r="G110" s="6" t="s">
+      <c r="G110" t="s">
         <v>108</v>
       </c>
-      <c r="H110" s="6">
+      <c r="H110">
         <v>5600000</v>
       </c>
-      <c r="I110" s="6">
+      <c r="I110">
         <v>4</v>
       </c>
-      <c r="J110" s="6" t="s">
+      <c r="J110" t="s">
         <v>28</v>
       </c>
-      <c r="K110" s="6" t="s">
+      <c r="K110" t="s">
         <v>29</v>
       </c>
-      <c r="M110" s="8" t="s">
+      <c r="M110" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O110" s="6" t="s">
+      <c r="O110" t="s">
         <v>776</v>
       </c>
-      <c r="P110" s="6" t="s">
+      <c r="P110" t="s">
         <v>246</v>
       </c>
-      <c r="Q110" s="6">
+      <c r="Q110">
         <v>65</v>
       </c>
-      <c r="R110" s="6" t="s">
+      <c r="R110" t="s">
         <v>777</v>
       </c>
-      <c r="S110" s="6" t="s">
+      <c r="S110" t="s">
         <v>778</v>
       </c>
-      <c r="T110" s="6" t="s">
+      <c r="T110" t="s">
         <v>36</v>
       </c>
-      <c r="U110" s="6" t="s">
+      <c r="U110" t="s">
         <v>779</v>
       </c>
     </row>
@@ -11702,192 +11691,192 @@
         <v>585</v>
       </c>
     </row>
-    <row r="112" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" t="s">
         <v>465</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D112" t="s">
         <v>24</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E112" t="s">
         <v>25</v>
       </c>
-      <c r="F112" s="6" t="s">
+      <c r="F112" t="s">
         <v>52</v>
       </c>
-      <c r="G112" s="6" t="s">
+      <c r="G112" t="s">
         <v>27</v>
       </c>
-      <c r="H112" s="6">
+      <c r="H112">
         <v>6700000</v>
       </c>
-      <c r="I112" s="6">
+      <c r="I112">
         <v>5</v>
       </c>
-      <c r="J112" s="6" t="s">
+      <c r="J112" t="s">
         <v>28</v>
       </c>
-      <c r="K112" s="6" t="s">
+      <c r="K112" t="s">
         <v>72</v>
       </c>
-      <c r="M112" s="8" t="s">
+      <c r="M112" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O112" s="6" t="s">
+      <c r="O112" t="s">
         <v>791</v>
       </c>
-      <c r="P112" s="6" t="s">
+      <c r="P112" t="s">
         <v>792</v>
       </c>
-      <c r="Q112" s="6">
+      <c r="Q112">
         <v>60</v>
       </c>
-      <c r="R112" s="6" t="s">
+      <c r="R112" t="s">
         <v>793</v>
       </c>
-      <c r="S112" s="6" t="s">
+      <c r="S112" t="s">
         <v>794</v>
       </c>
-      <c r="T112" s="6" t="s">
+      <c r="T112" t="s">
         <v>36</v>
       </c>
-      <c r="U112" s="6" t="s">
+      <c r="U112" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="113" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" t="s">
         <v>797</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D113" t="s">
         <v>24</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="E113" t="s">
         <v>25</v>
       </c>
-      <c r="F113" s="6" t="s">
+      <c r="F113" t="s">
         <v>52</v>
       </c>
-      <c r="G113" s="6" t="s">
+      <c r="G113" t="s">
         <v>27</v>
       </c>
-      <c r="H113" s="6">
+      <c r="H113">
         <v>6600000</v>
       </c>
-      <c r="I113" s="6">
+      <c r="I113">
         <v>5</v>
       </c>
-      <c r="J113" s="6" t="s">
+      <c r="J113" t="s">
         <v>28</v>
       </c>
-      <c r="K113" s="6" t="s">
+      <c r="K113" t="s">
         <v>72</v>
       </c>
-      <c r="M113" s="8" t="s">
+      <c r="M113" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N113" s="6" t="s">
+      <c r="N113" t="s">
         <v>799</v>
       </c>
-      <c r="O113" s="6" t="s">
+      <c r="O113" t="s">
         <v>800</v>
       </c>
-      <c r="P113" s="6" t="s">
+      <c r="P113" t="s">
         <v>801</v>
       </c>
-      <c r="Q113" s="6">
+      <c r="Q113">
         <v>114</v>
       </c>
-      <c r="R113" s="6" t="s">
+      <c r="R113" t="s">
         <v>802</v>
       </c>
-      <c r="S113" s="6" t="s">
+      <c r="S113" t="s">
         <v>803</v>
       </c>
-      <c r="T113" s="6" t="s">
+      <c r="T113" t="s">
         <v>36</v>
       </c>
-      <c r="U113" s="6" t="s">
+      <c r="U113" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="114" spans="1:21" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" t="s">
         <v>806</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D114" t="s">
         <v>24</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="E114" t="s">
         <v>25</v>
       </c>
-      <c r="F114" s="6" t="s">
+      <c r="F114" t="s">
         <v>41</v>
       </c>
-      <c r="G114" s="6" t="s">
+      <c r="G114" t="s">
         <v>27</v>
       </c>
-      <c r="H114" s="6">
+      <c r="H114">
         <v>6100000</v>
       </c>
-      <c r="I114" s="6">
+      <c r="I114">
         <v>5</v>
       </c>
-      <c r="J114" s="6" t="s">
+      <c r="J114" t="s">
         <v>28</v>
       </c>
-      <c r="K114" s="6" t="s">
+      <c r="K114" t="s">
         <v>72</v>
       </c>
-      <c r="M114" s="8" t="s">
+      <c r="M114" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N114" s="6" t="s">
+      <c r="N114" t="s">
         <v>808</v>
       </c>
-      <c r="O114" s="6" t="s">
+      <c r="O114" t="s">
         <v>809</v>
       </c>
-      <c r="P114" s="6" t="s">
+      <c r="P114" t="s">
         <v>810</v>
       </c>
-      <c r="Q114" s="6">
+      <c r="Q114">
         <v>211</v>
       </c>
-      <c r="R114" s="6" t="s">
+      <c r="R114" t="s">
         <v>811</v>
       </c>
-      <c r="S114" s="6" t="s">
+      <c r="S114" t="s">
         <v>812</v>
       </c>
-      <c r="T114" s="6" t="s">
+      <c r="T114" t="s">
         <v>36</v>
       </c>
-      <c r="U114" s="6" t="s">
+      <c r="U114" t="s">
         <v>813</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/Data/Listings/Maple_listings.xlsx
+++ b/Data/Listings/Maple_listings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/levan/Documents/MegaValuationer/Data/Listings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1EE0C2-BDD9-9044-B2D0-5FC2B5A00480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1540406D-5256-674B-BFD6-2581C6EB26EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="819">
   <si>
     <t>Reference Number</t>
   </si>
@@ -112,7 +112,7 @@
     <t>Type 2E</t>
   </si>
   <si>
-    <t>2462</t>
+    <t>2500</t>
   </si>
   <si>
     <t>3992</t>
@@ -168,6 +168,12 @@
     <t>Maple 1</t>
   </si>
   <si>
+    <t>Type 2M</t>
+  </si>
+  <si>
+    <t>2251</t>
+  </si>
+  <si>
     <t>Spacious 3BR Villa | Single Row | Move-In Ready!</t>
   </si>
   <si>
@@ -214,10 +220,7 @@
     <t>Maple 2</t>
   </si>
   <si>
-    <t>Type 2M</t>
-  </si>
-  <si>
-    <t>2228</t>
+    <t>2250</t>
   </si>
   <si>
     <t>3+ Maid Room | Single Row | Vacant l Unfurnished</t>
@@ -259,6 +262,9 @@
   </si>
   <si>
     <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14397288.html</t>
+  </si>
+  <si>
+    <t>2462</t>
   </si>
   <si>
     <t>3259</t>
@@ -322,7 +328,7 @@
     <t>Type 3E</t>
   </si>
   <si>
-    <t>2700</t>
+    <t>2734</t>
   </si>
   <si>
     <t>2990</t>
@@ -400,6 +406,94 @@
 Khalifa and the Dubai skyline. It is a popular community for ex-pats and families, it is centrally located within the city. The Dubai Hills Mall and Golf Club are only a short drive away. The Developer is EMAAR.
 Uplux Properties, emerges as the next evolution of Dubai based real estate, redefining real estate through innovation, exclusivity, and a deep understanding that true luxury is personal. More than just a brokerage, we curate bespoke lifestyles and investment legacies by offering access to off-market listings, high-demand developer inventory, and tailored experiences for elite clientele. With a foundation built on excellence, privacy, and intelligent solutions, Uplux Properties is the pinnacle of prestige—where visionary real estate meets lasting value.
 PC- Abhishek
+</t>
+  </si>
+  <si>
+    <t>01JZ032TY5287KJX4QW5S4HP9Q</t>
+  </si>
+  <si>
+    <t>6928563997</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14622717.html</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>Vacant Now | Single Row | New to Market</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>Jackson Crosland</t>
+  </si>
+  <si>
+    <t>Croswell Real Estate</t>
+  </si>
+  <si>
+    <t>Croswell Real Estate is proud to present this 4 bedroom Townhouse in Maple at Dubai Hills Estate.
+- 4 bedrooms
+- 4 bathrooms
+- 2E layout
+- BUA: 2462 sq ft
+- Plot: 3000 sq ft
+- Single Row
+- Vacant
+This stunning townhouse offers a perfect blend of luxury and comfort, featuring spacious living areas that are ideal for family gatherings and entertaining guests. The modern kitchen is equipped with high-end appliances and ample storage, while the bedrooms provide a serene retreat with plenty of natural light. The outdoor space is perfect for enjoying the beautiful Dubai weather, making it an ideal home for those who appreciate both indoor and outdoor living.
+Maple at Dubai Hills Estate is a vibrant community that offers a lifestyle of convenience and leisure. Residents enjoy access to lush green parks, walking trails, and a variety of retail and dining options. The community is strategically located near major roadways, providing easy access to the rest of Dubai, while the nearby Dubai Hills Mall and golf course enhance the overall living experience, making it a sought-after destination for families and professionals alike.</t>
+  </si>
+  <si>
+    <t>01JZAN6Z1ZSJK13X85BG7E6BJC</t>
+  </si>
+  <si>
+    <t>6928564221</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14667275.html</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2917</t>
+  </si>
+  <si>
+    <t>VACANT | 4BR+M | Private Garden | Spacious</t>
+  </si>
+  <si>
+    <t>2025-07-04</t>
+  </si>
+  <si>
+    <t>Hyder Ali</t>
+  </si>
+  <si>
+    <t>CTC House &amp; Home Real Estate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTC House and Home Real Estate is delighted to offer this elegant 4-Bedroom + Maid’s Villa in the sought-after community of Hadaeq Sheikh Mohammed Bin Rashid.
+This beautifully appointed villa showcases refined finishes, spacious interiors, and serene surroundings — perfect for families seeking luxury, privacy, and accessibility in one of Dubai’s greenest neighborhoods.
+Unit Details:
+- 4 Bedroom + Maid
+- 4 Bathroom
+- Parking Space
+- Balcony
+- Ready to Move In
+- 2917.66 sqft.
+Amenities:
+- Bright and airy open-plan living and dining space
+- Security
+- Concierge
+- Built-In Wardrobes
+- Central A/C
+- Private garden – ideal for outdoor entertaining
+- Large windows providing ample natural light
+About the Area:
+Hadaeq Sheikh Mohammed Bin Rashid (MBR Gardens) is a premium residential destination known for its lush surroundings, spacious layouts, and strategic location. Offering a peaceful escape from the urban rush while staying well connected to Dubai’s top attractions, it is a favored choice for families and investors alike.
+At CTC House and Home Real Estate, we streamline the real estate process using advanced technology and superior service. Whether you&amp;#39;re looking to buy, sell, or invest, our expert team is here to assist and guide you at every stage. From locating your perfect property to closing the transaction, we guarantee a smooth and effortless experience.
+To arrange a viewing or for more information, please contact our specialist at CTC House and Home Real Estate. 
+We look forward to assisting you in finding your perfect home!
 </t>
   </si>
   <si>
@@ -462,19 +556,19 @@
 </t>
   </si>
   <si>
-    <t>ADM251847</t>
+    <t>ADM252937</t>
   </si>
   <si>
     <t>6925793231</t>
   </si>
   <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-13954514.html</t>
-  </si>
-  <si>
-    <t>Exclusive | 4 Bedroom | Greenbelt  | No Agents</t>
-  </si>
-  <si>
-    <t>2025-04-09</t>
+    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14465616.html</t>
+  </si>
+  <si>
+    <t>Exclusive | 4 Bedroom | Greenbelt | Prime Location</t>
+  </si>
+  <si>
+    <t>2025-06-10</t>
   </si>
   <si>
     <t>Reece Wallace</t>
@@ -494,21 +588,6 @@
 Please call for more information, to arrange a viewing or to make an offer.
 Finance is available on this property through haus &amp;amp; haus partners.
 For further details, please drop into our flagship office at the Gold &amp;amp; Diamond Park - or browse the incredible selection of properties we maintain at the haus &amp;amp; haus website. Our specialist brokers will be happy to answer any industry related query you have.</t>
-  </si>
-  <si>
-    <t>ADM252937</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14465616.html</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Exclusive | 4 Bedroom | Greenbelt | Prime Location</t>
-  </si>
-  <si>
-    <t>2025-06-10</t>
   </si>
   <si>
     <t>ADM253248</t>
@@ -584,36 +663,47 @@
 Dubai Hills Estate redefines community living with its lush landscapes and proximity to key attractions. To discover more about this exceptional opportunity, reach out to Audley&amp;#39;s International Real Estate to schedule a viewing today.</t>
   </si>
   <si>
-    <t>Arbat-Sale-052025-MPL1</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14414840.html</t>
-  </si>
-  <si>
-    <t>SEMI FURNISHED TOWNHOUSE | FAMILY FRIENDLY</t>
-  </si>
-  <si>
-    <t>Yasir Aqeel</t>
-  </si>
-  <si>
-    <t>Arbat Real Estate Brokers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arbat Realty is proud to present to you this 3 bedroom + Maid townhouse for rent in Maple 1, Dubai Hills Estate, Dubai UAE.
-Property features:
-- Vacant by mid of June
-- G+1
-- Semi Furnished
-- 3 bedrooms
-- 4 bathrooms
-- Maid&amp;#39;s room
-- 2 parking spaces
-- 24 hour security
-- Swimming pools
-- Gym
-Maple Townhouses in Dubai Hills Estate offer a serene, family-oriented lifestyle within a master-planned community by Emaar. These spacious 3 to 5-bedroom homes, ranging from 2,200 to 2,700 sq. ft., are thoughtfully designed along lush green corridors, providing shaded pathways, jogging tracks, and playgrounds that encourage outdoor activity and social interaction.
-Residents enjoy a wealth of facilities, including swimming pools, tennis, basketball, and volleyball courts, children&amp;#39;s play areas, barbecue zones, and fitness stations. The community also boasts an 18-hole championship golf course and the expansive Dubai Hills Mall, featuring over 650 retail and dining outlets. With over 1.45 million sq. m of parks and open spaces, the area promotes an active and healthy lifestyle.
-</t>
+    <t>Arta_Properties_0407001</t>
+  </si>
+  <si>
+    <t>6925793885</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14665072.html</t>
+  </si>
+  <si>
+    <t>2171</t>
+  </si>
+  <si>
+    <t>Modern 3BR Villa | Spacious | Natural Light</t>
+  </si>
+  <si>
+    <t>.Niloofar. Moghatder</t>
+  </si>
+  <si>
+    <t>Arta Properties LLC</t>
+  </si>
+  <si>
+    <t>Property Details:
+- 3 Bedrooms
+- 4 Toilet
+- Built-In Wardrobes
+- Balcony
+- Area Sqft. - 2,171.08
+- Well-maintained
+Amenities and Features:
+- Shared Swimming Pool
+- Shared Gym
+- Kid&amp;#39;s Play area
+- Clubhouse
+- Dubai Hills Shopping Mall
+- Near the Tennis court
+- Near the Park
+Arta Properties L.L.C is delighted to present this 3-bedroom villa for sale in the popular Maple 1 community within Dubai Hills Estate. This sought-after development features a wide variety of villas, townhouses, and apartments, all situated close to some of Dubai’s top attractions and essential amenities. Conveniently located, the community offers easy access to the city&amp;#39;s main destinations.
+Dubai Hills Estate is thoughtfully master-planned around an impressive 18-hole championship golf course, creating a distinctive and upscale living environment. Maple townhouses are surrounded by green landscapes and linked through a network of shaded walkways, jogging and cycling tracks, fitness zones, and playgrounds—ideal for family living.
+The lush surroundings not only enhance wellness and outdoor activity but also encourage social interaction, all while being close to community facilities.
+Situated just off Al Marabea&amp;#39; Street, between Sheikh Mohammed bin Zayed Road and Al Khail Road, Maple enjoys excellent connectivity to Downtown Dubai, Dubai International Airport, and various leisure hubs across the city.
+The community offers convenient access to cafes, restaurants, and mosques. It is bordered by educational institutions, daycare centers, and essential services such as a private hospital, police station, and civil defense. With Dubai Hills Park just around the corner, everything you need is right within reach in this safe and family-friendly neighborhood.</t>
   </si>
   <si>
     <t>BAA-S-4981</t>
@@ -644,9 +734,6 @@
   </si>
   <si>
     <t>BARNES-8045</t>
-  </si>
-  <si>
-    <t>6928564221</t>
   </si>
   <si>
     <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14656269.html</t>
@@ -814,6 +901,9 @@
   </si>
   <si>
     <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14545518.html</t>
+  </si>
+  <si>
+    <t>2277</t>
   </si>
   <si>
     <t>2181</t>
@@ -996,61 +1086,28 @@
   * Dubai Hills Estate</t>
   </si>
   <si>
-    <t>DUB191452</t>
-  </si>
-  <si>
-    <t>6925793540</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14539808.html</t>
-  </si>
-  <si>
-    <t>2092</t>
-  </si>
-  <si>
-    <t>Green Belt Backing | Opposite Pool | 3 Bed</t>
+    <t>DUB211615</t>
+  </si>
+  <si>
+    <t>6991637275</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14456997.html</t>
+  </si>
+  <si>
+    <t>2903</t>
+  </si>
+  <si>
+    <t>New to Market | Vacant on Transfer | Type 2E</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
   </si>
   <si>
     <t>Oliver Gutteridge</t>
   </si>
   <si>
     <t>Allsopp &amp; Allsopp - Motor City Sales</t>
-  </si>
-  <si>
-    <t>Green Belt Backing | Opposite Pool | 3 Bed
--Type 2M
--Maids Room
--Green Belt
--Close To Pool
--Park Close By
--2,228 Sq.Ft BUA
--2,092 Sq.Ft PLOT
--Excellent Condition
--Fantastic Amenities
--Community Pool And Gym
--Community Park And Kids Play Area
--2 Parking 
-Oliver and Allsopp &amp;amp; Allsopp Real Estate are proud to offer this beautiful villa in Maple, Dubai Hills Estate.
-The community includes an impressive 18 hole championship golf course, the iconic Dubai Hills park. Enjoy the shopping experience at Dubai Hills Mall and ensure access to quality education with nearby schools. Navigate the community seamlessly with a dedicated bicycle route, and experience world-class golfing at the renowned Dubai Hills Golf Club. Being a 15 minute drive from Downtown, Dubai Marina and around 20 minutes from the airport, what other area would you want to be in!?
-Please call Oliver Gutteridge today for more information or to arrange a viewing. Allsopp &amp;amp; Allsopp accept no liability for any incorrect details.</t>
-  </si>
-  <si>
-    <t>DUB211615</t>
-  </si>
-  <si>
-    <t>6991637275</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14456997.html</t>
-  </si>
-  <si>
-    <t>2903</t>
-  </si>
-  <si>
-    <t>New to Market | Vacant on Transfer | Type 2E</t>
-  </si>
-  <si>
-    <t>2025-06-09</t>
   </si>
   <si>
     <t>New to Market | Vacant on Transfer | Type 2E
@@ -1187,7 +1244,7 @@
     <t>Type 3M</t>
   </si>
   <si>
-    <t>2387</t>
+    <t>2406</t>
   </si>
   <si>
     <t>2163</t>
@@ -1555,9 +1612,6 @@
   </si>
   <si>
     <t>New to Market | Exclusive | Single Row</t>
-  </si>
-  <si>
-    <t>2025-06-30</t>
   </si>
   <si>
     <t>Dean Parrett</t>
@@ -1830,6 +1884,9 @@
     <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14488149.html</t>
   </si>
   <si>
+    <t>2228</t>
+  </si>
+  <si>
     <t>Exclusive | Single Row | Prime Location</t>
   </si>
   <si>
@@ -1863,6 +1920,35 @@
 Contact Strada today to arrange a viewing or for more information.</t>
   </si>
   <si>
+    <t>L-171841</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14506477.html</t>
+  </si>
+  <si>
+    <t>Large Green Belt | Near To Pool | Vacant</t>
+  </si>
+  <si>
+    <t>Strada are excited to introduce you to this four bedroom+maids, Villa in Maple 2, Dubai Hills Estate.
+Property and Community Features:
+- Type 3M (Middle Unit)
+- Backing Green Belt
+- Close To Pool
+- Vacant Soon
+- Single Row
+- Four Bedrooms
+- Three Bathrooms
+- Maids Room with en-suite
+- Open Kitchen, Dining, and Living Area
+- Balcony
+- 2 Parking Spaces
+- Property Reference Number: L-170155
+- For further information contact: Agent Josh Sturges on the Display phone number
+The unique selling point for this particular townhouse is the location within the community, so book a viewing today and don&amp;#39;t miss out on this amazing opportunity.
+Maple at Dubai Hills Estate is a popular community for ex-pats and families, it is centrally located within the city and is a 15-minute drive to Downtown, DIFC, Marina and the Palm Jumeirah.
+The new Dubai Hills shopping Mall and Dubai Hills Golf Club are only a short drive away. The Developer is EMAAR which offers state-of-the-art facilities and amenities.</t>
+  </si>
+  <si>
     <t>L-172244</t>
   </si>
   <si>
@@ -1982,37 +2068,6 @@
 Oliver and Allsopp &amp;amp; Allsopp Real Estate are proud to offer this beautiful villa in Maple, Dubai Hills Estate.
 The community includes an impressive 18 hole championship golf course, the iconic Dubai Hills park. Enjoy the shopping experience at Dubai Hills Mall and ensure access to quality education with nearby schools. Navigate the community seamlessly with a dedicated bicycle route, and experience world-class golfing at the renowned Dubai Hills Golf Club. Being a 15 minute drive from Downtown, Dubai Marina and around 20 minutes from the airport, what other area would you want to be in!?
 Please call Oliver Gutteridge today for more information or to arrange a viewing. Allsopp &amp;amp; Allsopp accept no liability for any incorrect details.</t>
-  </si>
-  <si>
-    <t>L-175274</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14526645.html</t>
-  </si>
-  <si>
-    <t>Single Row | Upgraded | Landscaped | 2E</t>
-  </si>
-  <si>
-    <t>2025-06-18</t>
-  </si>
-  <si>
-    <t>Single Row | Upgraded | Landscaped | 2E
--Type 2E
--Maids Room
--Upgraded
--Single Row
--Vacant
--2,462 Sq.Ft BUA
--3,065 Sq.Ft PLOT
--Landscaped
--Excellent Condition
--Fantastic Amenities
--Community Pool And Gym
--Community Park And Kids Play Area
--2 Parking
-Oliver and Allsopp &amp;amp; Allsopp Real Estate are proud to offer this beautiful villa in Maple, Dubai Hills Estate.
-The community includes an impressive 18 hole championship golf course, the iconic Dubai Hills park. Enjoy the shopping experience at Dubai Hills Mall and ensure access to quality education with nearby schools. Navigate the community seamlessly with a dedicated bicycle route, and experience world-class golfing at the renowned Dubai Hills Golf Club. Being a 15 minute drive from Downtown, Dubai Marina and around 20 minutes from the airport, what other area would you want to be in!?
-Please call Oliver Gutteridge today for more information or to arrange a viewing. Allsopp &amp;amp; Allsopp accept no liability for any incorrect details.</t>
   </si>
   <si>
     <t>L-185399</t>
@@ -2630,18 +2685,6 @@
 Please contact us today for more information about this property or to arrange a viewing with Ryan.</t>
   </si>
   <si>
-    <t>PB-S-11774</t>
-  </si>
-  <si>
-    <t>6991615071</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14450212.html</t>
-  </si>
-  <si>
-    <t>Green Belt Backing l Vacant l Multiple option</t>
-  </si>
-  <si>
     <t>PB-S-12205</t>
   </si>
   <si>
@@ -2669,13 +2712,10 @@
     <t>PF-VS-135049</t>
   </si>
   <si>
-    <t>6928563997</t>
-  </si>
-  <si>
     <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14252107.html</t>
   </si>
   <si>
-    <t>Single Row | Vacant  | Near The Green Belt</t>
+    <t>Near The Green Belt | Single Row | Vacant</t>
   </si>
   <si>
     <t>Dina Zatir</t>
@@ -2711,10 +2751,13 @@
     <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14526340.html</t>
   </si>
   <si>
-    <t>Best View | Spacious | Upgraded | Single Row</t>
-  </si>
-  <si>
-    <t>George Dickinson</t>
+    <t>Single Row | Spacious | Upgraded Garden</t>
+  </si>
+  <si>
+    <t>2025-06-18</t>
+  </si>
+  <si>
+    <t>Sarah Ahmed Mohamed Ahmed Wanas</t>
   </si>
   <si>
     <t>Fam Properties - Branch 9</t>
@@ -2983,53 +3026,6 @@
 Email: rey@whiteandcogroup.com</t>
   </si>
   <si>
-    <t>RL-138999</t>
-  </si>
-  <si>
-    <t>6925793717</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14411379.html</t>
-  </si>
-  <si>
-    <t>2921</t>
-  </si>
-  <si>
-    <t>Backing Greenbelt | Single Row | Vacant</t>
-  </si>
-  <si>
-    <t>Rey and White and Co Real Estate are proud to bring this immaculate 4-bedroom, plus maid townhouse to the Maple 1, Dubai Hills Estate market. This property is backing onto the greenbelt in one of the prime locations in the development.
-Property Details:
-Type 2E
-Greenbelt Backing
-Single Row
-Open Plan Kitchen
-Living Area
-Dining Room
-Maids
-Laundry
-4 Bedrooms
-Sharing Bathroom
-Balcony
-Private Garden
-BUA: 2,462 Sq Ft
-Plot: 2,921 SQ Ft
-Community Details:
-Shared Swimming Pool
-Children&amp;#39;s Park
-Tennis Court
-Petrol Station
-24 Hour Security
-Mosque
-Dubai Hills Mall
-Supermarket
-Walking Track
-Restaurants
-Maple at Dubai Hills Estate is a popular community for ex-pats and families, it is centrally located within the city. The Dubai Hills Mall and Golf Club are only a short drive away. The Developer is EMAAR.
-White and Co Real Estate has multiple options for sale within Dubai Hills Estate and other communities in Dubai. To get further information on this property and other properties please contact Rey.
-Email: rey@whiteandcogroup.com</t>
-  </si>
-  <si>
     <t>RL-141725</t>
   </si>
   <si>
@@ -3122,6 +3118,9 @@
   </si>
   <si>
     <t>RL-142608</t>
+  </si>
+  <si>
+    <t>6925793540</t>
   </si>
   <si>
     <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14548709.html</t>
@@ -3339,46 +3338,22 @@
 White and Co Real Estate has multiple options for sale within Dubai Hills Estate and other communities in Dubai. To get further information on this property and other properties please call or email Luke at Luke.carbine@whiteandcogroup.com</t>
   </si>
   <si>
-    <t>RL0038985</t>
-  </si>
-  <si>
-    <t>6928566133</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-13687881.html</t>
-  </si>
-  <si>
-    <t>2986</t>
-  </si>
-  <si>
-    <t>Sophisticated Spacious Villa | Prime Location</t>
-  </si>
-  <si>
-    <t>2025-03-04</t>
-  </si>
-  <si>
-    <t>Fadi Ali Alsalem</t>
+    <t>RL0040472</t>
+  </si>
+  <si>
+    <t>6928565661</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14639954.html</t>
+  </si>
+  <si>
+    <t>Vacant | Ready to Move | Near Green Belt</t>
+  </si>
+  <si>
+    <t>Nidha Baig</t>
   </si>
   <si>
     <t>ENGEL &amp; VÖLKERS Dubai</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;Engel &amp;amp; Voelkers is proud to represent this stunning 5-bedroom Villa in Maple 2, Dubai Hills Estate, featuring 6 luxuriously appointed bathrooms. This villa is perfectly designed for modern living, boasting an expansive space of 2,986.34 sq ft with top-tier amenities, making it an ideal family home. &lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;Key Features &amp;amp; Community Amenities:&lt;br/&gt;&lt;/div&gt;&lt;div&gt;- Parking: 2 Dedicated Parking Spaces for Ultimate Convenience&lt;br/&gt;&lt;/div&gt;&lt;div&gt;- 24/7 Security &amp;amp; CCTV Surveillance&lt;br/&gt;&lt;/div&gt;&lt;div&gt;- Children’s Play Areas&lt;br/&gt;&lt;/div&gt;&lt;div&gt;- State-of-the-art Sports Facilities&lt;br/&gt;&lt;/div&gt;&lt;div&gt;- Scenic Jogging Tracks&lt;br/&gt;&lt;/div&gt;&lt;div&gt;- Championship Golf Course Nearby&lt;br/&gt;&lt;/div&gt;&lt;div&gt;- Inviting Community Swimming Pools&lt;br/&gt;&lt;/div&gt;&lt;div&gt;- Lush Parks &amp;amp; Expansive Open Spaces&lt;br/&gt;&lt;/div&gt;&lt;div&gt;- Well-designed Bicycle Routes&lt;br/&gt;&lt;/div&gt;&lt;div&gt;- Landscaped Walkways Connecting the Community&lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;This exquisite villa offers not only luxurious living but also a complete lifestyle ensuring that residents can enjoy a harmonious balance of relaxation, recreation, and convenience.&lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;Located in the prestigious Dubai Hills Estate, within Mohammed Bin Rashid City, this villa offers a prime location with easy access to key areas like Downtown Dubai, Dubai Marina, Mall of the Emirates, Arabian Ranches, and Emirates Hills. Perfectly positioned along Al Khail Road and Umm Suqeim Road, your new home is just moments away from everything Dubai has to offer.&lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;Contact our Private Office Advisor, Fadi Al Salem at Engel &amp;amp; Voelkers today for further information.&lt;br/&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>RL0040472</t>
-  </si>
-  <si>
-    <t>6928565661</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14639954.html</t>
-  </si>
-  <si>
-    <t>Vacant | Ready to Move | Near Green Belt</t>
-  </si>
-  <si>
-    <t>Nidha Baig</t>
   </si>
   <si>
     <t>&lt;div&gt;Engel &amp;amp; Völkers proudly presents this spacious 4-bedroom villa located in Maple 2, Dubai Hills Estate. This vacant and ready-to-move-in property is ideally positioned close to the green belt, offering a serene and family-friendly living environment.&lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;Property Highlights:&lt;br/&gt;&lt;/div&gt;&lt;div&gt;-4 Bedrooms&lt;br/&gt;&lt;/div&gt;&lt;div&gt;-Vacant &amp;amp; ready to move in&lt;br/&gt;&lt;/div&gt;&lt;div&gt;-Close to green belt&lt;br/&gt;&lt;/div&gt;&lt;div&gt;-Landscaped garden&lt;br/&gt;&lt;/div&gt;&lt;div&gt;-Spacious open-plan living &amp;amp; dining&lt;br/&gt;&lt;/div&gt;&lt;div&gt;-Covered parking for 2 cars&lt;br/&gt;&lt;/div&gt;&lt;div&gt;-Quiet location within the community&lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;Community Overview:&lt;br/&gt;&lt;/div&gt;&lt;div&gt;Maple 2 is part of the highly sought-after Dubai Hills Estate by Emaar. This gated community offers lush green spaces, scenic walkways, and family-friendly amenities. Residents enjoy access to top-tier facilities such as parks, swimming pools, basketball courts, and a community centre. Dubai Hills Estate also features a championship golf course, Dubai Hills Mall, and is strategically located with easy access to Downtown Dubai, Al Khail Road, and major business hubs.&lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;This villa presents the perfect opportunity for families seeking comfort, convenience, and lifestyle within one of Dubai’s premier communities.&lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;Engel &amp;amp; Voelkers is one of the world’s leading service companies specializing in the brokerage of residential and commercial properties, yachts and aviation, with 800 offices in over 30 countries.&lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;Contact Engel &amp;amp; Voelkers, a global leader in real estate brokerage, today for further information.&lt;br/&gt;&lt;/div&gt;</t>
@@ -3430,8 +3405,8 @@
 Property Details:
 4 bedrooms
 4 bathrooms
-BUA 2462 sqft
-Plot 3075 sqft
+BUA 2462 sq.ft
+Plot 3075 sq.ft
 Selling Price: AED 5,749,999
 Amenities:
 Gated sub‑community with 24‑hour security and CCTV 
@@ -3518,6 +3493,9 @@
   </si>
   <si>
     <t>SALE12</t>
+  </si>
+  <si>
+    <t>6928566133</t>
   </si>
   <si>
     <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14578737.html</t>
@@ -3805,35 +3783,6 @@
 Call Jon to arrange a viewing today !</t>
   </si>
   <si>
-    <t>TH742457-2</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14618795.html</t>
-  </si>
-  <si>
-    <t>New to Market | Upgraded | Vacant On Transfer</t>
-  </si>
-  <si>
-    <t>Jon at Betterhomes are proud to bring to market this 4 bedroom + maids Townhouse in Maple 2, Dubai Hills Estate.
-The property features an open living area, a contemporary kitchen and four well appointed bedrooms along with a big maids room.
-Property details are as follows:
-- Type 2E / corner unit
-- 4 Bedroom
-- 4 Bathroom
-- Corner unit
-- True corner
--Extended
-- Backing the beautifully landscaped Green belt
-- Built up area size 2462 sq.ft
-- Plot size 3263.51 sq.ft
-- Immaculate throughout 
-- Spacious living and dining area
-- Close to swimming pool &amp;amp; Gym
-- Vacant on transfer 
-One of very few corner units which back the Green belt. Call Jon to arrange a viewing today.
-*Generic images used whilst we wait for photography*</t>
-  </si>
-  <si>
     <t>TH7607-2</t>
   </si>
   <si>
@@ -3841,6 +3790,9 @@
   </si>
   <si>
     <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14645946.html</t>
+  </si>
+  <si>
+    <t>2768</t>
   </si>
   <si>
     <t>3283</t>
@@ -3868,6 +3820,27 @@
 Maple offers a wide array of lifestyle, sporting and leisure amenities. Green corridors connect the districts and serve as shaded pathways for walking, cycling and jogging enthusiasts. Better yet, the children’s play areas, parks and barbeque facilities nearby are ideal for family picnics.</t>
   </si>
   <si>
+    <t>TREO-S-40297</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14665847.html</t>
+  </si>
+  <si>
+    <t>2170</t>
+  </si>
+  <si>
+    <t>Green Belt | 3M | Vacant | Ready to Move</t>
+  </si>
+  <si>
+    <t>Harrison Poulton</t>
+  </si>
+  <si>
+    <t>Treo Homes</t>
+  </si>
+  <si>
+    <t>Treo Homes is delighted to be bringing to the market our latest listing in Maple 2, Dubai Hills Estate.&lt;br&gt;&lt;br&gt;Features&lt;br&gt; - 4-Bedrooms&lt;br&gt; - 4-Bathrooms&lt;br&gt; - Type 3M&lt;br&gt; - Vacant on Transfer&lt;br&gt; - Standard Condition&lt;br&gt; - Well Maintained&lt;br&gt; - Great Locaction&lt;br&gt; - Potential to Renovate&lt;br&gt; - BUA:2,406sq.ft.&lt;br&gt; - PLOT:2,170sq.ft.&lt;br&gt;&lt;br&gt;Well-maintained Type 3M in Maple 2, backing directly onto a green belt for added privacy and peaceful views of the community. Vacant and ready to move in, this home features a highly desired layout with spacious living areas, a modern kitchen, and three generously sized bedrooms. Ideal for both end users and investors, the property offers strong renovation potential to add further value for rental return or capital appreciation. Located in a family-friendly community with easy access to parks, schools, and major roads. A rare opportunity to secure a prime unit in one of Dubai’s most sought-after townhouse developments of Dubai Hills.&lt;br&gt;&lt;br&gt;To get more information on the property or to book a viewing, get hold of us now!</t>
+  </si>
+  <si>
     <t>UQP-17333</t>
   </si>
   <si>
@@ -3933,44 +3906,6 @@
 	•	Balcony extension
 	•	Additional landing area extension
 Opportunities like this rarely come to market. Contact us today to arrange your private viewing — don’t miss the chance to secure one of the finest homes in Maple.</t>
-  </si>
-  <si>
-    <t>W-0307J9</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14362691.html</t>
-  </si>
-  <si>
-    <t>2156</t>
-  </si>
-  <si>
-    <t>Vacant | Greenbelt | Multiple options</t>
-  </si>
-  <si>
-    <t>2025-05-26</t>
-  </si>
-  <si>
-    <t>Natalie White</t>
-  </si>
-  <si>
-    <t>ENGEL &amp; VÖLKERS Dubai - S4</t>
-  </si>
-  <si>
-    <t>Engel &amp;amp; Volekers is proud to present this 4 bedroom plus maid in Maple, Dubai Hills Estate.
-Property details :
--4 Bedrooms + Maid&amp;#39;s Room
--4 Bathrooms
--BUA: 2,400 sqft
--Plot:2,156 sqft
--Unfurnished
--Vacant and Ready to Move In
--Private Garden
--Covered Parking for 2 Cars
--Close to Community Amenities​
-About Dubai Hills Estate:
-Envisaged as a premium lifestyle community, Dubai Hills Estate is a rejuvenating getaway in the heart of the city. It has elegantly designed neighborhoods set around an 18-hole championship golf course. This stylish gated villa community offers customers the opportunity to design their own luxurious homes. It features an iconic commercial centres, high-end retail centres, hotels and many more. 
-Engel &amp;amp; Voelkers is one of the world’s leading service companies specializing in the brokerage of residential and commercial properties, yachts and aviation, with 1000 offices in over 30 countries.Contact 
-Engel &amp;amp; Voelkers today for further details.</t>
   </si>
   <si>
     <t>XO-15843</t>
@@ -4312,101 +4247,106 @@
 The Dubai Hills Estate Golf Club provides a picturesque backdrop for golf enthusiasts to refine their skills.</t>
   </si>
   <si>
-    <t>01JZ032TY5287KJX4QW5S4HP9Q</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14622717.html</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>Vacant Now | Single Row | New to Market</t>
-  </si>
-  <si>
-    <t>Jackson Crosland</t>
-  </si>
-  <si>
-    <t>Croswell Real Estate</t>
-  </si>
-  <si>
-    <t>Croswell Real Estate is proud to present this 4 bedroom Townhouse in Maple at Dubai Hills Estate.
-- 4 bedrooms
-- 4 bathrooms
-- 2E layout
-- BUA: 2462 sq ft
-- Plot: 3000 sq ft
-- Single Row
-- Vacant
-This stunning townhouse offers a perfect blend of luxury and comfort, featuring spacious living areas that are ideal for family gatherings and entertaining guests. The modern kitchen is equipped with high-end appliances and ample storage, while the bedrooms provide a serene retreat with plenty of natural light. The outdoor space is perfect for enjoying the beautiful Dubai weather, making it an ideal home for those who appreciate both indoor and outdoor living.
-Maple at Dubai Hills Estate is a vibrant community that offers a lifestyle of convenience and leisure. Residents enjoy access to lush green parks, walking trails, and a variety of retail and dining options. The community is strategically located near major roadways, providing easy access to the rest of Dubai, while the nearby Dubai Hills Mall and golf course enhance the overall living experience, making it a sought-after destination for families and professionals alike.</t>
-  </si>
-  <si>
-    <t>Arta_Properties_0407001</t>
-  </si>
-  <si>
-    <t>6925793885</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14665072.html</t>
-  </si>
-  <si>
-    <t>2171</t>
-  </si>
-  <si>
-    <t>Modern 3BR Villa | Spacious | Natural Light</t>
-  </si>
-  <si>
-    <t>2025-07-04</t>
-  </si>
-  <si>
-    <t>.Niloofar. Moghatder</t>
-  </si>
-  <si>
-    <t>Arta Properties LLC</t>
-  </si>
-  <si>
-    <t>Property Details:
-- 3 Bedrooms
-- 4 Toilet
-- Built-In Wardrobes
-- Balcony
-- Area Sqft. - 2,171.08
-- Well-maintained
-Amenities and Features:
-- Shared Swimming Pool
-- Shared Gym
-- Kid&amp;#39;s Play area
-- Clubhouse
-- Dubai Hills Shopping Mall
-- Near the Tennis court
-- Near the Park
-Arta Properties L.L.C is delighted to present this 3-bedroom villa for sale in the popular Maple 1 community within Dubai Hills Estate. This sought-after development features a wide variety of villas, townhouses, and apartments, all situated close to some of Dubai’s top attractions and essential amenities. Conveniently located, the community offers easy access to the city&amp;#39;s main destinations.
-Dubai Hills Estate is thoughtfully master-planned around an impressive 18-hole championship golf course, creating a distinctive and upscale living environment. Maple townhouses are surrounded by green landscapes and linked through a network of shaded walkways, jogging and cycling tracks, fitness zones, and playgrounds—ideal for family living.
-The lush surroundings not only enhance wellness and outdoor activity but also encourage social interaction, all while being close to community facilities.
-Situated just off Al Marabea&amp;#39; Street, between Sheikh Mohammed bin Zayed Road and Al Khail Road, Maple enjoys excellent connectivity to Downtown Dubai, Dubai International Airport, and various leisure hubs across the city.
-The community offers convenient access to cafes, restaurants, and mosques. It is bordered by educational institutions, daycare centers, and essential services such as a private hospital, police station, and civil defense. With Dubai Hills Park just around the corner, everything you need is right within reach in this safe and family-friendly neighborhood.</t>
-  </si>
-  <si>
-    <t>TREO-S-40297</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14665847.html</t>
-  </si>
-  <si>
-    <t>2170</t>
-  </si>
-  <si>
-    <t>Green Belt | 3M | Vacant | Ready to Move</t>
-  </si>
-  <si>
-    <t>Harrison Poulton</t>
-  </si>
-  <si>
-    <t>Treo Homes</t>
-  </si>
-  <si>
-    <t>Treo Homes is delighted to be bringing to the market our latest listing in Maple 2, Dubai Hills Estate.&lt;br&gt;&lt;br&gt;Features&lt;br&gt; - 4-Bedrooms&lt;br&gt; - 4-Bathrooms&lt;br&gt; - Type 3M&lt;br&gt; - Vacant on Transfer&lt;br&gt; - Standard Condition&lt;br&gt; - Well Maintained&lt;br&gt; - Great Locaction&lt;br&gt; - Potential to Renovate&lt;br&gt; - BUA:2,406sq.ft.&lt;br&gt; - PLOT:2,170sq.ft.&lt;br&gt;&lt;br&gt;Well-maintained Type 3M in Maple 2, backing directly onto a green belt for added privacy and peaceful views of the community. Vacant and ready to move in, this home features a highly desired layout with spacious living areas, a modern kitchen, and three generously sized bedrooms. Ideal for both end users and investors, the property offers strong renovation potential to add further value for rental return or capital appreciation. Located in a family-friendly community with easy access to parks, schools, and major roads. A rare opportunity to secure a prime unit in one of Dubai’s most sought-after townhouse developments of Dubai Hills.&lt;br&gt;&lt;br&gt;To get more information on the property or to book a viewing, get hold of us now!</t>
+    <t>ADM251847</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-13954514.html</t>
+  </si>
+  <si>
+    <t>3106</t>
+  </si>
+  <si>
+    <t>Exclusive | 4 Bedroom | Greenbelt  | No Agents</t>
+  </si>
+  <si>
+    <t>2025-04-09</t>
+  </si>
+  <si>
+    <t>DUB191452</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14539808.html</t>
+  </si>
+  <si>
+    <t>2092</t>
+  </si>
+  <si>
+    <t>Green Belt Backing | Opposite Pool | 3 Bed</t>
+  </si>
+  <si>
+    <t>Green Belt Backing | Opposite Pool | 3 Bed
+-Type 2M
+-Maids Room
+-Green Belt
+-Close To Pool
+-Park Close By
+-2,228 Sq.Ft BUA
+-2,092 Sq.Ft PLOT
+-Excellent Condition
+-Fantastic Amenities
+-Community Pool And Gym
+-Community Park And Kids Play Area
+-2 Parking 
+Oliver and Allsopp &amp;amp; Allsopp Real Estate are proud to offer this beautiful villa in Maple, Dubai Hills Estate.
+The community includes an impressive 18 hole championship golf course, the iconic Dubai Hills park. Enjoy the shopping experience at Dubai Hills Mall and ensure access to quality education with nearby schools. Navigate the community seamlessly with a dedicated bicycle route, and experience world-class golfing at the renowned Dubai Hills Golf Club. Being a 15 minute drive from Downtown, Dubai Marina and around 20 minutes from the airport, what other area would you want to be in!?
+Please call Oliver Gutteridge today for more information or to arrange a viewing. Allsopp &amp;amp; Allsopp accept no liability for any incorrect details.</t>
+  </si>
+  <si>
+    <t>L-175274</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14526645.html</t>
+  </si>
+  <si>
+    <t>Single Row | Upgraded | Landscaped | 2E</t>
+  </si>
+  <si>
+    <t>Single Row | Upgraded | Landscaped | 2E
+-Type 2E
+-Maids Room
+-Upgraded
+-Single Row
+-Vacant
+-2,462 Sq.Ft BUA
+-3,065 Sq.Ft PLOT
+-Landscaped
+-Excellent Condition
+-Fantastic Amenities
+-Community Pool And Gym
+-Community Park And Kids Play Area
+-2 Parking
+Oliver and Allsopp &amp;amp; Allsopp Real Estate are proud to offer this beautiful villa in Maple, Dubai Hills Estate.
+The community includes an impressive 18 hole championship golf course, the iconic Dubai Hills park. Enjoy the shopping experience at Dubai Hills Mall and ensure access to quality education with nearby schools. Navigate the community seamlessly with a dedicated bicycle route, and experience world-class golfing at the renowned Dubai Hills Golf Club. Being a 15 minute drive from Downtown, Dubai Marina and around 20 minutes from the airport, what other area would you want to be in!?
+Please call Oliver Gutteridge today for more information or to arrange a viewing. Allsopp &amp;amp; Allsopp accept no liability for any incorrect details.</t>
+  </si>
+  <si>
+    <t>TH742457-2</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14618795.html</t>
+  </si>
+  <si>
+    <t>New to Market | Upgraded | Vacant On Transfer</t>
+  </si>
+  <si>
+    <t>Jon at Betterhomes are proud to bring to market this 4 bedroom + maids Townhouse in Maple 2, Dubai Hills Estate.
+The property features an open living area, a contemporary kitchen and four well appointed bedrooms along with a big maids room.
+Property details are as follows:
+- Type 2E / corner unit
+- 4 Bedroom
+- 4 Bathroom
+- Corner unit
+- True corner
+-Extended
+- Backing the beautifully landscaped Green belt
+- Built up area size 2462 sq.ft
+- Plot size 3263.51 sq.ft
+- Immaculate throughout 
+- Spacious living and dining area
+- Close to swimming pool &amp;amp; Gym
+- Vacant on transfer 
+One of very few corner units which back the Green belt. Call Jon to arrange a viewing today.
+*Generic images used whilst we wait for photography*</t>
   </si>
 </sst>
 </file>
@@ -4429,7 +4369,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4439,6 +4379,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA500"/>
       </patternFill>
     </fill>
     <fill>
@@ -4460,13 +4405,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4770,10 +4716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U116"/>
+  <dimension ref="A1:U113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B116"/>
+    <sheetView tabSelected="1" topLeftCell="D80" workbookViewId="0">
+      <selection activeCell="K111" sqref="K111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4893,7 +4839,7 @@
         <v>33</v>
       </c>
       <c r="Q2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R2" t="s">
         <v>34</v>
@@ -4940,42 +4886,42 @@
         <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T3" t="s">
         <v>36</v>
       </c>
       <c r="U3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -4984,7 +4930,7 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -4999,42 +4945,42 @@
         <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q4">
+        <v>57</v>
+      </c>
+      <c r="R4" t="s">
         <v>56</v>
       </c>
-      <c r="R4" t="s">
-        <v>55</v>
-      </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T4" t="s">
         <v>36</v>
       </c>
       <c r="U4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -5043,7 +4989,7 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -5061,42 +5007,42 @@
         <v>29</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="S5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="T5" t="s">
         <v>36</v>
       </c>
       <c r="U5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -5120,45 +5066,45 @@
         <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s">
         <v>36</v>
       </c>
       <c r="U6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -5188,39 +5134,39 @@
         <v>30</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T7" t="s">
         <v>36</v>
       </c>
       <c r="U7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -5229,13 +5175,13 @@
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
       </c>
       <c r="H8">
-        <v>5700000</v>
+        <v>5800000</v>
       </c>
       <c r="I8">
         <v>4</v>
@@ -5244,45 +5190,45 @@
         <v>28</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="R8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="T8" t="s">
         <v>36</v>
       </c>
       <c r="U8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -5291,13 +5237,13 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="H9">
-        <v>5500000</v>
+        <v>6100000</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -5309,39 +5255,42 @@
         <v>29</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q9">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="S9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="T9" t="s">
         <v>36</v>
       </c>
       <c r="U9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -5353,54 +5302,57 @@
         <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="H10">
-        <v>5500000</v>
+        <v>5700000</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
         <v>28</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="N10" t="s">
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R10" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="S10" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="T10" t="s">
         <v>36</v>
       </c>
       <c r="U10" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -5412,57 +5364,54 @@
         <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="H11">
-        <v>7500000</v>
+        <v>5500000</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" t="s">
         <v>28</v>
       </c>
       <c r="K11" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N11" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="O11" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="P11" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="S11" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="T11" t="s">
         <v>36</v>
       </c>
       <c r="U11" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -5477,54 +5426,54 @@
         <v>27</v>
       </c>
       <c r="H12">
-        <v>4900000</v>
+        <v>7500000</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12" t="s">
         <v>28</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="P12" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="Q12">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="R12" t="s">
+        <v>131</v>
+      </c>
+      <c r="S12" t="s">
         <v>123</v>
-      </c>
-      <c r="S12" t="s">
-        <v>124</v>
       </c>
       <c r="T12" t="s">
         <v>36</v>
       </c>
       <c r="U12" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -5539,7 +5488,7 @@
         <v>27</v>
       </c>
       <c r="H13">
-        <v>5500000</v>
+        <v>4900000</v>
       </c>
       <c r="I13">
         <v>3</v>
@@ -5548,42 +5497,45 @@
         <v>28</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
+      </c>
+      <c r="N13" t="s">
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="Q13">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R13" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="S13" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="T13" t="s">
         <v>36</v>
       </c>
       <c r="U13" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
@@ -5592,60 +5544,60 @@
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="H14">
-        <v>6500000</v>
+        <v>5800000</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
         <v>28</v>
       </c>
       <c r="K14" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="P14" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="S14" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="T14" t="s">
         <v>36</v>
       </c>
       <c r="U14" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -5654,57 +5606,60 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
         <v>27</v>
       </c>
       <c r="H15">
-        <v>6000000</v>
+        <v>6500000</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" t="s">
         <v>28</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>30</v>
+        <v>73</v>
+      </c>
+      <c r="N15" t="s">
+        <v>153</v>
       </c>
       <c r="O15" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="P15" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="R15" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="S15" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="T15" t="s">
         <v>36</v>
       </c>
       <c r="U15" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
@@ -5713,60 +5668,57 @@
         <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
         <v>27</v>
       </c>
       <c r="H16">
-        <v>4900000</v>
+        <v>6000000</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16" t="s">
         <v>28</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N16" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="O16" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="P16" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="S16" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="T16" t="s">
         <v>36</v>
       </c>
       <c r="U16" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -5775,60 +5727,60 @@
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
         <v>27</v>
       </c>
       <c r="H17">
-        <v>5500000</v>
+        <v>4900000</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
         <v>28</v>
       </c>
       <c r="K17" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="O17" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="P17" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="Q17">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="R17" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="S17" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="T17" t="s">
         <v>36</v>
       </c>
       <c r="U17" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -5837,57 +5789,60 @@
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
         <v>27</v>
       </c>
       <c r="H18">
-        <v>6000000</v>
+        <v>5500000</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
         <v>28</v>
       </c>
       <c r="K18" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
+      </c>
+      <c r="N18" t="s">
+        <v>178</v>
       </c>
       <c r="O18" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="Q18">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="R18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="S18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="T18" t="s">
         <v>36</v>
       </c>
       <c r="U18" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -5896,60 +5851,57 @@
         <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s">
         <v>27</v>
       </c>
       <c r="H19">
-        <v>5700000</v>
+        <v>6000000</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J19" t="s">
         <v>28</v>
       </c>
       <c r="K19" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" t="s">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="O19" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="P19" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="Q19">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="R19" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="S19" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="T19" t="s">
         <v>36</v>
       </c>
       <c r="U19" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
@@ -5964,54 +5916,54 @@
         <v>27</v>
       </c>
       <c r="H20">
-        <v>5500000</v>
+        <v>5700000</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
         <v>28</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N20" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="O20" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="P20" t="s">
-        <v>83</v>
+        <v>193</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="R20" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="S20" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="T20" t="s">
         <v>36</v>
       </c>
       <c r="U20" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -6020,60 +5972,60 @@
         <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
         <v>27</v>
       </c>
       <c r="H21">
-        <v>5950000</v>
+        <v>5500000</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
         <v>28</v>
       </c>
       <c r="K21" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="N21" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="O21" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="P21" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="Q21">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="R21" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="S21" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="T21" t="s">
         <v>36</v>
       </c>
       <c r="U21" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -6082,60 +6034,60 @@
         <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
       </c>
       <c r="H22">
-        <v>5750000</v>
+        <v>5950000</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J22" t="s">
         <v>28</v>
       </c>
       <c r="K22" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="N22" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="O22" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="P22" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="R22" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="S22" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="T22" t="s">
         <v>36</v>
       </c>
       <c r="U22" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -6144,60 +6096,60 @@
         <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G23" t="s">
         <v>27</v>
       </c>
       <c r="H23">
-        <v>5500000</v>
+        <v>5750000</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J23" t="s">
         <v>28</v>
       </c>
       <c r="K23" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N23" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="O23" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="P23" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="R23" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="S23" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="T23" t="s">
         <v>36</v>
       </c>
       <c r="U23" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -6212,7 +6164,7 @@
         <v>27</v>
       </c>
       <c r="H24">
-        <v>5200000</v>
+        <v>5500000</v>
       </c>
       <c r="I24">
         <v>3</v>
@@ -6221,45 +6173,45 @@
         <v>28</v>
       </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="N24" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="O24" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="P24" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q24">
         <v>15</v>
       </c>
       <c r="R24" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="S24" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="T24" t="s">
         <v>36</v>
       </c>
       <c r="U24" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
@@ -6271,7 +6223,7 @@
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H25">
         <v>5650000</v>
@@ -6289,39 +6241,39 @@
         <v>30</v>
       </c>
       <c r="N25" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="O25" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="P25" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R25" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="S25" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="T25" t="s">
         <v>36</v>
       </c>
       <c r="U25" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
@@ -6351,36 +6303,36 @@
         <v>30</v>
       </c>
       <c r="O26" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="P26" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="Q26">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R26" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="S26" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="T26" t="s">
         <v>36</v>
       </c>
       <c r="U26" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
@@ -6410,36 +6362,36 @@
         <v>30</v>
       </c>
       <c r="O27" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="P27" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="Q27">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R27" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="S27" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="T27" t="s">
         <v>36</v>
       </c>
       <c r="U27" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="D28" t="s">
         <v>24</v>
@@ -6469,39 +6421,39 @@
         <v>30</v>
       </c>
       <c r="N28" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="O28" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="P28" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q28">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R28" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="S28" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="T28" t="s">
         <v>36</v>
       </c>
       <c r="U28" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D29" t="s">
         <v>24</v>
@@ -6510,7 +6462,7 @@
         <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s">
         <v>27</v>
@@ -6525,45 +6477,45 @@
         <v>28</v>
       </c>
       <c r="K29" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="N29" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="O29" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="P29" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="Q29">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R29" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="S29" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="T29" t="s">
         <v>36</v>
       </c>
       <c r="U29" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -6587,45 +6539,45 @@
         <v>28</v>
       </c>
       <c r="K30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N30" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="O30" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="P30" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="Q30">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R30" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="S30" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="T30" t="s">
         <v>36</v>
       </c>
       <c r="U30" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="D31" t="s">
         <v>24</v>
@@ -6655,39 +6607,39 @@
         <v>30</v>
       </c>
       <c r="N31" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="O31" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="P31" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="Q31">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R31" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="S31" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="T31" t="s">
         <v>36</v>
       </c>
       <c r="U31" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D32" t="s">
         <v>24</v>
@@ -6696,7 +6648,7 @@
         <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s">
         <v>27</v>
@@ -6711,45 +6663,45 @@
         <v>28</v>
       </c>
       <c r="K32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N32" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="O32" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="P32" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="Q32">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R32" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="S32" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="T32" t="s">
         <v>36</v>
       </c>
       <c r="U32" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
@@ -6758,7 +6710,7 @@
         <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s">
         <v>27</v>
@@ -6773,45 +6725,45 @@
         <v>28</v>
       </c>
       <c r="K33" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N33" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="O33" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="P33" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Q33">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R33" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="S33" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="T33" t="s">
         <v>36</v>
       </c>
       <c r="U33" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="D34" t="s">
         <v>24</v>
@@ -6835,42 +6787,42 @@
         <v>28</v>
       </c>
       <c r="K34" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="O34" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="P34" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R34" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="S34" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="T34" t="s">
         <v>36</v>
       </c>
       <c r="U34" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="D35" t="s">
         <v>24</v>
@@ -6894,42 +6846,42 @@
         <v>28</v>
       </c>
       <c r="K35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O35" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="P35" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R35" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="S35" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="T35" t="s">
         <v>36</v>
       </c>
       <c r="U35" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="B36" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
@@ -6953,45 +6905,45 @@
         <v>28</v>
       </c>
       <c r="K36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N36" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="O36" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="P36" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="Q36">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R36" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="S36" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="T36" t="s">
         <v>36</v>
       </c>
       <c r="U36" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="D37" t="s">
         <v>24</v>
@@ -7021,39 +6973,39 @@
         <v>30</v>
       </c>
       <c r="N37" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="O37" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="P37" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="Q37">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R37" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="S37" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="T37" t="s">
         <v>36</v>
       </c>
       <c r="U37" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="D38" t="s">
         <v>24</v>
@@ -7062,7 +7014,7 @@
         <v>25</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s">
         <v>27</v>
@@ -7080,42 +7032,42 @@
         <v>29</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N38" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="O38" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="P38" t="s">
-        <v>320</v>
+        <v>94</v>
       </c>
       <c r="Q38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R38" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="S38" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="T38" t="s">
         <v>36</v>
       </c>
       <c r="U38" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
@@ -7124,7 +7076,7 @@
         <v>25</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G39" t="s">
         <v>27</v>
@@ -7139,42 +7091,42 @@
         <v>28</v>
       </c>
       <c r="K39" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="O39" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="P39" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R39" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="S39" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="T39" t="s">
         <v>36</v>
       </c>
       <c r="U39" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="B40" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
@@ -7204,39 +7156,39 @@
         <v>30</v>
       </c>
       <c r="N40" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="O40" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="P40" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="Q40">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R40" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="S40" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="T40" t="s">
         <v>36</v>
       </c>
       <c r="U40" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="B41" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="D41" t="s">
         <v>24</v>
@@ -7245,7 +7197,7 @@
         <v>25</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G41" t="s">
         <v>27</v>
@@ -7263,42 +7215,42 @@
         <v>29</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N41" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="O41" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="P41" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="Q41">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R41" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="S41" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="T41" t="s">
         <v>36</v>
       </c>
       <c r="U41" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
@@ -7328,39 +7280,39 @@
         <v>30</v>
       </c>
       <c r="N42" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="O42" t="s">
+        <v>357</v>
+      </c>
+      <c r="P42" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q42">
+        <v>49</v>
+      </c>
+      <c r="R42" t="s">
+        <v>345</v>
+      </c>
+      <c r="S42" t="s">
         <v>346</v>
-      </c>
-      <c r="P42" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q42">
-        <v>48</v>
-      </c>
-      <c r="R42" t="s">
-        <v>334</v>
-      </c>
-      <c r="S42" t="s">
-        <v>335</v>
       </c>
       <c r="T42" t="s">
         <v>36</v>
       </c>
       <c r="U42" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="D43" t="s">
         <v>24</v>
@@ -7369,7 +7321,7 @@
         <v>25</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s">
         <v>27</v>
@@ -7387,42 +7339,42 @@
         <v>29</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N43" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="O43" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="P43" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="Q43">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R43" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="S43" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="T43" t="s">
         <v>36</v>
       </c>
       <c r="U43" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="B44" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="D44" t="s">
         <v>24</v>
@@ -7446,42 +7398,42 @@
         <v>28</v>
       </c>
       <c r="K44" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O44" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="P44" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="Q44">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R44" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="S44" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="T44" t="s">
         <v>36</v>
       </c>
       <c r="U44" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="B45" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
@@ -7505,45 +7457,45 @@
         <v>28</v>
       </c>
       <c r="K45" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>52</v>
+        <v>198</v>
       </c>
       <c r="N45" t="s">
-        <v>52</v>
+        <v>377</v>
       </c>
       <c r="O45" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="P45" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="Q45">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R45" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="S45" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="T45" t="s">
         <v>36</v>
       </c>
       <c r="U45" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="B46" t="s">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="D46" t="s">
         <v>24</v>
@@ -7552,13 +7504,13 @@
         <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G46" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="H46">
-        <v>5750000</v>
+        <v>5500000</v>
       </c>
       <c r="I46">
         <v>4</v>
@@ -7567,45 +7519,42 @@
         <v>28</v>
       </c>
       <c r="K46" t="s">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N46" t="s">
-        <v>371</v>
+        <v>263</v>
       </c>
       <c r="O46" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="P46" t="s">
-        <v>373</v>
+        <v>113</v>
       </c>
       <c r="Q46">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="R46" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="S46" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="T46" t="s">
         <v>36</v>
       </c>
       <c r="U46" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>214</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="D47" t="s">
         <v>24</v>
@@ -7614,60 +7563,60 @@
         <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G47" t="s">
         <v>27</v>
       </c>
       <c r="H47">
-        <v>6500000</v>
+        <v>5750000</v>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J47" t="s">
         <v>28</v>
       </c>
       <c r="K47" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="N47" t="s">
-        <v>72</v>
+        <v>387</v>
       </c>
       <c r="O47" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="P47" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="Q47">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R47" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="S47" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="T47" t="s">
         <v>36</v>
       </c>
       <c r="U47" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B48" t="s">
-        <v>384</v>
+        <v>70</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="D48" t="s">
         <v>24</v>
@@ -7676,57 +7625,60 @@
         <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
         <v>27</v>
       </c>
       <c r="H48">
-        <v>5800000</v>
+        <v>6500000</v>
       </c>
       <c r="I48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J48" t="s">
         <v>28</v>
       </c>
       <c r="K48" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>30</v>
+        <v>73</v>
+      </c>
+      <c r="N48" t="s">
+        <v>74</v>
       </c>
       <c r="O48" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="P48" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="Q48">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R48" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="S48" t="s">
-        <v>335</v>
+        <v>397</v>
       </c>
       <c r="T48" t="s">
         <v>36</v>
       </c>
       <c r="U48" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B49" t="s">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="D49" t="s">
         <v>24</v>
@@ -7735,13 +7687,13 @@
         <v>25</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G49" t="s">
         <v>27</v>
       </c>
       <c r="H49">
-        <v>6200000</v>
+        <v>5800000</v>
       </c>
       <c r="I49">
         <v>4</v>
@@ -7753,42 +7705,39 @@
         <v>29</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N49" t="s">
-        <v>352</v>
+        <v>62</v>
       </c>
       <c r="O49" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="P49" t="s">
-        <v>223</v>
+        <v>403</v>
       </c>
       <c r="Q49">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="R49" t="s">
-        <v>215</v>
+        <v>372</v>
       </c>
       <c r="S49" t="s">
-        <v>216</v>
+        <v>346</v>
       </c>
       <c r="T49" t="s">
         <v>36</v>
       </c>
       <c r="U49" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B50" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="D50" t="s">
         <v>24</v>
@@ -7797,7 +7746,7 @@
         <v>25</v>
       </c>
       <c r="F50" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G50" t="s">
         <v>27</v>
@@ -7815,42 +7764,42 @@
         <v>29</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N50" t="s">
-        <v>310</v>
+        <v>363</v>
       </c>
       <c r="O50" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="P50" t="s">
-        <v>396</v>
+        <v>233</v>
       </c>
       <c r="Q50">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="R50" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="S50" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="T50" t="s">
         <v>36</v>
       </c>
       <c r="U50" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
@@ -7874,45 +7823,45 @@
         <v>28</v>
       </c>
       <c r="K51" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N51" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="O51" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="P51" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Q51">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R51" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="S51" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="T51" t="s">
         <v>36</v>
       </c>
       <c r="U51" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="B52" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="D52" t="s">
         <v>24</v>
@@ -7936,45 +7885,45 @@
         <v>28</v>
       </c>
       <c r="K52" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>52</v>
+        <v>198</v>
       </c>
       <c r="N52" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="O52" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="P52" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Q52">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R52" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="S52" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="T52" t="s">
         <v>36</v>
       </c>
       <c r="U52" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="B53" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="D53" t="s">
         <v>24</v>
@@ -7998,45 +7947,45 @@
         <v>28</v>
       </c>
       <c r="K53" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N53" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="O53" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="P53" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="Q53">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R53" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="S53" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="T53" t="s">
         <v>36</v>
       </c>
       <c r="U53" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="B54" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="D54" t="s">
         <v>24</v>
@@ -8045,7 +7994,7 @@
         <v>25</v>
       </c>
       <c r="F54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s">
         <v>27</v>
@@ -8060,45 +8009,45 @@
         <v>28</v>
       </c>
       <c r="K54" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N54" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="O54" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="P54" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="Q54">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R54" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="S54" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="T54" t="s">
         <v>36</v>
       </c>
       <c r="U54" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="B55" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="D55" t="s">
         <v>24</v>
@@ -8128,39 +8077,39 @@
         <v>30</v>
       </c>
       <c r="N55" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="O55" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="P55" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="Q55">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R55" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="S55" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="T55" t="s">
         <v>36</v>
       </c>
       <c r="U55" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="B56" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="D56" t="s">
         <v>24</v>
@@ -8169,10 +8118,10 @@
         <v>25</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G56" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H56">
         <v>6400000</v>
@@ -8187,42 +8136,42 @@
         <v>29</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N56" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="O56" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="P56" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="Q56">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R56" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="S56" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="T56" t="s">
         <v>36</v>
       </c>
       <c r="U56" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
@@ -8231,7 +8180,7 @@
         <v>25</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G57" t="s">
         <v>27</v>
@@ -8249,42 +8198,42 @@
         <v>29</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N57" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="O57" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="P57" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R57" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="S57" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="T57" t="s">
         <v>36</v>
       </c>
       <c r="U57" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="B58" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="D58" t="s">
         <v>24</v>
@@ -8293,7 +8242,7 @@
         <v>25</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G58" t="s">
         <v>27</v>
@@ -8311,42 +8260,42 @@
         <v>29</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N58" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="O58" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="P58" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="Q58">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R58" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="S58" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="T58" t="s">
         <v>36</v>
       </c>
       <c r="U58" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="B59" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="D59" t="s">
         <v>24</v>
@@ -8370,42 +8319,42 @@
         <v>28</v>
       </c>
       <c r="K59" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="O59" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="P59" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="Q59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R59" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="S59" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="T59" t="s">
         <v>36</v>
       </c>
       <c r="U59" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B60" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
@@ -8432,42 +8381,42 @@
         <v>29</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N60" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="O60" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="P60" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="Q60">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R60" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="S60" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="T60" t="s">
         <v>36</v>
       </c>
       <c r="U60" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="B61" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="D61" t="s">
         <v>24</v>
@@ -8476,10 +8425,10 @@
         <v>25</v>
       </c>
       <c r="F61" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G61" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H61">
         <v>6700000</v>
@@ -8491,42 +8440,42 @@
         <v>28</v>
       </c>
       <c r="K61" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O61" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="P61" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="Q61">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R61" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="S61" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="T61" t="s">
         <v>36</v>
       </c>
       <c r="U61" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="B62" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="D62" t="s">
         <v>24</v>
@@ -8538,7 +8487,7 @@
         <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H62">
         <v>6999000</v>
@@ -8550,42 +8499,42 @@
         <v>28</v>
       </c>
       <c r="K62" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O62" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="P62" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="Q62">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R62" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="S62" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="T62" t="s">
         <v>36</v>
       </c>
       <c r="U62" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="B63" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="D63" t="s">
         <v>24</v>
@@ -8597,7 +8546,7 @@
         <v>41</v>
       </c>
       <c r="G63" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H63">
         <v>5100000</v>
@@ -8609,45 +8558,45 @@
         <v>28</v>
       </c>
       <c r="K63" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="N63" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="O63" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="P63" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="Q63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R63" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="S63" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="T63" t="s">
         <v>36</v>
       </c>
       <c r="U63" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="B64" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="D64" t="s">
         <v>24</v>
@@ -8656,7 +8605,7 @@
         <v>25</v>
       </c>
       <c r="F64" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G64" t="s">
         <v>27</v>
@@ -8671,42 +8620,42 @@
         <v>28</v>
       </c>
       <c r="K64" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="O64" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="P64" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="Q64">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R64" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="S64" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="T64" t="s">
         <v>36</v>
       </c>
       <c r="U64" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="B65" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="D65" t="s">
         <v>24</v>
@@ -8730,45 +8679,45 @@
         <v>28</v>
       </c>
       <c r="K65" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="N65" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="O65" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="P65" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="Q65">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R65" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="S65" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="T65" t="s">
         <v>36</v>
       </c>
       <c r="U65" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="B66" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="D66" t="s">
         <v>24</v>
@@ -8777,7 +8726,7 @@
         <v>25</v>
       </c>
       <c r="F66" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G66" t="s">
         <v>27</v>
@@ -8792,42 +8741,42 @@
         <v>28</v>
       </c>
       <c r="K66" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O66" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="P66" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Q66">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R66" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="S66" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="T66" t="s">
         <v>36</v>
       </c>
       <c r="U66" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="B67" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="D67" t="s">
         <v>24</v>
@@ -8836,7 +8785,7 @@
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G67" t="s">
         <v>27</v>
@@ -8851,42 +8800,42 @@
         <v>28</v>
       </c>
       <c r="K67" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="O67" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="P67" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="Q67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R67" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="S67" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="T67" t="s">
         <v>36</v>
       </c>
       <c r="U67" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="B68" t="s">
-        <v>512</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="D68" t="s">
         <v>24</v>
@@ -8901,7 +8850,7 @@
         <v>27</v>
       </c>
       <c r="H68">
-        <v>5350000</v>
+        <v>5800000</v>
       </c>
       <c r="I68">
         <v>4</v>
@@ -8910,42 +8859,42 @@
         <v>28</v>
       </c>
       <c r="K68" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="O68" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="P68" t="s">
-        <v>223</v>
+        <v>459</v>
       </c>
       <c r="Q68">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="R68" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="S68" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="T68" t="s">
         <v>36</v>
       </c>
       <c r="U68" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="D69" t="s">
         <v>24</v>
@@ -8954,10 +8903,10 @@
         <v>25</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G69" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="H69">
         <v>5800000</v>
@@ -8972,39 +8921,42 @@
         <v>29</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
+      </c>
+      <c r="N69" t="s">
+        <v>62</v>
       </c>
       <c r="O69" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="P69" t="s">
-        <v>448</v>
+        <v>353</v>
       </c>
       <c r="Q69">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="R69" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="S69" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="T69" t="s">
         <v>36</v>
       </c>
       <c r="U69" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="B70" t="s">
-        <v>520</v>
+        <v>415</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="D70" t="s">
         <v>24</v>
@@ -9013,60 +8965,57 @@
         <v>25</v>
       </c>
       <c r="F70" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G70" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="H70">
-        <v>5800000</v>
+        <v>5200000</v>
       </c>
       <c r="I70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
         <v>28</v>
       </c>
       <c r="K70" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N70" t="s">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="O70" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="P70" t="s">
-        <v>342</v>
+        <v>535</v>
       </c>
       <c r="Q70">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="R70" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="S70" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="T70" t="s">
         <v>36</v>
       </c>
       <c r="U70" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="B71" t="s">
-        <v>404</v>
+        <v>229</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="D71" t="s">
         <v>24</v>
@@ -9081,54 +9030,54 @@
         <v>27</v>
       </c>
       <c r="H71">
-        <v>5200000</v>
+        <v>5700000</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J71" t="s">
         <v>28</v>
       </c>
       <c r="K71" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N71" t="s">
-        <v>406</v>
+        <v>83</v>
       </c>
       <c r="O71" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="P71" t="s">
-        <v>396</v>
+        <v>542</v>
       </c>
       <c r="Q71">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="R71" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="S71" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="T71" t="s">
         <v>36</v>
       </c>
       <c r="U71" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="B72" t="s">
-        <v>219</v>
+        <v>547</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="D72" t="s">
         <v>24</v>
@@ -9137,13 +9086,13 @@
         <v>25</v>
       </c>
       <c r="F72" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G72" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="H72">
-        <v>5700000</v>
+        <v>6800000</v>
       </c>
       <c r="I72">
         <v>4</v>
@@ -9155,42 +9104,42 @@
         <v>29</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N72" t="s">
-        <v>81</v>
+        <v>549</v>
       </c>
       <c r="O72" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="P72" t="s">
-        <v>535</v>
+        <v>459</v>
       </c>
       <c r="Q72">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="R72" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="S72" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="T72" t="s">
         <v>36</v>
       </c>
       <c r="U72" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="B73" t="s">
-        <v>540</v>
+        <v>312</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="D73" t="s">
         <v>24</v>
@@ -9199,60 +9148,57 @@
         <v>25</v>
       </c>
       <c r="F73" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="H73">
-        <v>6800000</v>
+        <v>6900000</v>
       </c>
       <c r="I73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J73" t="s">
         <v>28</v>
       </c>
       <c r="K73" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N73" t="s">
-        <v>542</v>
+        <v>73</v>
       </c>
       <c r="O73" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="P73" t="s">
-        <v>448</v>
+        <v>209</v>
       </c>
       <c r="Q73">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="R73" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="S73" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="T73" t="s">
         <v>36</v>
       </c>
       <c r="U73" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="B74" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="D74" t="s">
         <v>24</v>
@@ -9261,57 +9207,57 @@
         <v>25</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G74" t="s">
         <v>27</v>
       </c>
       <c r="H74">
-        <v>6900000</v>
+        <v>6100000</v>
       </c>
       <c r="I74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J74" t="s">
         <v>28</v>
       </c>
       <c r="K74" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="O74" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="P74" t="s">
-        <v>191</v>
+        <v>459</v>
       </c>
       <c r="Q74">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="R74" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="S74" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="T74" t="s">
         <v>36</v>
       </c>
       <c r="U74" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="B75" t="s">
-        <v>316</v>
+        <v>244</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="D75" t="s">
         <v>24</v>
@@ -9320,13 +9266,13 @@
         <v>25</v>
       </c>
       <c r="F75" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G75" t="s">
         <v>27</v>
       </c>
       <c r="H75">
-        <v>6100000</v>
+        <v>5750000</v>
       </c>
       <c r="I75">
         <v>4</v>
@@ -9341,36 +9287,36 @@
         <v>30</v>
       </c>
       <c r="O75" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="P75" t="s">
-        <v>448</v>
+        <v>138</v>
       </c>
       <c r="Q75">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="R75" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="S75" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="T75" t="s">
         <v>36</v>
       </c>
       <c r="U75" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="B76" t="s">
-        <v>232</v>
+        <v>571</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="D76" t="s">
         <v>24</v>
@@ -9385,7 +9331,7 @@
         <v>27</v>
       </c>
       <c r="H76">
-        <v>5750000</v>
+        <v>5950000</v>
       </c>
       <c r="I76">
         <v>4</v>
@@ -9399,37 +9345,40 @@
       <c r="M76" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="N76" t="s">
+        <v>573</v>
+      </c>
       <c r="O76" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="P76" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="Q76">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R76" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="S76" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="T76" t="s">
         <v>36</v>
       </c>
       <c r="U76" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="B77" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="D77" t="s">
         <v>24</v>
@@ -9459,39 +9408,39 @@
         <v>30</v>
       </c>
       <c r="N77" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="O77" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="P77" t="s">
-        <v>122</v>
+        <v>581</v>
       </c>
       <c r="Q77">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="R77" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="S77" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="T77" t="s">
         <v>36</v>
       </c>
       <c r="U77" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="B78" t="s">
-        <v>570</v>
+        <v>126</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="D78" t="s">
         <v>24</v>
@@ -9506,54 +9455,54 @@
         <v>27</v>
       </c>
       <c r="H78">
-        <v>6000000</v>
+        <v>7500000</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J78" t="s">
         <v>28</v>
       </c>
       <c r="K78" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="N78" t="s">
-        <v>572</v>
+        <v>411</v>
       </c>
       <c r="O78" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="P78" t="s">
-        <v>122</v>
+        <v>581</v>
       </c>
       <c r="Q78">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="R78" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="S78" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="T78" t="s">
         <v>36</v>
       </c>
       <c r="U78" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="79" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="B79" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="D79" t="s">
         <v>24</v>
@@ -9562,60 +9511,60 @@
         <v>25</v>
       </c>
       <c r="F79" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G79" t="s">
         <v>27</v>
       </c>
       <c r="H79">
-        <v>5950000</v>
+        <v>5200000</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
         <v>28</v>
       </c>
       <c r="K79" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N79" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="O79" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="P79" t="s">
-        <v>580</v>
+        <v>85</v>
       </c>
       <c r="Q79">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R79" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="S79" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="T79" t="s">
         <v>36</v>
       </c>
       <c r="U79" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="B80" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="D80" t="s">
         <v>24</v>
@@ -9624,60 +9573,60 @@
         <v>25</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G80" t="s">
         <v>27</v>
       </c>
       <c r="H80">
-        <v>7500000</v>
+        <v>5800000</v>
       </c>
       <c r="I80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J80" t="s">
         <v>28</v>
       </c>
       <c r="K80" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="N80" t="s">
-        <v>400</v>
+        <v>83</v>
       </c>
       <c r="O80" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="P80" t="s">
-        <v>580</v>
+        <v>395</v>
       </c>
       <c r="Q80">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="R80" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="S80" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="T80" t="s">
         <v>36</v>
       </c>
       <c r="U80" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="B81" t="s">
-        <v>211</v>
+        <v>598</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="D81" t="s">
         <v>24</v>
@@ -9686,60 +9635,60 @@
         <v>25</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G81" t="s">
         <v>27</v>
       </c>
       <c r="H81">
-        <v>5200000</v>
+        <v>5800000</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J81" t="s">
         <v>28</v>
       </c>
       <c r="K81" t="s">
-        <v>51</v>
+        <v>262</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="N81" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="O81" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="P81" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="Q81">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="R81" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="S81" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="T81" t="s">
         <v>36</v>
       </c>
       <c r="U81" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="D82" t="s">
         <v>24</v>
@@ -9748,10 +9697,10 @@
         <v>25</v>
       </c>
       <c r="F82" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G82" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="H82">
         <v>5800000</v>
@@ -9766,42 +9715,42 @@
         <v>29</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N82" t="s">
-        <v>81</v>
+        <v>605</v>
       </c>
       <c r="O82" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="P82" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="Q82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R82" t="s">
-        <v>556</v>
+        <v>607</v>
       </c>
       <c r="S82" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="T82" t="s">
         <v>36</v>
       </c>
       <c r="U82" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="B83" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="D83" t="s">
         <v>24</v>
@@ -9810,13 +9759,13 @@
         <v>25</v>
       </c>
       <c r="F83" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s">
         <v>27</v>
       </c>
       <c r="H83">
-        <v>5800000</v>
+        <v>6100000</v>
       </c>
       <c r="I83">
         <v>4</v>
@@ -9825,45 +9774,45 @@
         <v>28</v>
       </c>
       <c r="K83" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>251</v>
+        <v>62</v>
       </c>
       <c r="N83" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="O83" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="P83" t="s">
-        <v>145</v>
+        <v>389</v>
       </c>
       <c r="Q83">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R83" t="s">
-        <v>556</v>
+        <v>614</v>
       </c>
       <c r="S83" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="T83" t="s">
         <v>36</v>
       </c>
       <c r="U83" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="B84" t="s">
-        <v>520</v>
+        <v>617</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="D84" t="s">
         <v>24</v>
@@ -9872,13 +9821,13 @@
         <v>25</v>
       </c>
       <c r="F84" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G84" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="H84">
-        <v>5800000</v>
+        <v>5500000</v>
       </c>
       <c r="I84">
         <v>4</v>
@@ -9887,45 +9836,42 @@
         <v>28</v>
       </c>
       <c r="K84" t="s">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N84" t="s">
-        <v>603</v>
+        <v>263</v>
       </c>
       <c r="O84" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="P84" t="s">
-        <v>379</v>
+        <v>459</v>
       </c>
       <c r="Q84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R84" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="S84" t="s">
-        <v>557</v>
+        <v>621</v>
       </c>
       <c r="T84" t="s">
         <v>36</v>
       </c>
       <c r="U84" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="B85" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="D85" t="s">
         <v>24</v>
@@ -9934,7 +9880,7 @@
         <v>25</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G85" t="s">
         <v>27</v>
@@ -9943,51 +9889,48 @@
         <v>6100000</v>
       </c>
       <c r="I85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J85" t="s">
         <v>28</v>
       </c>
       <c r="K85" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N85" t="s">
-        <v>610</v>
+        <v>198</v>
       </c>
       <c r="O85" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="P85" t="s">
-        <v>373</v>
+        <v>247</v>
       </c>
       <c r="Q85">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="R85" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="S85" t="s">
-        <v>557</v>
+        <v>628</v>
       </c>
       <c r="T85" t="s">
         <v>36</v>
       </c>
       <c r="U85" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
     </row>
     <row r="86" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="B86" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="D86" t="s">
         <v>24</v>
@@ -9996,60 +9939,60 @@
         <v>25</v>
       </c>
       <c r="F86" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G86" t="s">
         <v>27</v>
       </c>
       <c r="H86">
-        <v>6199000</v>
+        <v>5749999</v>
       </c>
       <c r="I86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J86" t="s">
         <v>28</v>
       </c>
       <c r="K86" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="N86" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="O86" t="s">
-        <v>618</v>
+        <v>634</v>
       </c>
       <c r="P86" t="s">
-        <v>619</v>
+        <v>535</v>
       </c>
       <c r="Q86">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="R86" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="S86" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="T86" t="s">
         <v>36</v>
       </c>
       <c r="U86" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
     </row>
     <row r="87" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="B87" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="D87" t="s">
         <v>24</v>
@@ -10058,13 +10001,13 @@
         <v>25</v>
       </c>
       <c r="F87" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
         <v>27</v>
       </c>
       <c r="H87">
-        <v>5500000</v>
+        <v>6500000</v>
       </c>
       <c r="I87">
         <v>4</v>
@@ -10076,39 +10019,39 @@
         <v>29</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="O87" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="P87" t="s">
-        <v>448</v>
+        <v>324</v>
       </c>
       <c r="Q87">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="R87" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="S87" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
       <c r="T87" t="s">
         <v>36</v>
       </c>
       <c r="U87" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
     </row>
     <row r="88" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="B88" t="s">
-        <v>630</v>
+        <v>320</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="D88" t="s">
         <v>24</v>
@@ -10123,51 +10066,54 @@
         <v>27</v>
       </c>
       <c r="H88">
-        <v>6100000</v>
+        <v>6200000</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J88" t="s">
         <v>28</v>
       </c>
       <c r="K88" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
+      </c>
+      <c r="N88" t="s">
+        <v>322</v>
       </c>
       <c r="O88" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="P88" t="s">
-        <v>235</v>
+        <v>648</v>
       </c>
       <c r="Q88">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="R88" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="S88" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="T88" t="s">
         <v>36</v>
       </c>
       <c r="U88" t="s">
-        <v>635</v>
+        <v>649</v>
       </c>
     </row>
     <row r="89" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="B89" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c r="D89" t="s">
         <v>24</v>
@@ -10176,60 +10122,60 @@
         <v>25</v>
       </c>
       <c r="F89" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G89" t="s">
         <v>27</v>
       </c>
       <c r="H89">
-        <v>5749999</v>
+        <v>5900000</v>
       </c>
       <c r="I89">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J89" t="s">
         <v>28</v>
       </c>
       <c r="K89" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="N89" t="s">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="O89" t="s">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="P89" t="s">
-        <v>396</v>
+        <v>655</v>
       </c>
       <c r="Q89">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="R89" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="S89" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="T89" t="s">
         <v>36</v>
       </c>
       <c r="U89" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
     </row>
     <row r="90" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="B90" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="D90" t="s">
         <v>24</v>
@@ -10238,13 +10184,13 @@
         <v>25</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G90" t="s">
         <v>27</v>
       </c>
       <c r="H90">
-        <v>6500000</v>
+        <v>5799000</v>
       </c>
       <c r="I90">
         <v>4</v>
@@ -10258,37 +10204,40 @@
       <c r="M90" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="N90" t="s">
+        <v>662</v>
+      </c>
       <c r="O90" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="P90" t="s">
-        <v>312</v>
+        <v>162</v>
       </c>
       <c r="Q90">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="R90" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="S90" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="T90" t="s">
         <v>36</v>
       </c>
       <c r="U90" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
     </row>
     <row r="91" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="B91" t="s">
-        <v>308</v>
+        <v>668</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="D91" t="s">
         <v>24</v>
@@ -10297,13 +10246,13 @@
         <v>25</v>
       </c>
       <c r="F91" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G91" t="s">
         <v>27</v>
       </c>
       <c r="H91">
-        <v>6200000</v>
+        <v>5500000</v>
       </c>
       <c r="I91">
         <v>4</v>
@@ -10315,42 +10264,39 @@
         <v>29</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N91" t="s">
-        <v>310</v>
+        <v>62</v>
       </c>
       <c r="O91" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="P91" t="s">
-        <v>654</v>
+        <v>671</v>
       </c>
       <c r="Q91">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="R91" t="s">
-        <v>648</v>
+        <v>551</v>
       </c>
       <c r="S91" t="s">
-        <v>649</v>
+        <v>552</v>
       </c>
       <c r="T91" t="s">
         <v>36</v>
       </c>
       <c r="U91" t="s">
-        <v>655</v>
+        <v>672</v>
       </c>
     </row>
     <row r="92" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="B92" t="s">
-        <v>615</v>
+        <v>674</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>657</v>
+        <v>675</v>
       </c>
       <c r="D92" t="s">
         <v>24</v>
@@ -10359,60 +10305,57 @@
         <v>25</v>
       </c>
       <c r="F92" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
         <v>27</v>
       </c>
       <c r="H92">
-        <v>5900000</v>
+        <v>5300000</v>
       </c>
       <c r="I92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J92" t="s">
         <v>28</v>
       </c>
       <c r="K92" t="s">
-        <v>70</v>
+        <v>262</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N92" t="s">
-        <v>658</v>
+        <v>263</v>
       </c>
       <c r="O92" t="s">
-        <v>659</v>
+        <v>676</v>
       </c>
       <c r="P92" t="s">
-        <v>660</v>
+        <v>256</v>
       </c>
       <c r="Q92">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="R92" t="s">
-        <v>661</v>
+        <v>551</v>
       </c>
       <c r="S92" t="s">
-        <v>662</v>
+        <v>552</v>
       </c>
       <c r="T92" t="s">
         <v>36</v>
       </c>
       <c r="U92" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
     </row>
     <row r="93" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="B93" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="D93" t="s">
         <v>24</v>
@@ -10421,13 +10364,13 @@
         <v>25</v>
       </c>
       <c r="F93" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
         <v>27</v>
       </c>
       <c r="H93">
-        <v>5799000</v>
+        <v>6800000</v>
       </c>
       <c r="I93">
         <v>4</v>
@@ -10439,42 +10382,42 @@
         <v>29</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N93" t="s">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="O93" t="s">
-        <v>668</v>
+        <v>682</v>
       </c>
       <c r="P93" t="s">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="R93" t="s">
-        <v>669</v>
+        <v>551</v>
       </c>
       <c r="S93" t="s">
-        <v>670</v>
+        <v>552</v>
       </c>
       <c r="T93" t="s">
         <v>36</v>
       </c>
       <c r="U93" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
     </row>
     <row r="94" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="B94" t="s">
-        <v>673</v>
+        <v>349</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="D94" t="s">
         <v>24</v>
@@ -10483,13 +10426,13 @@
         <v>25</v>
       </c>
       <c r="F94" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G94" t="s">
         <v>27</v>
       </c>
       <c r="H94">
-        <v>5500000</v>
+        <v>5600000</v>
       </c>
       <c r="I94">
         <v>4</v>
@@ -10501,39 +10444,39 @@
         <v>29</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="O94" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="P94" t="s">
-        <v>676</v>
+        <v>542</v>
       </c>
       <c r="Q94">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="R94" t="s">
-        <v>544</v>
+        <v>687</v>
       </c>
       <c r="S94" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="T94" t="s">
         <v>36</v>
       </c>
       <c r="U94" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="95" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="B95" t="s">
-        <v>679</v>
+        <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="D95" t="s">
         <v>24</v>
@@ -10542,13 +10485,13 @@
         <v>25</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G95" t="s">
         <v>27</v>
       </c>
       <c r="H95">
-        <v>5300000</v>
+        <v>5900000</v>
       </c>
       <c r="I95">
         <v>4</v>
@@ -10557,42 +10500,42 @@
         <v>28</v>
       </c>
       <c r="K95" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>251</v>
+        <v>62</v>
       </c>
       <c r="O95" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="P95" t="s">
-        <v>244</v>
+        <v>692</v>
       </c>
       <c r="Q95">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="R95" t="s">
-        <v>544</v>
+        <v>693</v>
       </c>
       <c r="S95" t="s">
-        <v>545</v>
+        <v>694</v>
       </c>
       <c r="T95" t="s">
         <v>36</v>
       </c>
       <c r="U95" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="B96" t="s">
-        <v>684</v>
+        <v>427</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="D96" t="s">
         <v>24</v>
@@ -10601,60 +10544,60 @@
         <v>25</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G96" t="s">
         <v>27</v>
       </c>
       <c r="H96">
-        <v>6800000</v>
+        <v>4950000</v>
       </c>
       <c r="I96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
         <v>28</v>
       </c>
       <c r="K96" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="N96" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="O96" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="P96" t="s">
-        <v>229</v>
+        <v>692</v>
       </c>
       <c r="Q96">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="R96" t="s">
-        <v>544</v>
+        <v>700</v>
       </c>
       <c r="S96" t="s">
-        <v>545</v>
+        <v>701</v>
       </c>
       <c r="T96" t="s">
         <v>36</v>
       </c>
       <c r="U96" t="s">
-        <v>688</v>
+        <v>702</v>
       </c>
     </row>
     <row r="97" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>689</v>
+        <v>703</v>
       </c>
       <c r="B97" t="s">
-        <v>338</v>
+        <v>229</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="D97" t="s">
         <v>24</v>
@@ -10663,13 +10606,13 @@
         <v>25</v>
       </c>
       <c r="F97" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G97" t="s">
         <v>27</v>
       </c>
       <c r="H97">
-        <v>5600000</v>
+        <v>5650000</v>
       </c>
       <c r="I97">
         <v>4</v>
@@ -10683,37 +10626,40 @@
       <c r="M97" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="N97" t="s">
+        <v>231</v>
+      </c>
       <c r="O97" t="s">
-        <v>691</v>
+        <v>705</v>
       </c>
       <c r="P97" t="s">
-        <v>535</v>
+        <v>94</v>
       </c>
       <c r="Q97">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="R97" t="s">
-        <v>692</v>
+        <v>706</v>
       </c>
       <c r="S97" t="s">
-        <v>545</v>
+        <v>701</v>
       </c>
       <c r="T97" t="s">
         <v>36</v>
       </c>
       <c r="U97" t="s">
-        <v>693</v>
+        <v>707</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>694</v>
+        <v>708</v>
       </c>
       <c r="B98" t="s">
-        <v>520</v>
+        <v>709</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="D98" t="s">
         <v>24</v>
@@ -10722,57 +10668,60 @@
         <v>25</v>
       </c>
       <c r="F98" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G98" t="s">
         <v>27</v>
       </c>
       <c r="H98">
-        <v>5900000</v>
+        <v>6300000</v>
       </c>
       <c r="I98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J98" t="s">
         <v>28</v>
       </c>
       <c r="K98" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>30</v>
+        <v>711</v>
+      </c>
+      <c r="N98" t="s">
+        <v>712</v>
       </c>
       <c r="O98" t="s">
-        <v>696</v>
+        <v>713</v>
       </c>
       <c r="P98" t="s">
-        <v>697</v>
+        <v>395</v>
       </c>
       <c r="Q98">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R98" t="s">
-        <v>698</v>
+        <v>714</v>
       </c>
       <c r="S98" t="s">
-        <v>699</v>
+        <v>715</v>
       </c>
       <c r="T98" t="s">
         <v>36</v>
       </c>
       <c r="U98" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
     </row>
     <row r="99" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
       <c r="B99" t="s">
-        <v>416</v>
+        <v>617</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="D99" t="s">
         <v>24</v>
@@ -10781,60 +10730,60 @@
         <v>25</v>
       </c>
       <c r="F99" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G99" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="H99">
-        <v>4950000</v>
+        <v>5500000</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J99" t="s">
         <v>28</v>
       </c>
       <c r="K99" t="s">
-        <v>51</v>
+        <v>262</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="N99" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
       <c r="O99" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="P99" t="s">
-        <v>697</v>
+        <v>104</v>
       </c>
       <c r="Q99">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R99" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="S99" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="T99" t="s">
         <v>36</v>
       </c>
       <c r="U99" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
     </row>
     <row r="100" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="B100" t="s">
-        <v>219</v>
+        <v>725</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="D100" t="s">
         <v>24</v>
@@ -10843,60 +10792,60 @@
         <v>25</v>
       </c>
       <c r="F100" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
         <v>27</v>
       </c>
       <c r="H100">
-        <v>5650000</v>
+        <v>6000000</v>
       </c>
       <c r="I100">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J100" t="s">
         <v>28</v>
       </c>
       <c r="K100" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="N100" t="s">
-        <v>221</v>
+        <v>727</v>
       </c>
       <c r="O100" t="s">
-        <v>710</v>
+        <v>728</v>
       </c>
       <c r="P100" t="s">
-        <v>320</v>
+        <v>729</v>
       </c>
       <c r="Q100">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="R100" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
       <c r="S100" t="s">
-        <v>706</v>
+        <v>731</v>
       </c>
       <c r="T100" t="s">
         <v>36</v>
       </c>
       <c r="U100" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>713</v>
+        <v>733</v>
       </c>
       <c r="B101" t="s">
-        <v>350</v>
+        <v>734</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
       <c r="D101" t="s">
         <v>24</v>
@@ -10905,60 +10854,60 @@
         <v>25</v>
       </c>
       <c r="F101" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
         <v>27</v>
       </c>
       <c r="H101">
-        <v>6200000</v>
+        <v>7200000</v>
       </c>
       <c r="I101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J101" t="s">
         <v>28</v>
       </c>
       <c r="K101" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="N101" t="s">
-        <v>352</v>
+        <v>736</v>
       </c>
       <c r="O101" t="s">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="P101" t="s">
-        <v>320</v>
+        <v>738</v>
       </c>
       <c r="Q101">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="R101" t="s">
-        <v>711</v>
+        <v>551</v>
       </c>
       <c r="S101" t="s">
-        <v>706</v>
+        <v>552</v>
       </c>
       <c r="T101" t="s">
         <v>36</v>
       </c>
       <c r="U101" t="s">
-        <v>716</v>
+        <v>739</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>717</v>
+        <v>740</v>
       </c>
       <c r="B102" t="s">
-        <v>718</v>
+        <v>741</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>719</v>
+        <v>742</v>
       </c>
       <c r="D102" t="s">
         <v>24</v>
@@ -10967,60 +10916,60 @@
         <v>25</v>
       </c>
       <c r="F102" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G102" t="s">
         <v>27</v>
       </c>
       <c r="H102">
-        <v>6300000</v>
+        <v>6000000</v>
       </c>
       <c r="I102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J102" t="s">
         <v>28</v>
       </c>
       <c r="K102" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="N102" t="s">
-        <v>720</v>
+        <v>743</v>
       </c>
       <c r="O102" t="s">
-        <v>721</v>
+        <v>744</v>
       </c>
       <c r="P102" t="s">
-        <v>379</v>
+        <v>745</v>
       </c>
       <c r="Q102">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="R102" t="s">
-        <v>722</v>
+        <v>746</v>
       </c>
       <c r="S102" t="s">
-        <v>723</v>
+        <v>747</v>
       </c>
       <c r="T102" t="s">
         <v>36</v>
       </c>
       <c r="U102" t="s">
-        <v>724</v>
+        <v>748</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>725</v>
+        <v>749</v>
       </c>
       <c r="B103" t="s">
-        <v>726</v>
+        <v>750</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>727</v>
+        <v>751</v>
       </c>
       <c r="D103" t="s">
         <v>24</v>
@@ -11029,7 +10978,7 @@
         <v>25</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G103" t="s">
         <v>27</v>
@@ -11038,51 +10987,51 @@
         <v>6000000</v>
       </c>
       <c r="I103">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J103" t="s">
         <v>28</v>
       </c>
       <c r="K103" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="N103" t="s">
-        <v>728</v>
+        <v>752</v>
       </c>
       <c r="O103" t="s">
-        <v>729</v>
+        <v>331</v>
       </c>
       <c r="P103" t="s">
-        <v>730</v>
+        <v>55</v>
       </c>
       <c r="Q103">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="R103" t="s">
-        <v>731</v>
+        <v>753</v>
       </c>
       <c r="S103" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="T103" t="s">
         <v>36</v>
       </c>
       <c r="U103" t="s">
-        <v>733</v>
+        <v>754</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>734</v>
+        <v>755</v>
       </c>
       <c r="B104" t="s">
-        <v>735</v>
+        <v>427</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>736</v>
+        <v>756</v>
       </c>
       <c r="D104" t="s">
         <v>24</v>
@@ -11091,60 +11040,60 @@
         <v>25</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G104" t="s">
         <v>27</v>
       </c>
       <c r="H104">
-        <v>7200000</v>
+        <v>4950000</v>
       </c>
       <c r="I104">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
         <v>28</v>
       </c>
       <c r="K104" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="N104" t="s">
-        <v>737</v>
+        <v>757</v>
       </c>
       <c r="O104" t="s">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="P104" t="s">
-        <v>739</v>
+        <v>648</v>
       </c>
       <c r="Q104">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="R104" t="s">
-        <v>544</v>
+        <v>759</v>
       </c>
       <c r="S104" t="s">
-        <v>545</v>
+        <v>747</v>
       </c>
       <c r="T104" t="s">
         <v>36</v>
       </c>
       <c r="U104" t="s">
-        <v>740</v>
+        <v>760</v>
       </c>
     </row>
     <row r="105" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>741</v>
+        <v>761</v>
       </c>
       <c r="B105" t="s">
-        <v>505</v>
+        <v>617</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>742</v>
+        <v>762</v>
       </c>
       <c r="D105" t="s">
         <v>24</v>
@@ -11153,13 +11102,13 @@
         <v>25</v>
       </c>
       <c r="F105" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G105" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="H105">
-        <v>5200000</v>
+        <v>5600000</v>
       </c>
       <c r="I105">
         <v>4</v>
@@ -11168,45 +11117,42 @@
         <v>28</v>
       </c>
       <c r="K105" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="N105" t="s">
-        <v>743</v>
+        <v>263</v>
       </c>
       <c r="O105" t="s">
-        <v>744</v>
+        <v>763</v>
       </c>
       <c r="P105" t="s">
-        <v>745</v>
+        <v>256</v>
       </c>
       <c r="Q105">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="R105" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
       <c r="S105" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
       <c r="T105" t="s">
         <v>36</v>
       </c>
       <c r="U105" t="s">
-        <v>748</v>
+        <v>766</v>
       </c>
     </row>
     <row r="106" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="B106" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>751</v>
+        <v>769</v>
       </c>
       <c r="D106" t="s">
         <v>24</v>
@@ -11215,13 +11161,13 @@
         <v>25</v>
       </c>
       <c r="F106" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G106" t="s">
         <v>27</v>
       </c>
       <c r="H106">
-        <v>6000000</v>
+        <v>6200000</v>
       </c>
       <c r="I106">
         <v>4</v>
@@ -11236,39 +11182,39 @@
         <v>30</v>
       </c>
       <c r="N106" t="s">
-        <v>752</v>
+        <v>770</v>
       </c>
       <c r="O106" t="s">
-        <v>753</v>
+        <v>771</v>
       </c>
       <c r="P106" t="s">
-        <v>754</v>
+        <v>772</v>
       </c>
       <c r="Q106">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="R106" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="S106" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
       <c r="T106" t="s">
         <v>36</v>
       </c>
       <c r="U106" t="s">
-        <v>757</v>
+        <v>775</v>
       </c>
     </row>
     <row r="107" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>758</v>
+        <v>776</v>
       </c>
       <c r="B107" t="s">
-        <v>759</v>
+        <v>472</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
       <c r="D107" t="s">
         <v>24</v>
@@ -11277,60 +11223,57 @@
         <v>25</v>
       </c>
       <c r="F107" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G107" t="s">
         <v>27</v>
       </c>
       <c r="H107">
-        <v>6000000</v>
+        <v>6700000</v>
       </c>
       <c r="I107">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J107" t="s">
         <v>28</v>
       </c>
       <c r="K107" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N107" t="s">
-        <v>761</v>
+        <v>73</v>
       </c>
       <c r="O107" t="s">
-        <v>319</v>
+        <v>778</v>
       </c>
       <c r="P107" t="s">
-        <v>54</v>
+        <v>779</v>
       </c>
       <c r="Q107">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="R107" t="s">
-        <v>762</v>
+        <v>780</v>
       </c>
       <c r="S107" t="s">
-        <v>756</v>
+        <v>781</v>
       </c>
       <c r="T107" t="s">
         <v>36</v>
       </c>
       <c r="U107" t="s">
-        <v>763</v>
+        <v>782</v>
       </c>
     </row>
     <row r="108" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>764</v>
+        <v>783</v>
       </c>
       <c r="B108" t="s">
-        <v>416</v>
+        <v>784</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D108" t="s">
         <v>24</v>
@@ -11339,60 +11282,60 @@
         <v>25</v>
       </c>
       <c r="F108" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G108" t="s">
         <v>27</v>
       </c>
       <c r="H108">
-        <v>4950000</v>
+        <v>6600000</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J108" t="s">
         <v>28</v>
       </c>
       <c r="K108" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="N108" t="s">
-        <v>766</v>
+        <v>786</v>
       </c>
       <c r="O108" t="s">
-        <v>767</v>
+        <v>787</v>
       </c>
       <c r="P108" t="s">
-        <v>654</v>
+        <v>788</v>
       </c>
       <c r="Q108">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="R108" t="s">
-        <v>768</v>
+        <v>789</v>
       </c>
       <c r="S108" t="s">
-        <v>756</v>
+        <v>790</v>
       </c>
       <c r="T108" t="s">
         <v>36</v>
       </c>
       <c r="U108" t="s">
-        <v>769</v>
+        <v>791</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>770</v>
+        <v>792</v>
       </c>
       <c r="B109" t="s">
-        <v>624</v>
+        <v>793</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>771</v>
+        <v>794</v>
       </c>
       <c r="D109" t="s">
         <v>24</v>
@@ -11401,480 +11344,299 @@
         <v>25</v>
       </c>
       <c r="F109" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="H109">
-        <v>5600000</v>
+        <v>6100000</v>
       </c>
       <c r="I109">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J109" t="s">
         <v>28</v>
       </c>
       <c r="K109" t="s">
-        <v>250</v>
+        <v>72</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>251</v>
+        <v>73</v>
+      </c>
+      <c r="N109" t="s">
+        <v>795</v>
       </c>
       <c r="O109" t="s">
-        <v>772</v>
+        <v>796</v>
       </c>
       <c r="P109" t="s">
-        <v>244</v>
+        <v>797</v>
       </c>
       <c r="Q109">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="R109" t="s">
-        <v>773</v>
+        <v>798</v>
       </c>
       <c r="S109" t="s">
-        <v>774</v>
+        <v>799</v>
       </c>
       <c r="T109" t="s">
         <v>36</v>
       </c>
       <c r="U109" t="s">
-        <v>775</v>
+        <v>800</v>
       </c>
     </row>
     <row r="110" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="B110" t="s">
-        <v>777</v>
+      <c r="A110" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="D110" t="s">
+        <v>802</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F110" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="F110" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G110" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H110">
-        <v>6200000</v>
-      </c>
-      <c r="I110">
+      <c r="H110" s="3">
+        <v>5500000</v>
+      </c>
+      <c r="I110" s="3">
         <v>4</v>
       </c>
-      <c r="J110" t="s">
+      <c r="J110" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K110" t="s">
+      <c r="K110" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M110" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N110" t="s">
-        <v>779</v>
-      </c>
-      <c r="O110" t="s">
-        <v>780</v>
-      </c>
-      <c r="P110" t="s">
-        <v>781</v>
-      </c>
-      <c r="Q110">
-        <v>116</v>
-      </c>
-      <c r="R110" t="s">
-        <v>782</v>
-      </c>
-      <c r="S110" t="s">
-        <v>783</v>
-      </c>
-      <c r="T110" t="s">
+      <c r="L110" s="3"/>
+      <c r="M110" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="P110" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="Q110" s="3">
+        <v>87</v>
+      </c>
+      <c r="R110" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="S110" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="T110" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="U110" t="s">
-        <v>784</v>
+      <c r="U110" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="B111" t="s">
-        <v>461</v>
+      <c r="A111" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>588</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="D111" t="s">
+        <v>807</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F111" t="s">
-        <v>50</v>
-      </c>
-      <c r="G111" t="s">
+      <c r="F111" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G111" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H111">
-        <v>6700000</v>
-      </c>
-      <c r="I111">
-        <v>5</v>
-      </c>
-      <c r="J111" t="s">
+      <c r="H111" s="3">
+        <v>5200000</v>
+      </c>
+      <c r="I111" s="3">
+        <v>3</v>
+      </c>
+      <c r="J111" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K111" t="s">
-        <v>70</v>
-      </c>
+      <c r="K111" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L111" s="3"/>
       <c r="M111" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O111" t="s">
-        <v>787</v>
-      </c>
-      <c r="P111" t="s">
-        <v>788</v>
-      </c>
-      <c r="Q111">
-        <v>60</v>
-      </c>
-      <c r="R111" t="s">
-        <v>789</v>
-      </c>
-      <c r="S111" t="s">
-        <v>790</v>
-      </c>
-      <c r="T111" t="s">
+        <v>43</v>
+      </c>
+      <c r="N111" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="O111" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="P111" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q111" s="3">
+        <v>16</v>
+      </c>
+      <c r="R111" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="S111" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="T111" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="U111" t="s">
-        <v>791</v>
+      <c r="U111" s="3" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="112" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="B112" t="s">
-        <v>793</v>
+      <c r="A112" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="D112" t="s">
+        <v>812</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F112" t="s">
-        <v>50</v>
-      </c>
-      <c r="G112" t="s">
+      <c r="F112" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G112" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H112">
-        <v>6600000</v>
-      </c>
-      <c r="I112">
-        <v>5</v>
-      </c>
-      <c r="J112" t="s">
+      <c r="H112" s="3">
+        <v>6200000</v>
+      </c>
+      <c r="I112" s="3">
+        <v>4</v>
+      </c>
+      <c r="J112" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K112" t="s">
-        <v>70</v>
-      </c>
+      <c r="K112" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L112" s="3"/>
       <c r="M112" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N112" t="s">
-        <v>795</v>
-      </c>
-      <c r="O112" t="s">
-        <v>796</v>
-      </c>
-      <c r="P112" t="s">
-        <v>797</v>
-      </c>
-      <c r="Q112">
-        <v>114</v>
-      </c>
-      <c r="R112" t="s">
-        <v>798</v>
-      </c>
-      <c r="S112" t="s">
-        <v>799</v>
-      </c>
-      <c r="T112" t="s">
+        <v>30</v>
+      </c>
+      <c r="N112" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="O112" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="P112" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q112" s="3">
+        <v>17</v>
+      </c>
+      <c r="R112" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="S112" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="T112" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="U112" t="s">
-        <v>800</v>
+      <c r="U112" s="3" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="113" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="B113" t="s">
-        <v>802</v>
+      <c r="A113" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="D113" t="s">
+        <v>816</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F113" t="s">
-        <v>41</v>
-      </c>
-      <c r="G113" t="s">
+      <c r="F113" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G113" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H113">
-        <v>6100000</v>
-      </c>
-      <c r="I113">
+      <c r="H113" s="3">
+        <v>6200000</v>
+      </c>
+      <c r="I113" s="3">
+        <v>4</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N113" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="O113" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="P113" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q113" s="3">
         <v>5</v>
       </c>
-      <c r="J113" t="s">
-        <v>28</v>
-      </c>
-      <c r="K113" t="s">
-        <v>70</v>
-      </c>
-      <c r="M113" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N113" t="s">
-        <v>804</v>
-      </c>
-      <c r="O113" t="s">
-        <v>805</v>
-      </c>
-      <c r="P113" t="s">
-        <v>806</v>
-      </c>
-      <c r="Q113">
-        <v>211</v>
-      </c>
-      <c r="R113" t="s">
-        <v>807</v>
-      </c>
-      <c r="S113" t="s">
-        <v>808</v>
-      </c>
-      <c r="T113" t="s">
+      <c r="R113" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="S113" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="T113" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="U113" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H114" s="3">
-        <v>5800000</v>
-      </c>
-      <c r="I114" s="3">
-        <v>4</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L114" s="3"/>
-      <c r="M114" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N114" s="5" t="s">
-        <v>812</v>
-      </c>
-      <c r="O114" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="P114" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q114" s="3">
-        <v>4</v>
-      </c>
-      <c r="R114" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="S114" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="T114" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U114" s="3" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="B115" s="3" t="s">
+      <c r="U113" s="3" t="s">
         <v>818</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H115" s="3">
-        <v>5800000</v>
-      </c>
-      <c r="I115" s="3">
-        <v>3</v>
-      </c>
-      <c r="J115" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K115" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L115" s="3"/>
-      <c r="M115" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N115" s="5" t="s">
-        <v>820</v>
-      </c>
-      <c r="O115" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="P115" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="Q115" s="3">
-        <v>0</v>
-      </c>
-      <c r="R115" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="S115" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="T115" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U115" s="3" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
-        <v>826</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H116" s="3">
-        <v>5500000</v>
-      </c>
-      <c r="I116" s="3">
-        <v>4</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K116" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="L116" s="3"/>
-      <c r="M116" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="N116" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="O116" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="P116" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="Q116" s="3">
-        <v>0</v>
-      </c>
-      <c r="R116" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="S116" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="T116" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U116" s="3" t="s">
-        <v>832</v>
       </c>
     </row>
   </sheetData>
@@ -11991,9 +11753,6 @@
     <hyperlink ref="C111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
     <hyperlink ref="C112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="C113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="C114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="C115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="C116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/Listings/Maple_listings.xlsx
+++ b/Data/Listings/Maple_listings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/levan/Documents/MegaValuationer/Data/Listings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1540406D-5256-674B-BFD6-2581C6EB26EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9124DA8B-42D0-2F40-A0A3-4C49B9831FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="832">
   <si>
     <t>Reference Number</t>
   </si>
@@ -556,19 +556,19 @@
 </t>
   </si>
   <si>
-    <t>ADM252937</t>
+    <t>ADM251847</t>
   </si>
   <si>
     <t>6925793231</t>
   </si>
   <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14465616.html</t>
-  </si>
-  <si>
-    <t>Exclusive | 4 Bedroom | Greenbelt | Prime Location</t>
-  </si>
-  <si>
-    <t>2025-06-10</t>
+    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-13954514.html</t>
+  </si>
+  <si>
+    <t>Exclusive | 4 Bedroom | Greenbelt  | No Agents</t>
+  </si>
+  <si>
+    <t>2025-04-09</t>
   </si>
   <si>
     <t>Reece Wallace</t>
@@ -588,6 +588,18 @@
 Please call for more information, to arrange a viewing or to make an offer.
 Finance is available on this property through haus &amp;amp; haus partners.
 For further details, please drop into our flagship office at the Gold &amp;amp; Diamond Park - or browse the incredible selection of properties we maintain at the haus &amp;amp; haus website. Our specialist brokers will be happy to answer any industry related query you have.</t>
+  </si>
+  <si>
+    <t>ADM252937</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14465616.html</t>
+  </si>
+  <si>
+    <t>Exclusive | 4 Bedroom | Greenbelt | Prime Location</t>
+  </si>
+  <si>
+    <t>2025-06-10</t>
   </si>
   <si>
     <t>ADM253248</t>
@@ -661,49 +673,6 @@
 - Access to communal amenities: gym, spa, children’s play area, and barbecue area
 This standout townhouse offers a perfect blend of spacious living and refined style, ideal for families or investors. Enjoy the tranquility of a private garden while being just moments from Dubai’s vibrant lifestyle.
 Dubai Hills Estate redefines community living with its lush landscapes and proximity to key attractions. To discover more about this exceptional opportunity, reach out to Audley&amp;#39;s International Real Estate to schedule a viewing today.</t>
-  </si>
-  <si>
-    <t>Arta_Properties_0407001</t>
-  </si>
-  <si>
-    <t>6925793885</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14665072.html</t>
-  </si>
-  <si>
-    <t>2171</t>
-  </si>
-  <si>
-    <t>Modern 3BR Villa | Spacious | Natural Light</t>
-  </si>
-  <si>
-    <t>.Niloofar. Moghatder</t>
-  </si>
-  <si>
-    <t>Arta Properties LLC</t>
-  </si>
-  <si>
-    <t>Property Details:
-- 3 Bedrooms
-- 4 Toilet
-- Built-In Wardrobes
-- Balcony
-- Area Sqft. - 2,171.08
-- Well-maintained
-Amenities and Features:
-- Shared Swimming Pool
-- Shared Gym
-- Kid&amp;#39;s Play area
-- Clubhouse
-- Dubai Hills Shopping Mall
-- Near the Tennis court
-- Near the Park
-Arta Properties L.L.C is delighted to present this 3-bedroom villa for sale in the popular Maple 1 community within Dubai Hills Estate. This sought-after development features a wide variety of villas, townhouses, and apartments, all situated close to some of Dubai’s top attractions and essential amenities. Conveniently located, the community offers easy access to the city&amp;#39;s main destinations.
-Dubai Hills Estate is thoughtfully master-planned around an impressive 18-hole championship golf course, creating a distinctive and upscale living environment. Maple townhouses are surrounded by green landscapes and linked through a network of shaded walkways, jogging and cycling tracks, fitness zones, and playgrounds—ideal for family living.
-The lush surroundings not only enhance wellness and outdoor activity but also encourage social interaction, all while being close to community facilities.
-Situated just off Al Marabea&amp;#39; Street, between Sheikh Mohammed bin Zayed Road and Al Khail Road, Maple enjoys excellent connectivity to Downtown Dubai, Dubai International Airport, and various leisure hubs across the city.
-The community offers convenient access to cafes, restaurants, and mosques. It is bordered by educational institutions, daycare centers, and essential services such as a private hospital, police station, and civil defense. With Dubai Hills Park just around the corner, everything you need is right within reach in this safe and family-friendly neighborhood.</t>
   </si>
   <si>
     <t>BAA-S-4981</t>
@@ -1086,6 +1055,45 @@
   * Dubai Hills Estate</t>
   </si>
   <si>
+    <t>DUB191452</t>
+  </si>
+  <si>
+    <t>6925793540</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14539808.html</t>
+  </si>
+  <si>
+    <t>2092</t>
+  </si>
+  <si>
+    <t>Green Belt Backing | Opposite Pool | 3 Bed</t>
+  </si>
+  <si>
+    <t>Oliver Gutteridge</t>
+  </si>
+  <si>
+    <t>Allsopp &amp; Allsopp - Motor City Sales</t>
+  </si>
+  <si>
+    <t>Green Belt Backing | Opposite Pool | 3 Bed
+-Type 2M
+-Maids Room
+-Green Belt
+-Close To Pool
+-Park Close By
+-2,228 Sq.Ft BUA
+-2,092 Sq.Ft PLOT
+-Excellent Condition
+-Fantastic Amenities
+-Community Pool And Gym
+-Community Park And Kids Play Area
+-2 Parking 
+Oliver and Allsopp &amp;amp; Allsopp Real Estate are proud to offer this beautiful villa in Maple, Dubai Hills Estate.
+The community includes an impressive 18 hole championship golf course, the iconic Dubai Hills park. Enjoy the shopping experience at Dubai Hills Mall and ensure access to quality education with nearby schools. Navigate the community seamlessly with a dedicated bicycle route, and experience world-class golfing at the renowned Dubai Hills Golf Club. Being a 15 minute drive from Downtown, Dubai Marina and around 20 minutes from the airport, what other area would you want to be in!?
+Please call Oliver Gutteridge today for more information or to arrange a viewing. Allsopp &amp;amp; Allsopp accept no liability for any incorrect details.</t>
+  </si>
+  <si>
     <t>DUB211615</t>
   </si>
   <si>
@@ -1102,12 +1110,6 @@
   </si>
   <si>
     <t>2025-06-09</t>
-  </si>
-  <si>
-    <t>Oliver Gutteridge</t>
-  </si>
-  <si>
-    <t>Allsopp &amp; Allsopp - Motor City Sales</t>
   </si>
   <si>
     <t>New to Market | Vacant on Transfer | Type 2E
@@ -1779,6 +1781,9 @@
     <t>2025-05-17</t>
   </si>
   <si>
+    <t>Adam Boaks</t>
+  </si>
+  <si>
     <t>Strada are proud to bring to market this 4 bedroom + maids Townhouse in Maple 3, Dubai Hills Estate.
 The property features an open living area, a contemporary kitchen and four well appointed bedrooms along with a maids room.
 Property details are as follows:
@@ -2068,6 +2073,37 @@
 Oliver and Allsopp &amp;amp; Allsopp Real Estate are proud to offer this beautiful villa in Maple, Dubai Hills Estate.
 The community includes an impressive 18 hole championship golf course, the iconic Dubai Hills park. Enjoy the shopping experience at Dubai Hills Mall and ensure access to quality education with nearby schools. Navigate the community seamlessly with a dedicated bicycle route, and experience world-class golfing at the renowned Dubai Hills Golf Club. Being a 15 minute drive from Downtown, Dubai Marina and around 20 minutes from the airport, what other area would you want to be in!?
 Please call Oliver Gutteridge today for more information or to arrange a viewing. Allsopp &amp;amp; Allsopp accept no liability for any incorrect details.</t>
+  </si>
+  <si>
+    <t>L-175274</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14526645.html</t>
+  </si>
+  <si>
+    <t>Single Row | Upgraded | Landscaped | 2E</t>
+  </si>
+  <si>
+    <t>2025-06-18</t>
+  </si>
+  <si>
+    <t>Single Row | Upgraded | Landscaped | 2E
+-Type 2E
+-Maids Room
+-Upgraded
+-Single Row
+-Vacant
+-2,462 Sq.Ft BUA
+-3,065 Sq.Ft PLOT
+-Landscaped
+-Excellent Condition
+-Fantastic Amenities
+-Community Pool And Gym
+-Community Park And Kids Play Area
+-2 Parking
+Oliver and Allsopp &amp;amp; Allsopp Real Estate are proud to offer this beautiful villa in Maple, Dubai Hills Estate.
+The community includes an impressive 18 hole championship golf course, the iconic Dubai Hills park. Enjoy the shopping experience at Dubai Hills Mall and ensure access to quality education with nearby schools. Navigate the community seamlessly with a dedicated bicycle route, and experience world-class golfing at the renowned Dubai Hills Golf Club. Being a 15 minute drive from Downtown, Dubai Marina and around 20 minutes from the airport, what other area would you want to be in!?
+Please call Oliver Gutteridge today for more information or to arrange a viewing. Allsopp &amp;amp; Allsopp accept no liability for any incorrect details.</t>
   </si>
   <si>
     <t>L-185399</t>
@@ -2752,9 +2788,6 @@
   </si>
   <si>
     <t>Single Row | Spacious | Upgraded Garden</t>
-  </si>
-  <si>
-    <t>2025-06-18</t>
   </si>
   <si>
     <t>Sarah Ahmed Mohamed Ahmed Wanas</t>
@@ -3118,9 +3151,6 @@
   </si>
   <si>
     <t>RL-142608</t>
-  </si>
-  <si>
-    <t>6925793540</t>
   </si>
   <si>
     <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14548709.html</t>
@@ -3683,53 +3713,19 @@
 Discover the perfect blend of luxury and practicality. For more details or to schedule a viewing, please contact Phoenix Homes Real Estate. Your future home awaits!</t>
   </si>
   <si>
-    <t>TH20754</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14589949.html</t>
-  </si>
-  <si>
-    <t>Corner Type 2E | Vacant End of June | Single Row</t>
+    <t>TH739156-3</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14585387.html</t>
+  </si>
+  <si>
+    <t>2180</t>
+  </si>
+  <si>
+    <t>Vacant Now | 3 Bedrooms | View Today</t>
   </si>
   <si>
     <t>2025-06-25</t>
-  </si>
-  <si>
-    <t>Shams Taie</t>
-  </si>
-  <si>
-    <t>Harbor Real Estate</t>
-  </si>
-  <si>
-    <t>Harbor Real Estate, the only agency to receive a gold ranking for 7 consecutive years from Dubai Land Department, is delighted to offer you this upgraded 4-bedroom Type 2E villa in the highly desirable Maple, Dubai Hills Estate — a perfect family home offering comfort, privacy, and a prime location.
-Property Highlights:
-Upgraded flooring throughout
-4 Bedrooms + Maid’s Room
-Vacant by end of June 2025
-Bright, open-plan living &amp;amp; dining area
-Modern semi-closed kitchen
-Well-sized landscaped garden
-Community &amp;amp; Villa Amenities:
-Upgraded interiors with premium flooring
-Landscaped private garden
-Maid’s room with en-suite
-Covered parking for 2 vehicles
-Bright open-plan living &amp;amp; dining space
-Modern semi-closed kitchen
-Located within walking distance to parks, walking trails, and community pools, this villa offers the perfect balance between peaceful living and convenience, with Dubai Hills Mall and top schools just minutes away.
- Contact Harbor Real Estate today for more details or to schedule your exclusive viewing!</t>
-  </si>
-  <si>
-    <t>TH739156-3</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14585387.html</t>
-  </si>
-  <si>
-    <t>2180</t>
-  </si>
-  <si>
-    <t>Vacant Now | 3 Bedrooms | View Today</t>
   </si>
   <si>
     <t>Divine Johannis</t>
@@ -3781,6 +3777,35 @@
 This spacious 4 bedroom villa in Maple community sits on a large plot and boasts a spacious private garden. The downstairs of the property offers an open space living and dining area with floor to ceiling windows, bi-opening up to the garden area.
 Maple 3 at Dubai Hills Estate is a gated sub-community of Dubai Hills Estate and is located to the south of the development close to Umm Suqeim Street (D63).
 Call Jon to arrange a viewing today !</t>
+  </si>
+  <si>
+    <t>TH742457-2</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14618795.html</t>
+  </si>
+  <si>
+    <t>New to Market | Upgraded | Vacant On Transfer</t>
+  </si>
+  <si>
+    <t>Jon at Betterhomes are proud to bring to market this 4 bedroom + maids Townhouse in Maple 2, Dubai Hills Estate.
+The property features an open living area, a contemporary kitchen and four well appointed bedrooms along with a big maids room.
+Property details are as follows:
+- Type 2E / corner unit
+- 4 Bedroom
+- 4 Bathroom
+- Corner unit
+- True corner
+-Extended
+- Backing the beautifully landscaped Green belt
+- Built up area size 2462 sq.ft
+- Plot size 3263.51 sq.ft
+- Immaculate throughout 
+- Spacious living and dining area
+- Close to swimming pool &amp;amp; Gym
+- Vacant on transfer 
+One of very few corner units which back the Green belt. Call Jon to arrange a viewing today.
+*Generic images used whilst we wait for photography*</t>
   </si>
   <si>
     <t>TH7607-2</t>
@@ -4247,106 +4272,113 @@
 The Dubai Hills Estate Golf Club provides a picturesque backdrop for golf enthusiasts to refine their skills.</t>
   </si>
   <si>
-    <t>ADM251847</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-13954514.html</t>
-  </si>
-  <si>
-    <t>3106</t>
-  </si>
-  <si>
-    <t>Exclusive | 4 Bedroom | Greenbelt  | No Agents</t>
-  </si>
-  <si>
-    <t>2025-04-09</t>
-  </si>
-  <si>
-    <t>DUB191452</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14539808.html</t>
-  </si>
-  <si>
-    <t>2092</t>
-  </si>
-  <si>
-    <t>Green Belt Backing | Opposite Pool | 3 Bed</t>
-  </si>
-  <si>
-    <t>Green Belt Backing | Opposite Pool | 3 Bed
--Type 2M
--Maids Room
--Green Belt
--Close To Pool
--Park Close By
--2,228 Sq.Ft BUA
--2,092 Sq.Ft PLOT
--Excellent Condition
--Fantastic Amenities
--Community Pool And Gym
--Community Park And Kids Play Area
--2 Parking 
-Oliver and Allsopp &amp;amp; Allsopp Real Estate are proud to offer this beautiful villa in Maple, Dubai Hills Estate.
-The community includes an impressive 18 hole championship golf course, the iconic Dubai Hills park. Enjoy the shopping experience at Dubai Hills Mall and ensure access to quality education with nearby schools. Navigate the community seamlessly with a dedicated bicycle route, and experience world-class golfing at the renowned Dubai Hills Golf Club. Being a 15 minute drive from Downtown, Dubai Marina and around 20 minutes from the airport, what other area would you want to be in!?
-Please call Oliver Gutteridge today for more information or to arrange a viewing. Allsopp &amp;amp; Allsopp accept no liability for any incorrect details.</t>
-  </si>
-  <si>
-    <t>L-175274</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14526645.html</t>
-  </si>
-  <si>
-    <t>Single Row | Upgraded | Landscaped | 2E</t>
-  </si>
-  <si>
-    <t>Single Row | Upgraded | Landscaped | 2E
--Type 2E
--Maids Room
--Upgraded
--Single Row
--Vacant
--2,462 Sq.Ft BUA
--3,065 Sq.Ft PLOT
--Landscaped
--Excellent Condition
--Fantastic Amenities
--Community Pool And Gym
--Community Park And Kids Play Area
--2 Parking
-Oliver and Allsopp &amp;amp; Allsopp Real Estate are proud to offer this beautiful villa in Maple, Dubai Hills Estate.
-The community includes an impressive 18 hole championship golf course, the iconic Dubai Hills park. Enjoy the shopping experience at Dubai Hills Mall and ensure access to quality education with nearby schools. Navigate the community seamlessly with a dedicated bicycle route, and experience world-class golfing at the renowned Dubai Hills Golf Club. Being a 15 minute drive from Downtown, Dubai Marina and around 20 minutes from the airport, what other area would you want to be in!?
-Please call Oliver Gutteridge today for more information or to arrange a viewing. Allsopp &amp;amp; Allsopp accept no liability for any incorrect details.</t>
-  </si>
-  <si>
-    <t>TH742457-2</t>
-  </si>
-  <si>
-    <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14618795.html</t>
-  </si>
-  <si>
-    <t>New to Market | Upgraded | Vacant On Transfer</t>
-  </si>
-  <si>
-    <t>Jon at Betterhomes are proud to bring to market this 4 bedroom + maids Townhouse in Maple 2, Dubai Hills Estate.
-The property features an open living area, a contemporary kitchen and four well appointed bedrooms along with a big maids room.
-Property details are as follows:
-- Type 2E / corner unit
-- 4 Bedroom
-- 4 Bathroom
-- Corner unit
-- True corner
--Extended
-- Backing the beautifully landscaped Green belt
-- Built up area size 2462 sq.ft
-- Plot size 3263.51 sq.ft
-- Immaculate throughout 
-- Spacious living and dining area
-- Close to swimming pool &amp;amp; Gym
-- Vacant on transfer 
-One of very few corner units which back the Green belt. Call Jon to arrange a viewing today.
-*Generic images used whilst we wait for photography*</t>
+    <t>Arbat-Sale-052025-MPL1</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14414840.html</t>
+  </si>
+  <si>
+    <t>SEMI FURNISHED TOWNHOUSE | FAMILY FRIENDLY</t>
+  </si>
+  <si>
+    <t>Yasir Aqeel</t>
+  </si>
+  <si>
+    <t>Arbat Real Estate Brokers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbat Realty is proud to present to you this 3 bedroom + Maid townhouse for rent in Maple 1, Dubai Hills Estate, Dubai UAE.
+Property features:
+- Vacant by mid of June
+- G+1
+- Semi Furnished
+- 3 bedrooms
+- 4 bathrooms
+- Maid&amp;#39;s room
+- 2 parking spaces
+- 24 hour security
+- Swimming pools
+- Gym
+Maple Townhouses in Dubai Hills Estate offer a serene, family-oriented lifestyle within a master-planned community by Emaar. These spacious 3 to 5-bedroom homes, ranging from 2,200 to 2,700 sq. ft., are thoughtfully designed along lush green corridors, providing shaded pathways, jogging tracks, and playgrounds that encourage outdoor activity and social interaction.
+Residents enjoy a wealth of facilities, including swimming pools, tennis, basketball, and volleyball courts, children&amp;#39;s play areas, barbecue zones, and fitness stations. The community also boasts an 18-hole championship golf course and the expansive Dubai Hills Mall, featuring over 650 retail and dining outlets. With over 1.45 million sq. m of parks and open spaces, the area promotes an active and healthy lifestyle.
+</t>
+  </si>
+  <si>
+    <t>PB-S-11774</t>
+  </si>
+  <si>
+    <t>6991615071</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14450212.html</t>
+  </si>
+  <si>
+    <t>2446</t>
+  </si>
+  <si>
+    <t>Green Belt Backing l Vacant l Multiple option</t>
+  </si>
+  <si>
+    <t>RL0038985</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-13687881.html</t>
+  </si>
+  <si>
+    <t>2986</t>
+  </si>
+  <si>
+    <t>Sophisticated Spacious Villa | Prime Location</t>
+  </si>
+  <si>
+    <t>2025-03-04</t>
+  </si>
+  <si>
+    <t>Fadi Ali Alsalem</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Engel &amp;amp; Voelkers is proud to represent this stunning 5-bedroom Villa in Maple 2, Dubai Hills Estate, featuring 6 luxuriously appointed bathrooms. This villa is perfectly designed for modern living, boasting an expansive space of 2,986.34 sq ft with top-tier amenities, making it an ideal family home. &lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;Key Features &amp;amp; Community Amenities:&lt;br/&gt;&lt;/div&gt;&lt;div&gt;- Parking: 2 Dedicated Parking Spaces for Ultimate Convenience&lt;br/&gt;&lt;/div&gt;&lt;div&gt;- 24/7 Security &amp;amp; CCTV Surveillance&lt;br/&gt;&lt;/div&gt;&lt;div&gt;- Children’s Play Areas&lt;br/&gt;&lt;/div&gt;&lt;div&gt;- State-of-the-art Sports Facilities&lt;br/&gt;&lt;/div&gt;&lt;div&gt;- Scenic Jogging Tracks&lt;br/&gt;&lt;/div&gt;&lt;div&gt;- Championship Golf Course Nearby&lt;br/&gt;&lt;/div&gt;&lt;div&gt;- Inviting Community Swimming Pools&lt;br/&gt;&lt;/div&gt;&lt;div&gt;- Lush Parks &amp;amp; Expansive Open Spaces&lt;br/&gt;&lt;/div&gt;&lt;div&gt;- Well-designed Bicycle Routes&lt;br/&gt;&lt;/div&gt;&lt;div&gt;- Landscaped Walkways Connecting the Community&lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;This exquisite villa offers not only luxurious living but also a complete lifestyle ensuring that residents can enjoy a harmonious balance of relaxation, recreation, and convenience.&lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;Located in the prestigious Dubai Hills Estate, within Mohammed Bin Rashid City, this villa offers a prime location with easy access to key areas like Downtown Dubai, Dubai Marina, Mall of the Emirates, Arabian Ranches, and Emirates Hills. Perfectly positioned along Al Khail Road and Umm Suqeim Road, your new home is just moments away from everything Dubai has to offer.&lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;Contact our Private Office Advisor, Fadi Al Salem at Engel &amp;amp; Voelkers today for further information.&lt;br/&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>W-0307J9</t>
+  </si>
+  <si>
+    <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14362691.html</t>
+  </si>
+  <si>
+    <t>2400</t>
+  </si>
+  <si>
+    <t>2156</t>
+  </si>
+  <si>
+    <t>Vacant | Greenbelt | Multiple options</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>NATALIE WHITE</t>
+  </si>
+  <si>
+    <t>ENGEL &amp; VÖLKERS Dubai - S4</t>
+  </si>
+  <si>
+    <t>Engel &amp;amp; Volekers is proud to present this 4 bedroom plus maid in Maple, Dubai Hills Estate.
+Property details :
+-4 Bedrooms + Maid&amp;#39;s Room
+-4 Bathrooms
+-BUA: 2,400 sqft
+-Plot:2,156 sqft
+-Unfurnished
+-Vacant and Ready to Move In
+-Private Garden
+-Covered Parking for 2 Cars
+-Close to Community Amenities​
+About Dubai Hills Estate:
+Envisaged as a premium lifestyle community, Dubai Hills Estate is a rejuvenating getaway in the heart of the city. It has elegantly designed neighborhoods set around an 18-hole championship golf course. This stylish gated villa community offers customers the opportunity to design their own luxurious homes. It features an iconic commercial centres, high-end retail centres, hotels and many more. 
+Engel &amp;amp; Voelkers is one of the world’s leading service companies specializing in the brokerage of residential and commercial properties, yachts and aviation, with 1000 offices in over 30 countries.Contact 
+Engel &amp;amp; Voelkers today for further details.</t>
   </si>
 </sst>
 </file>
@@ -4369,7 +4401,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4379,11 +4411,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
       </patternFill>
     </fill>
     <fill>
@@ -4405,14 +4432,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4716,10 +4742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U113"/>
+  <dimension ref="A1:U115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D80" workbookViewId="0">
-      <selection activeCell="K111" sqref="K111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T119" sqref="T119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5364,7 +5390,7 @@
         <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="H11">
         <v>5500000</v>
@@ -5388,7 +5414,7 @@
         <v>121</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="R11" t="s">
         <v>122</v>
@@ -5408,10 +5434,10 @@
         <v>125</v>
       </c>
       <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -5423,37 +5449,34 @@
         <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="H12">
-        <v>7500000</v>
+        <v>5500000</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
         <v>28</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N12" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" t="s">
+        <v>127</v>
+      </c>
+      <c r="P12" t="s">
         <v>128</v>
       </c>
-      <c r="O12" t="s">
-        <v>129</v>
-      </c>
-      <c r="P12" t="s">
-        <v>130</v>
-      </c>
       <c r="Q12">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="S12" t="s">
         <v>123</v>
@@ -5462,18 +5485,18 @@
         <v>36</v>
       </c>
       <c r="U12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -5488,54 +5511,54 @@
         <v>27</v>
       </c>
       <c r="H13">
-        <v>4900000</v>
+        <v>7500000</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J13" t="s">
         <v>28</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q13">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="R13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="T13" t="s">
         <v>36</v>
       </c>
       <c r="U13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
@@ -5547,10 +5570,10 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="H14">
-        <v>5800000</v>
+        <v>4900000</v>
       </c>
       <c r="I14">
         <v>3</v>
@@ -5565,39 +5588,39 @@
         <v>43</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P14" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="R14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="S14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="T14" t="s">
         <v>36</v>
       </c>
       <c r="U14" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -5627,39 +5650,39 @@
         <v>73</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q15">
         <v>23</v>
       </c>
       <c r="R15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="S15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="T15" t="s">
         <v>36</v>
       </c>
       <c r="U15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s">
         <v>99</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
@@ -5689,36 +5712,36 @@
         <v>62</v>
       </c>
       <c r="O16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P16" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q16">
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="S16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T16" t="s">
         <v>36</v>
       </c>
       <c r="U16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -5748,39 +5771,39 @@
         <v>53</v>
       </c>
       <c r="N17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P17" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q17">
         <v>34</v>
       </c>
       <c r="R17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T17" t="s">
         <v>36</v>
       </c>
       <c r="U17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -5810,39 +5833,39 @@
         <v>62</v>
       </c>
       <c r="N18" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="O18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q18">
         <v>74</v>
       </c>
       <c r="R18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S18" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T18" t="s">
         <v>36</v>
       </c>
       <c r="U18" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -5872,36 +5895,36 @@
         <v>73</v>
       </c>
       <c r="O19" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q19">
         <v>32</v>
       </c>
       <c r="R19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T19" t="s">
         <v>36</v>
       </c>
       <c r="U19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
@@ -5931,39 +5954,39 @@
         <v>30</v>
       </c>
       <c r="N20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q20">
         <v>63</v>
       </c>
       <c r="R20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T20" t="s">
         <v>36</v>
       </c>
       <c r="U20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -5990,13 +6013,13 @@
         <v>42</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="N21" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O21" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P21" t="s">
         <v>85</v>
@@ -6005,27 +6028,27 @@
         <v>15</v>
       </c>
       <c r="R21" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="S21" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="T21" t="s">
         <v>36</v>
       </c>
       <c r="U21" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -6055,39 +6078,39 @@
         <v>73</v>
       </c>
       <c r="N22" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="O22" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P22" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q22">
         <v>52</v>
       </c>
       <c r="R22" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="S22" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="T22" t="s">
         <v>36</v>
       </c>
       <c r="U22" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B23" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -6117,39 +6140,39 @@
         <v>30</v>
       </c>
       <c r="N23" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O23" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P23" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q23">
         <v>23</v>
       </c>
       <c r="R23" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="S23" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="T23" t="s">
         <v>36</v>
       </c>
       <c r="U23" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -6179,10 +6202,10 @@
         <v>43</v>
       </c>
       <c r="N24" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O24" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P24" t="s">
         <v>85</v>
@@ -6191,27 +6214,27 @@
         <v>15</v>
       </c>
       <c r="R24" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="S24" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="T24" t="s">
         <v>36</v>
       </c>
       <c r="U24" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
@@ -6220,60 +6243,60 @@
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="H25">
-        <v>5650000</v>
+        <v>5200000</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
         <v>28</v>
       </c>
       <c r="K25" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N25" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O25" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P25" t="s">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="Q25">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="R25" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="S25" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="T25" t="s">
         <v>36</v>
       </c>
       <c r="U25" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
@@ -6285,10 +6308,10 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="H26">
-        <v>5950000</v>
+        <v>5650000</v>
       </c>
       <c r="I26">
         <v>4</v>
@@ -6302,37 +6325,40 @@
       <c r="M26" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="N26" t="s">
+        <v>235</v>
+      </c>
       <c r="O26" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P26" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q26">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="R26" t="s">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="S26" t="s">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="T26" t="s">
         <v>36</v>
       </c>
       <c r="U26" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
@@ -6347,7 +6373,7 @@
         <v>27</v>
       </c>
       <c r="H27">
-        <v>5750000</v>
+        <v>5950000</v>
       </c>
       <c r="I27">
         <v>4</v>
@@ -6362,36 +6388,36 @@
         <v>30</v>
       </c>
       <c r="O27" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P27" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q27">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="R27" t="s">
-        <v>248</v>
+        <v>135</v>
       </c>
       <c r="S27" t="s">
-        <v>249</v>
+        <v>123</v>
       </c>
       <c r="T27" t="s">
         <v>36</v>
       </c>
       <c r="U27" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D28" t="s">
         <v>24</v>
@@ -6406,7 +6432,7 @@
         <v>27</v>
       </c>
       <c r="H28">
-        <v>6000000</v>
+        <v>5750000</v>
       </c>
       <c r="I28">
         <v>4</v>
@@ -6420,40 +6446,37 @@
       <c r="M28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N28" t="s">
-        <v>254</v>
-      </c>
       <c r="O28" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="P28" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="Q28">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="R28" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="S28" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="T28" t="s">
         <v>36</v>
       </c>
       <c r="U28" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D29" t="s">
         <v>24</v>
@@ -6462,13 +6485,13 @@
         <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G29" t="s">
         <v>27</v>
       </c>
       <c r="H29">
-        <v>5300000</v>
+        <v>6000000</v>
       </c>
       <c r="I29">
         <v>4</v>
@@ -6477,45 +6500,45 @@
         <v>28</v>
       </c>
       <c r="K29" t="s">
-        <v>262</v>
+        <v>29</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>263</v>
+        <v>30</v>
       </c>
       <c r="N29" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="O29" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="P29" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="Q29">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="R29" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="S29" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="T29" t="s">
         <v>36</v>
       </c>
       <c r="U29" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B30" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -6524,60 +6547,60 @@
         <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s">
         <v>27</v>
       </c>
       <c r="H30">
-        <v>6995000</v>
+        <v>5300000</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J30" t="s">
         <v>28</v>
       </c>
       <c r="K30" t="s">
-        <v>72</v>
+        <v>264</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>73</v>
+        <v>265</v>
       </c>
       <c r="N30" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="O30" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P30" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q30">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="R30" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="S30" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="T30" t="s">
         <v>36</v>
       </c>
       <c r="U30" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D31" t="s">
         <v>24</v>
@@ -6586,60 +6609,60 @@
         <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
         <v>27</v>
       </c>
       <c r="H31">
-        <v>6150000</v>
+        <v>6995000</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J31" t="s">
         <v>28</v>
       </c>
       <c r="K31" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="N31" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="O31" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="P31" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="Q31">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="R31" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="S31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="T31" t="s">
         <v>36</v>
       </c>
       <c r="U31" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B32" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D32" t="s">
         <v>24</v>
@@ -6648,60 +6671,60 @@
         <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G32" t="s">
         <v>27</v>
       </c>
       <c r="H32">
-        <v>6650000</v>
+        <v>6150000</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J32" t="s">
         <v>28</v>
       </c>
       <c r="K32" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="N32" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O32" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P32" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="Q32">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="R32" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="S32" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="T32" t="s">
         <v>36</v>
       </c>
       <c r="U32" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
@@ -6716,54 +6739,54 @@
         <v>27</v>
       </c>
       <c r="H33">
-        <v>4880000</v>
+        <v>6650000</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J33" t="s">
         <v>28</v>
       </c>
       <c r="K33" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="N33" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="O33" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="P33" t="s">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="Q33">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="R33" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="S33" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="T33" t="s">
         <v>36</v>
       </c>
       <c r="U33" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D34" t="s">
         <v>24</v>
@@ -6772,57 +6795,60 @@
         <v>25</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s">
         <v>27</v>
       </c>
       <c r="H34">
-        <v>5200000</v>
+        <v>4880000</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J34" t="s">
         <v>28</v>
       </c>
       <c r="K34" t="s">
-        <v>262</v>
+        <v>42</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>263</v>
+        <v>53</v>
+      </c>
+      <c r="N34" t="s">
+        <v>295</v>
       </c>
       <c r="O34" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="P34" t="s">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="R34" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="S34" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="T34" t="s">
         <v>36</v>
       </c>
       <c r="U34" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D35" t="s">
         <v>24</v>
@@ -6837,51 +6863,51 @@
         <v>27</v>
       </c>
       <c r="H35">
-        <v>6200000</v>
+        <v>5200000</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J35" t="s">
         <v>28</v>
       </c>
       <c r="K35" t="s">
-        <v>72</v>
+        <v>264</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>73</v>
+        <v>265</v>
       </c>
       <c r="O35" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="P35" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q35">
         <v>13</v>
       </c>
       <c r="R35" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="S35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="T35" t="s">
         <v>36</v>
       </c>
       <c r="U35" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
@@ -6896,7 +6922,7 @@
         <v>27</v>
       </c>
       <c r="H36">
-        <v>6900000</v>
+        <v>6200000</v>
       </c>
       <c r="I36">
         <v>5</v>
@@ -6910,40 +6936,37 @@
       <c r="M36" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="N36" t="s">
-        <v>314</v>
-      </c>
       <c r="O36" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P36" t="s">
-        <v>180</v>
+        <v>304</v>
       </c>
       <c r="Q36">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="R36" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="S36" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="T36" t="s">
         <v>36</v>
       </c>
       <c r="U36" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B37" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D37" t="s">
         <v>24</v>
@@ -6952,60 +6975,60 @@
         <v>25</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
         <v>27</v>
       </c>
       <c r="H37">
-        <v>6200000</v>
+        <v>6900000</v>
       </c>
       <c r="I37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J37" t="s">
         <v>28</v>
       </c>
       <c r="K37" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="N37" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="O37" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="P37" t="s">
-        <v>324</v>
+        <v>176</v>
       </c>
       <c r="Q37">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="R37" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="S37" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="T37" t="s">
         <v>36</v>
       </c>
       <c r="U37" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D38" t="s">
         <v>24</v>
@@ -7014,13 +7037,13 @@
         <v>25</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G38" t="s">
         <v>27</v>
       </c>
       <c r="H38">
-        <v>6000000</v>
+        <v>6200000</v>
       </c>
       <c r="I38">
         <v>4</v>
@@ -7032,42 +7055,42 @@
         <v>29</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="N38" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="O38" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="P38" t="s">
-        <v>94</v>
+        <v>326</v>
       </c>
       <c r="Q38">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="R38" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="S38" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="T38" t="s">
         <v>36</v>
       </c>
       <c r="U38" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B39" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
@@ -7082,7 +7105,7 @@
         <v>27</v>
       </c>
       <c r="H39">
-        <v>5500000</v>
+        <v>6000000</v>
       </c>
       <c r="I39">
         <v>4</v>
@@ -7091,42 +7114,45 @@
         <v>28</v>
       </c>
       <c r="K39" t="s">
-        <v>262</v>
+        <v>29</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>263</v>
+        <v>62</v>
+      </c>
+      <c r="N39" t="s">
+        <v>332</v>
       </c>
       <c r="O39" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P39" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R39" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="S39" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="T39" t="s">
         <v>36</v>
       </c>
       <c r="U39" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B40" t="s">
-        <v>341</v>
+        <v>262</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
@@ -7135,13 +7161,13 @@
         <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s">
         <v>27</v>
       </c>
       <c r="H40">
-        <v>6000000</v>
+        <v>5500000</v>
       </c>
       <c r="I40">
         <v>4</v>
@@ -7150,45 +7176,42 @@
         <v>28</v>
       </c>
       <c r="K40" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N40" t="s">
-        <v>343</v>
+        <v>265</v>
       </c>
       <c r="O40" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="P40" t="s">
-        <v>247</v>
+        <v>158</v>
       </c>
       <c r="Q40">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="R40" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="S40" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="T40" t="s">
         <v>36</v>
       </c>
       <c r="U40" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B41" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D41" t="s">
         <v>24</v>
@@ -7197,13 +7220,13 @@
         <v>25</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G41" t="s">
         <v>27</v>
       </c>
       <c r="H41">
-        <v>5500000</v>
+        <v>6000000</v>
       </c>
       <c r="I41">
         <v>4</v>
@@ -7215,42 +7238,42 @@
         <v>29</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="N41" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="O41" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="P41" t="s">
-        <v>353</v>
+        <v>249</v>
       </c>
       <c r="Q41">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="R41" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="S41" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="T41" t="s">
         <v>36</v>
       </c>
       <c r="U41" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B42" t="s">
-        <v>229</v>
+        <v>351</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
@@ -7259,13 +7282,13 @@
         <v>25</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s">
         <v>27</v>
       </c>
       <c r="H42">
-        <v>5650000</v>
+        <v>5500000</v>
       </c>
       <c r="I42">
         <v>4</v>
@@ -7277,42 +7300,42 @@
         <v>29</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N42" t="s">
-        <v>231</v>
+        <v>353</v>
       </c>
       <c r="O42" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P42" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Q42">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="R42" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="S42" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="T42" t="s">
         <v>36</v>
       </c>
       <c r="U42" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B43" t="s">
-        <v>361</v>
+        <v>233</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D43" t="s">
         <v>24</v>
@@ -7321,13 +7344,13 @@
         <v>25</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G43" t="s">
         <v>27</v>
       </c>
       <c r="H43">
-        <v>6200000</v>
+        <v>5650000</v>
       </c>
       <c r="I43">
         <v>4</v>
@@ -7339,42 +7362,42 @@
         <v>29</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="N43" t="s">
-        <v>363</v>
+        <v>235</v>
       </c>
       <c r="O43" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="P43" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="Q43">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="R43" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="S43" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="T43" t="s">
         <v>36</v>
       </c>
       <c r="U43" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B44" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D44" t="s">
         <v>24</v>
@@ -7383,57 +7406,60 @@
         <v>25</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G44" t="s">
         <v>27</v>
       </c>
       <c r="H44">
-        <v>6700000</v>
+        <v>6200000</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J44" t="s">
         <v>28</v>
       </c>
       <c r="K44" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
+      </c>
+      <c r="N44" t="s">
+        <v>366</v>
       </c>
       <c r="O44" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="P44" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q44">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R44" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="S44" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="T44" t="s">
         <v>36</v>
       </c>
       <c r="U44" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B45" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
@@ -7442,60 +7468,57 @@
         <v>25</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
         <v>27</v>
       </c>
       <c r="H45">
-        <v>5000000</v>
+        <v>6700000</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J45" t="s">
         <v>28</v>
       </c>
       <c r="K45" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="N45" t="s">
-        <v>377</v>
+        <v>73</v>
       </c>
       <c r="O45" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="P45" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="Q45">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R45" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="S45" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="T45" t="s">
         <v>36</v>
       </c>
       <c r="U45" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s">
-        <v>260</v>
+        <v>378</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D46" t="s">
         <v>24</v>
@@ -7504,57 +7527,60 @@
         <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G46" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="H46">
-        <v>5500000</v>
+        <v>5000000</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
         <v>28</v>
       </c>
       <c r="K46" t="s">
-        <v>262</v>
+        <v>42</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>263</v>
+        <v>194</v>
+      </c>
+      <c r="N46" t="s">
+        <v>380</v>
       </c>
       <c r="O46" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P46" t="s">
-        <v>113</v>
+        <v>382</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R46" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="S46" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="T46" t="s">
         <v>36</v>
       </c>
       <c r="U46" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B47" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="B47" t="s">
-        <v>214</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="D47" t="s">
         <v>24</v>
@@ -7563,13 +7589,13 @@
         <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="H47">
-        <v>5750000</v>
+        <v>5500000</v>
       </c>
       <c r="I47">
         <v>4</v>
@@ -7578,45 +7604,42 @@
         <v>28</v>
       </c>
       <c r="K47" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N47" t="s">
-        <v>387</v>
+        <v>265</v>
       </c>
       <c r="O47" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="P47" t="s">
-        <v>389</v>
+        <v>113</v>
       </c>
       <c r="Q47">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="R47" t="s">
-        <v>390</v>
+        <v>347</v>
       </c>
       <c r="S47" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="T47" t="s">
         <v>36</v>
       </c>
       <c r="U47" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D48" t="s">
         <v>24</v>
@@ -7625,60 +7648,60 @@
         <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G48" t="s">
         <v>27</v>
       </c>
       <c r="H48">
-        <v>6500000</v>
+        <v>5750000</v>
       </c>
       <c r="I48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J48" t="s">
         <v>28</v>
       </c>
       <c r="K48" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="N48" t="s">
-        <v>74</v>
+        <v>390</v>
       </c>
       <c r="O48" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="P48" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q48">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R48" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="S48" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="T48" t="s">
         <v>36</v>
       </c>
       <c r="U48" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B49" t="s">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D49" t="s">
         <v>24</v>
@@ -7687,57 +7710,60 @@
         <v>25</v>
       </c>
       <c r="F49" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
         <v>27</v>
       </c>
       <c r="H49">
-        <v>5800000</v>
+        <v>6500000</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J49" t="s">
         <v>28</v>
       </c>
       <c r="K49" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>62</v>
+        <v>73</v>
+      </c>
+      <c r="N49" t="s">
+        <v>74</v>
       </c>
       <c r="O49" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="P49" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Q49">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R49" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="S49" t="s">
-        <v>346</v>
+        <v>400</v>
       </c>
       <c r="T49" t="s">
         <v>36</v>
       </c>
       <c r="U49" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B50" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D50" t="s">
         <v>24</v>
@@ -7752,7 +7778,7 @@
         <v>27</v>
       </c>
       <c r="H50">
-        <v>6200000</v>
+        <v>5800000</v>
       </c>
       <c r="I50">
         <v>4</v>
@@ -7766,40 +7792,37 @@
       <c r="M50" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N50" t="s">
-        <v>363</v>
-      </c>
       <c r="O50" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="P50" t="s">
-        <v>233</v>
+        <v>406</v>
       </c>
       <c r="Q50">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="R50" t="s">
-        <v>234</v>
+        <v>375</v>
       </c>
       <c r="S50" t="s">
-        <v>235</v>
+        <v>348</v>
       </c>
       <c r="T50" t="s">
         <v>36</v>
       </c>
       <c r="U50" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B51" t="s">
+        <v>364</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="B51" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
@@ -7808,60 +7831,60 @@
         <v>25</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s">
         <v>27</v>
       </c>
       <c r="H51">
-        <v>7500000</v>
+        <v>6200000</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J51" t="s">
         <v>28</v>
       </c>
       <c r="K51" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="N51" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="O51" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="P51" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q51">
         <v>26</v>
       </c>
       <c r="R51" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="S51" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="T51" t="s">
         <v>36</v>
       </c>
       <c r="U51" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B52" t="s">
-        <v>415</v>
+        <v>322</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D52" t="s">
         <v>24</v>
@@ -7876,54 +7899,54 @@
         <v>27</v>
       </c>
       <c r="H52">
-        <v>5200000</v>
+        <v>6200000</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J52" t="s">
         <v>28</v>
       </c>
       <c r="K52" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="N52" t="s">
-        <v>417</v>
+        <v>324</v>
       </c>
       <c r="O52" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="P52" t="s">
-        <v>233</v>
+        <v>415</v>
       </c>
       <c r="Q52">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="R52" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="S52" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="T52" t="s">
         <v>36</v>
       </c>
       <c r="U52" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B53" t="s">
-        <v>312</v>
+        <v>130</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D53" t="s">
         <v>24</v>
@@ -7938,7 +7961,7 @@
         <v>27</v>
       </c>
       <c r="H53">
-        <v>6900000</v>
+        <v>7500000</v>
       </c>
       <c r="I53">
         <v>5</v>
@@ -7953,39 +7976,39 @@
         <v>73</v>
       </c>
       <c r="N53" t="s">
-        <v>314</v>
+        <v>419</v>
       </c>
       <c r="O53" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="P53" t="s">
-        <v>423</v>
+        <v>237</v>
       </c>
       <c r="Q53">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="R53" t="s">
-        <v>424</v>
+        <v>229</v>
       </c>
       <c r="S53" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="T53" t="s">
         <v>36</v>
       </c>
       <c r="U53" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B54" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D54" t="s">
         <v>24</v>
@@ -7994,13 +8017,13 @@
         <v>25</v>
       </c>
       <c r="F54" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G54" t="s">
         <v>27</v>
       </c>
       <c r="H54">
-        <v>4950000</v>
+        <v>5200000</v>
       </c>
       <c r="I54">
         <v>3</v>
@@ -8012,42 +8035,42 @@
         <v>42</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>53</v>
+        <v>194</v>
       </c>
       <c r="N54" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="O54" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P54" t="s">
-        <v>430</v>
+        <v>237</v>
       </c>
       <c r="Q54">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="R54" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="S54" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="T54" t="s">
         <v>36</v>
       </c>
       <c r="U54" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B55" t="s">
-        <v>433</v>
+        <v>314</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D55" t="s">
         <v>24</v>
@@ -8056,60 +8079,60 @@
         <v>25</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
         <v>27</v>
       </c>
       <c r="H55">
-        <v>6300000</v>
+        <v>6900000</v>
       </c>
       <c r="I55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J55" t="s">
         <v>28</v>
       </c>
       <c r="K55" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="N55" t="s">
-        <v>435</v>
+        <v>316</v>
       </c>
       <c r="O55" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="P55" t="s">
-        <v>155</v>
+        <v>431</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="R55" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="S55" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="T55" t="s">
         <v>36</v>
       </c>
       <c r="U55" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B56" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D56" t="s">
         <v>24</v>
@@ -8121,57 +8144,57 @@
         <v>52</v>
       </c>
       <c r="G56" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="H56">
-        <v>6400000</v>
+        <v>4950000</v>
       </c>
       <c r="I56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
         <v>28</v>
       </c>
       <c r="K56" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="N56" t="s">
-        <v>441</v>
+        <v>195</v>
       </c>
       <c r="O56" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="P56" t="s">
-        <v>379</v>
+        <v>438</v>
       </c>
       <c r="Q56">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="R56" t="s">
-        <v>396</v>
+        <v>229</v>
       </c>
       <c r="S56" t="s">
-        <v>397</v>
+        <v>230</v>
       </c>
       <c r="T56" t="s">
         <v>36</v>
       </c>
       <c r="U56" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>441</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
@@ -8180,13 +8203,13 @@
         <v>25</v>
       </c>
       <c r="F57" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G57" t="s">
         <v>27</v>
       </c>
       <c r="H57">
-        <v>6000000</v>
+        <v>6300000</v>
       </c>
       <c r="I57">
         <v>4</v>
@@ -8198,42 +8221,42 @@
         <v>29</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="N57" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="O57" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P57" t="s">
-        <v>379</v>
+        <v>151</v>
       </c>
       <c r="Q57">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R57" t="s">
-        <v>396</v>
+        <v>229</v>
       </c>
       <c r="S57" t="s">
-        <v>397</v>
+        <v>230</v>
       </c>
       <c r="T57" t="s">
         <v>36</v>
       </c>
       <c r="U57" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B58" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D58" t="s">
         <v>24</v>
@@ -8245,10 +8268,10 @@
         <v>52</v>
       </c>
       <c r="G58" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="H58">
-        <v>6175000</v>
+        <v>6400000</v>
       </c>
       <c r="I58">
         <v>4</v>
@@ -8263,39 +8286,39 @@
         <v>62</v>
       </c>
       <c r="N58" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="O58" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="P58" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q58">
         <v>22</v>
       </c>
       <c r="R58" t="s">
-        <v>234</v>
+        <v>399</v>
       </c>
       <c r="S58" t="s">
-        <v>235</v>
+        <v>400</v>
       </c>
       <c r="T58" t="s">
         <v>36</v>
       </c>
       <c r="U58" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B59" t="s">
-        <v>456</v>
+        <v>60</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D59" t="s">
         <v>24</v>
@@ -8304,7 +8327,7 @@
         <v>25</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G59" t="s">
         <v>27</v>
@@ -8324,37 +8347,40 @@
       <c r="M59" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="N59" t="s">
+        <v>454</v>
+      </c>
       <c r="O59" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="P59" t="s">
-        <v>459</v>
+        <v>382</v>
       </c>
       <c r="Q59">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="R59" t="s">
-        <v>460</v>
+        <v>399</v>
       </c>
       <c r="S59" t="s">
-        <v>461</v>
+        <v>400</v>
       </c>
       <c r="T59" t="s">
         <v>36</v>
       </c>
       <c r="U59" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B60" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
@@ -8363,13 +8389,13 @@
         <v>25</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G60" t="s">
         <v>27</v>
       </c>
       <c r="H60">
-        <v>6100000</v>
+        <v>6175000</v>
       </c>
       <c r="I60">
         <v>4</v>
@@ -8384,39 +8410,39 @@
         <v>62</v>
       </c>
       <c r="N60" t="s">
-        <v>322</v>
+        <v>460</v>
       </c>
       <c r="O60" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="P60" t="s">
-        <v>467</v>
+        <v>382</v>
       </c>
       <c r="Q60">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="R60" t="s">
-        <v>468</v>
+        <v>229</v>
       </c>
       <c r="S60" t="s">
-        <v>469</v>
+        <v>230</v>
       </c>
       <c r="T60" t="s">
         <v>36</v>
       </c>
       <c r="U60" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B61" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D61" t="s">
         <v>24</v>
@@ -8425,57 +8451,57 @@
         <v>25</v>
       </c>
       <c r="F61" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="H61">
-        <v>6700000</v>
+        <v>6000000</v>
       </c>
       <c r="I61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J61" t="s">
         <v>28</v>
       </c>
       <c r="K61" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="O61" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="P61" t="s">
-        <v>121</v>
+        <v>467</v>
       </c>
       <c r="Q61">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="R61" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="S61" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="T61" t="s">
         <v>36</v>
       </c>
       <c r="U61" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B62" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D62" t="s">
         <v>24</v>
@@ -8487,54 +8513,57 @@
         <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="H62">
-        <v>6999000</v>
+        <v>6100000</v>
       </c>
       <c r="I62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J62" t="s">
         <v>28</v>
       </c>
       <c r="K62" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
+      </c>
+      <c r="N62" t="s">
+        <v>324</v>
       </c>
       <c r="O62" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="P62" t="s">
-        <v>389</v>
+        <v>475</v>
       </c>
       <c r="Q62">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="R62" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="S62" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="T62" t="s">
         <v>36</v>
       </c>
       <c r="U62" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B63" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D63" t="s">
         <v>24</v>
@@ -8543,60 +8572,57 @@
         <v>25</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G63" t="s">
         <v>101</v>
       </c>
       <c r="H63">
-        <v>5100000</v>
+        <v>6700000</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J63" t="s">
         <v>28</v>
       </c>
       <c r="K63" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N63" t="s">
-        <v>488</v>
+        <v>73</v>
       </c>
       <c r="O63" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="P63" t="s">
-        <v>459</v>
+        <v>128</v>
       </c>
       <c r="Q63">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="R63" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="S63" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="T63" t="s">
         <v>36</v>
       </c>
       <c r="U63" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B64" t="s">
-        <v>260</v>
+        <v>487</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D64" t="s">
         <v>24</v>
@@ -8605,57 +8631,57 @@
         <v>25</v>
       </c>
       <c r="F64" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="H64">
-        <v>5500000</v>
+        <v>6999000</v>
       </c>
       <c r="I64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J64" t="s">
         <v>28</v>
       </c>
       <c r="K64" t="s">
-        <v>262</v>
+        <v>72</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>263</v>
+        <v>73</v>
       </c>
       <c r="O64" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="P64" t="s">
-        <v>496</v>
+        <v>392</v>
       </c>
       <c r="Q64">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="R64" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="S64" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="T64" t="s">
         <v>36</v>
       </c>
       <c r="U64" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B65" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="D65" t="s">
         <v>24</v>
@@ -8667,57 +8693,57 @@
         <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="H65">
-        <v>5050000</v>
+        <v>5100000</v>
       </c>
       <c r="I65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J65" t="s">
         <v>28</v>
       </c>
       <c r="K65" t="s">
-        <v>262</v>
+        <v>42</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>263</v>
+        <v>43</v>
       </c>
       <c r="N65" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="O65" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="P65" t="s">
-        <v>371</v>
+        <v>467</v>
       </c>
       <c r="Q65">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="R65" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="S65" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="T65" t="s">
         <v>36</v>
       </c>
       <c r="U65" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B66" t="s">
-        <v>509</v>
+        <v>262</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D66" t="s">
         <v>24</v>
@@ -8735,48 +8761,48 @@
         <v>5500000</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J66" t="s">
         <v>28</v>
       </c>
       <c r="K66" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="O66" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="P66" t="s">
-        <v>233</v>
+        <v>504</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="R66" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="S66" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="T66" t="s">
         <v>36</v>
       </c>
       <c r="U66" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B67" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="D67" t="s">
         <v>24</v>
@@ -8785,13 +8811,13 @@
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G67" t="s">
         <v>27</v>
       </c>
       <c r="H67">
-        <v>5250000</v>
+        <v>5050000</v>
       </c>
       <c r="I67">
         <v>4</v>
@@ -8800,42 +8826,45 @@
         <v>28</v>
       </c>
       <c r="K67" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="N67" t="s">
+        <v>511</v>
       </c>
       <c r="O67" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="P67" t="s">
-        <v>459</v>
+        <v>374</v>
       </c>
       <c r="Q67">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="R67" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="S67" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="T67" t="s">
         <v>36</v>
       </c>
       <c r="U67" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>517</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D68" t="s">
         <v>24</v>
@@ -8844,57 +8873,57 @@
         <v>25</v>
       </c>
       <c r="F68" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G68" t="s">
         <v>27</v>
       </c>
       <c r="H68">
-        <v>5800000</v>
+        <v>5500000</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
         <v>28</v>
       </c>
       <c r="K68" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="O68" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="P68" t="s">
-        <v>459</v>
+        <v>237</v>
       </c>
       <c r="Q68">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="R68" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="S68" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="T68" t="s">
         <v>36</v>
       </c>
       <c r="U68" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>524</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D69" t="s">
         <v>24</v>
@@ -8906,10 +8935,10 @@
         <v>52</v>
       </c>
       <c r="G69" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="H69">
-        <v>5800000</v>
+        <v>5250000</v>
       </c>
       <c r="I69">
         <v>4</v>
@@ -8918,45 +8947,42 @@
         <v>28</v>
       </c>
       <c r="K69" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N69" t="s">
-        <v>62</v>
+        <v>265</v>
       </c>
       <c r="O69" t="s">
+        <v>526</v>
+      </c>
+      <c r="P69" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q69">
+        <v>4</v>
+      </c>
+      <c r="R69" t="s">
+        <v>527</v>
+      </c>
+      <c r="S69" t="s">
         <v>528</v>
-      </c>
-      <c r="P69" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q69">
-        <v>53</v>
-      </c>
-      <c r="R69" t="s">
-        <v>529</v>
-      </c>
-      <c r="S69" t="s">
-        <v>530</v>
       </c>
       <c r="T69" t="s">
         <v>36</v>
       </c>
       <c r="U69" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B70" t="s">
-        <v>415</v>
+        <v>81</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D70" t="s">
         <v>24</v>
@@ -8971,51 +8997,51 @@
         <v>27</v>
       </c>
       <c r="H70">
-        <v>5200000</v>
+        <v>5800000</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J70" t="s">
         <v>28</v>
       </c>
       <c r="K70" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="O70" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="P70" t="s">
-        <v>535</v>
+        <v>467</v>
       </c>
       <c r="Q70">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="R70" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="S70" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="T70" t="s">
         <v>36</v>
       </c>
       <c r="U70" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B71" t="s">
-        <v>229</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D71" t="s">
         <v>24</v>
@@ -9024,13 +9050,13 @@
         <v>25</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G71" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="H71">
-        <v>5700000</v>
+        <v>5800000</v>
       </c>
       <c r="I71">
         <v>4</v>
@@ -9042,42 +9068,42 @@
         <v>29</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N71" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="O71" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="P71" t="s">
-        <v>542</v>
+        <v>355</v>
       </c>
       <c r="Q71">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="R71" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="S71" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="T71" t="s">
         <v>36</v>
       </c>
       <c r="U71" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B72" t="s">
-        <v>547</v>
+        <v>423</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="D72" t="s">
         <v>24</v>
@@ -9086,60 +9112,57 @@
         <v>25</v>
       </c>
       <c r="F72" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G72" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="H72">
-        <v>6800000</v>
+        <v>5200000</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J72" t="s">
         <v>28</v>
       </c>
       <c r="K72" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N72" t="s">
-        <v>549</v>
+        <v>194</v>
       </c>
       <c r="O72" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="P72" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="Q72">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="R72" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="S72" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="T72" t="s">
         <v>36</v>
       </c>
       <c r="U72" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="B73" t="s">
-        <v>312</v>
+        <v>233</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D73" t="s">
         <v>24</v>
@@ -9148,57 +9171,60 @@
         <v>25</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G73" t="s">
         <v>27</v>
       </c>
       <c r="H73">
-        <v>6900000</v>
+        <v>5700000</v>
       </c>
       <c r="I73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J73" t="s">
         <v>28</v>
       </c>
       <c r="K73" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>73</v>
+        <v>30</v>
+      </c>
+      <c r="N73" t="s">
+        <v>83</v>
       </c>
       <c r="O73" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="P73" t="s">
-        <v>209</v>
+        <v>549</v>
       </c>
       <c r="Q73">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="R73" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="S73" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="T73" t="s">
         <v>36</v>
       </c>
       <c r="U73" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B74" t="s">
-        <v>328</v>
+        <v>554</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D74" t="s">
         <v>24</v>
@@ -9210,10 +9236,10 @@
         <v>52</v>
       </c>
       <c r="G74" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="H74">
-        <v>6100000</v>
+        <v>6800000</v>
       </c>
       <c r="I74">
         <v>4</v>
@@ -9227,37 +9253,40 @@
       <c r="M74" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="N74" t="s">
+        <v>556</v>
+      </c>
       <c r="O74" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="P74" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="Q74">
         <v>4</v>
       </c>
       <c r="R74" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="S74" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="T74" t="s">
         <v>36</v>
       </c>
       <c r="U74" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B75" t="s">
-        <v>244</v>
+        <v>314</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D75" t="s">
         <v>24</v>
@@ -9266,57 +9295,57 @@
         <v>25</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
         <v>27</v>
       </c>
       <c r="H75">
-        <v>5750000</v>
+        <v>6900000</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J75" t="s">
         <v>28</v>
       </c>
       <c r="K75" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="O75" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="P75" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="Q75">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="R75" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="S75" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="T75" t="s">
         <v>36</v>
       </c>
       <c r="U75" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B76" t="s">
-        <v>571</v>
+        <v>330</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D76" t="s">
         <v>24</v>
@@ -9325,13 +9354,13 @@
         <v>25</v>
       </c>
       <c r="F76" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G76" t="s">
         <v>27</v>
       </c>
       <c r="H76">
-        <v>5950000</v>
+        <v>6100000</v>
       </c>
       <c r="I76">
         <v>4</v>
@@ -9343,42 +9372,39 @@
         <v>29</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N76" t="s">
-        <v>573</v>
+        <v>62</v>
       </c>
       <c r="O76" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="P76" t="s">
-        <v>138</v>
+        <v>467</v>
       </c>
       <c r="Q76">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="R76" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="S76" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="T76" t="s">
         <v>36</v>
       </c>
       <c r="U76" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B77" t="s">
-        <v>577</v>
+        <v>246</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D77" t="s">
         <v>24</v>
@@ -9393,7 +9419,7 @@
         <v>27</v>
       </c>
       <c r="H77">
-        <v>5950000</v>
+        <v>5750000</v>
       </c>
       <c r="I77">
         <v>4</v>
@@ -9407,40 +9433,37 @@
       <c r="M77" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N77" t="s">
-        <v>579</v>
-      </c>
       <c r="O77" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="P77" t="s">
-        <v>581</v>
+        <v>142</v>
       </c>
       <c r="Q77">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="R77" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="S77" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="T77" t="s">
         <v>36</v>
       </c>
       <c r="U77" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>578</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D78" t="s">
         <v>24</v>
@@ -9449,60 +9472,60 @@
         <v>25</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G78" t="s">
         <v>27</v>
       </c>
       <c r="H78">
-        <v>7500000</v>
+        <v>5950000</v>
       </c>
       <c r="I78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
         <v>28</v>
       </c>
       <c r="K78" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="N78" t="s">
-        <v>411</v>
+        <v>580</v>
       </c>
       <c r="O78" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="P78" t="s">
-        <v>581</v>
+        <v>142</v>
       </c>
       <c r="Q78">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="R78" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="S78" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="T78" t="s">
         <v>36</v>
       </c>
       <c r="U78" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="79" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B79" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D79" t="s">
         <v>24</v>
@@ -9511,60 +9534,60 @@
         <v>25</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G79" t="s">
         <v>27</v>
       </c>
       <c r="H79">
-        <v>5200000</v>
+        <v>5950000</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
         <v>28</v>
       </c>
       <c r="K79" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="N79" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="O79" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="P79" t="s">
-        <v>85</v>
+        <v>588</v>
       </c>
       <c r="Q79">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R79" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="S79" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="T79" t="s">
         <v>36</v>
       </c>
       <c r="U79" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D80" t="s">
         <v>24</v>
@@ -9573,60 +9596,60 @@
         <v>25</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G80" t="s">
         <v>27</v>
       </c>
       <c r="H80">
-        <v>5800000</v>
+        <v>7500000</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J80" t="s">
         <v>28</v>
       </c>
       <c r="K80" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="N80" t="s">
-        <v>83</v>
+        <v>419</v>
       </c>
       <c r="O80" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="P80" t="s">
-        <v>395</v>
+        <v>588</v>
       </c>
       <c r="Q80">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="R80" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="S80" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="T80" t="s">
         <v>36</v>
       </c>
       <c r="U80" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B81" t="s">
-        <v>598</v>
+        <v>225</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D81" t="s">
         <v>24</v>
@@ -9635,60 +9658,60 @@
         <v>25</v>
       </c>
       <c r="F81" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G81" t="s">
         <v>27</v>
       </c>
       <c r="H81">
-        <v>5800000</v>
+        <v>5200000</v>
       </c>
       <c r="I81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J81" t="s">
         <v>28</v>
       </c>
       <c r="K81" t="s">
-        <v>262</v>
+        <v>42</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>263</v>
+        <v>43</v>
       </c>
       <c r="N81" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="O81" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="P81" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="Q81">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="R81" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="S81" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="T81" t="s">
         <v>36</v>
       </c>
       <c r="U81" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D82" t="s">
         <v>24</v>
@@ -9697,10 +9720,10 @@
         <v>25</v>
       </c>
       <c r="F82" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G82" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="H82">
         <v>5800000</v>
@@ -9715,42 +9738,42 @@
         <v>29</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="N82" t="s">
-        <v>605</v>
+        <v>83</v>
       </c>
       <c r="O82" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="P82" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q82">
         <v>3</v>
       </c>
       <c r="R82" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="S82" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="T82" t="s">
         <v>36</v>
       </c>
       <c r="U82" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B83" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D83" t="s">
         <v>24</v>
@@ -9759,13 +9782,13 @@
         <v>25</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G83" t="s">
         <v>27</v>
       </c>
       <c r="H83">
-        <v>6100000</v>
+        <v>5800000</v>
       </c>
       <c r="I83">
         <v>4</v>
@@ -9774,45 +9797,45 @@
         <v>28</v>
       </c>
       <c r="K83" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>62</v>
+        <v>265</v>
       </c>
       <c r="N83" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="O83" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="P83" t="s">
-        <v>389</v>
+        <v>158</v>
       </c>
       <c r="Q83">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R83" t="s">
-        <v>614</v>
+        <v>570</v>
       </c>
       <c r="S83" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="T83" t="s">
         <v>36</v>
       </c>
       <c r="U83" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B84" t="s">
-        <v>617</v>
+        <v>90</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="D84" t="s">
         <v>24</v>
@@ -9824,10 +9847,10 @@
         <v>52</v>
       </c>
       <c r="G84" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="H84">
-        <v>5500000</v>
+        <v>5800000</v>
       </c>
       <c r="I84">
         <v>4</v>
@@ -9836,42 +9859,45 @@
         <v>28</v>
       </c>
       <c r="K84" t="s">
-        <v>262</v>
+        <v>29</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>263</v>
+        <v>62</v>
+      </c>
+      <c r="N84" t="s">
+        <v>611</v>
       </c>
       <c r="O84" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P84" t="s">
-        <v>459</v>
+        <v>398</v>
       </c>
       <c r="Q84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R84" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="S84" t="s">
-        <v>621</v>
+        <v>571</v>
       </c>
       <c r="T84" t="s">
         <v>36</v>
       </c>
       <c r="U84" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="B85" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="D85" t="s">
         <v>24</v>
@@ -9880,7 +9906,7 @@
         <v>25</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
         <v>27</v>
@@ -9889,48 +9915,51 @@
         <v>6100000</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J85" t="s">
         <v>28</v>
       </c>
       <c r="K85" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>198</v>
+        <v>62</v>
+      </c>
+      <c r="N85" t="s">
+        <v>618</v>
       </c>
       <c r="O85" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="P85" t="s">
-        <v>247</v>
+        <v>392</v>
       </c>
       <c r="Q85">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="R85" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="S85" t="s">
-        <v>628</v>
+        <v>571</v>
       </c>
       <c r="T85" t="s">
         <v>36</v>
       </c>
       <c r="U85" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="86" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="B86" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="D86" t="s">
         <v>24</v>
@@ -9945,7 +9974,7 @@
         <v>27</v>
       </c>
       <c r="H86">
-        <v>5749999</v>
+        <v>5500000</v>
       </c>
       <c r="I86">
         <v>4</v>
@@ -9954,45 +9983,42 @@
         <v>28</v>
       </c>
       <c r="K86" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N86" t="s">
-        <v>633</v>
+        <v>265</v>
       </c>
       <c r="O86" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="P86" t="s">
-        <v>535</v>
+        <v>467</v>
       </c>
       <c r="Q86">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="R86" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="S86" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="T86" t="s">
         <v>36</v>
       </c>
       <c r="U86" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
     </row>
     <row r="87" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="B87" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="D87" t="s">
         <v>24</v>
@@ -10001,57 +10027,57 @@
         <v>25</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G87" t="s">
         <v>27</v>
       </c>
       <c r="H87">
-        <v>6500000</v>
+        <v>6100000</v>
       </c>
       <c r="I87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
         <v>28</v>
       </c>
       <c r="K87" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>62</v>
+        <v>194</v>
       </c>
       <c r="O87" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="P87" t="s">
-        <v>324</v>
+        <v>249</v>
       </c>
       <c r="Q87">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="R87" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="S87" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="T87" t="s">
         <v>36</v>
       </c>
       <c r="U87" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="88" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="B88" t="s">
-        <v>320</v>
+        <v>637</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="D88" t="s">
         <v>24</v>
@@ -10060,13 +10086,13 @@
         <v>25</v>
       </c>
       <c r="F88" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G88" t="s">
         <v>27</v>
       </c>
       <c r="H88">
-        <v>6200000</v>
+        <v>5749999</v>
       </c>
       <c r="I88">
         <v>4</v>
@@ -10078,42 +10104,42 @@
         <v>29</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N88" t="s">
-        <v>322</v>
+        <v>639</v>
       </c>
       <c r="O88" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="P88" t="s">
-        <v>648</v>
+        <v>415</v>
       </c>
       <c r="Q88">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="R88" t="s">
+        <v>641</v>
+      </c>
+      <c r="S88" t="s">
         <v>642</v>
-      </c>
-      <c r="S88" t="s">
-        <v>643</v>
       </c>
       <c r="T88" t="s">
         <v>36</v>
       </c>
       <c r="U88" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="89" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B89" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="D89" t="s">
         <v>24</v>
@@ -10122,60 +10148,57 @@
         <v>25</v>
       </c>
       <c r="F89" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G89" t="s">
         <v>27</v>
       </c>
       <c r="H89">
-        <v>5900000</v>
+        <v>6500000</v>
       </c>
       <c r="I89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J89" t="s">
         <v>28</v>
       </c>
       <c r="K89" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N89" t="s">
-        <v>653</v>
+        <v>62</v>
       </c>
       <c r="O89" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="P89" t="s">
-        <v>655</v>
+        <v>326</v>
       </c>
       <c r="Q89">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="R89" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="S89" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="T89" t="s">
         <v>36</v>
       </c>
       <c r="U89" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
     </row>
     <row r="90" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="B90" t="s">
-        <v>660</v>
+        <v>322</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="D90" t="s">
         <v>24</v>
@@ -10190,7 +10213,7 @@
         <v>27</v>
       </c>
       <c r="H90">
-        <v>5799000</v>
+        <v>6200000</v>
       </c>
       <c r="I90">
         <v>4</v>
@@ -10205,39 +10228,39 @@
         <v>30</v>
       </c>
       <c r="N90" t="s">
-        <v>662</v>
+        <v>324</v>
       </c>
       <c r="O90" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="P90" t="s">
-        <v>162</v>
+        <v>654</v>
       </c>
       <c r="Q90">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="R90" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="S90" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="T90" t="s">
         <v>36</v>
       </c>
       <c r="U90" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
     </row>
     <row r="91" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="B91" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="D91" t="s">
         <v>24</v>
@@ -10252,51 +10275,54 @@
         <v>27</v>
       </c>
       <c r="H91">
-        <v>5500000</v>
+        <v>5900000</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J91" t="s">
         <v>28</v>
       </c>
       <c r="K91" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>62</v>
+        <v>73</v>
+      </c>
+      <c r="N91" t="s">
+        <v>659</v>
       </c>
       <c r="O91" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="P91" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="Q91">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="R91" t="s">
-        <v>551</v>
+        <v>662</v>
       </c>
       <c r="S91" t="s">
-        <v>552</v>
+        <v>663</v>
       </c>
       <c r="T91" t="s">
         <v>36</v>
       </c>
       <c r="U91" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="92" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="B92" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="D92" t="s">
         <v>24</v>
@@ -10305,13 +10331,13 @@
         <v>25</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G92" t="s">
         <v>27</v>
       </c>
       <c r="H92">
-        <v>5300000</v>
+        <v>5799000</v>
       </c>
       <c r="I92">
         <v>4</v>
@@ -10320,42 +10346,45 @@
         <v>28</v>
       </c>
       <c r="K92" t="s">
-        <v>262</v>
+        <v>29</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>263</v>
+        <v>30</v>
+      </c>
+      <c r="N92" t="s">
+        <v>668</v>
       </c>
       <c r="O92" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="P92" t="s">
-        <v>256</v>
+        <v>158</v>
       </c>
       <c r="Q92">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="R92" t="s">
-        <v>551</v>
+        <v>670</v>
       </c>
       <c r="S92" t="s">
-        <v>552</v>
+        <v>671</v>
       </c>
       <c r="T92" t="s">
         <v>36</v>
       </c>
       <c r="U92" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="93" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B93" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D93" t="s">
         <v>24</v>
@@ -10364,13 +10393,13 @@
         <v>25</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G93" t="s">
         <v>27</v>
       </c>
       <c r="H93">
-        <v>6800000</v>
+        <v>5500000</v>
       </c>
       <c r="I93">
         <v>4</v>
@@ -10384,40 +10413,37 @@
       <c r="M93" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N93" t="s">
-        <v>681</v>
-      </c>
       <c r="O93" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="P93" t="s">
-        <v>241</v>
+        <v>677</v>
       </c>
       <c r="Q93">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="R93" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="S93" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="T93" t="s">
         <v>36</v>
       </c>
       <c r="U93" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="94" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="B94" t="s">
-        <v>349</v>
+        <v>680</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D94" t="s">
         <v>24</v>
@@ -10426,13 +10452,13 @@
         <v>25</v>
       </c>
       <c r="F94" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
         <v>27</v>
       </c>
       <c r="H94">
-        <v>5600000</v>
+        <v>5300000</v>
       </c>
       <c r="I94">
         <v>4</v>
@@ -10441,42 +10467,42 @@
         <v>28</v>
       </c>
       <c r="K94" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>62</v>
+        <v>265</v>
       </c>
       <c r="O94" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="P94" t="s">
-        <v>542</v>
+        <v>258</v>
       </c>
       <c r="Q94">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="R94" t="s">
-        <v>687</v>
+        <v>558</v>
       </c>
       <c r="S94" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="T94" t="s">
         <v>36</v>
       </c>
       <c r="U94" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="95" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>685</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D95" t="s">
         <v>24</v>
@@ -10485,13 +10511,13 @@
         <v>25</v>
       </c>
       <c r="F95" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s">
         <v>27</v>
       </c>
       <c r="H95">
-        <v>5900000</v>
+        <v>6800000</v>
       </c>
       <c r="I95">
         <v>4</v>
@@ -10505,37 +10531,40 @@
       <c r="M95" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="N95" t="s">
+        <v>687</v>
+      </c>
       <c r="O95" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="P95" t="s">
-        <v>692</v>
+        <v>243</v>
       </c>
       <c r="Q95">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="R95" t="s">
-        <v>693</v>
+        <v>558</v>
       </c>
       <c r="S95" t="s">
-        <v>694</v>
+        <v>559</v>
       </c>
       <c r="T95" t="s">
         <v>36</v>
       </c>
       <c r="U95" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B96" t="s">
-        <v>427</v>
+        <v>351</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="D96" t="s">
         <v>24</v>
@@ -10550,54 +10579,51 @@
         <v>27</v>
       </c>
       <c r="H96">
-        <v>4950000</v>
+        <v>5600000</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J96" t="s">
         <v>28</v>
       </c>
       <c r="K96" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N96" t="s">
-        <v>698</v>
+        <v>62</v>
       </c>
       <c r="O96" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="P96" t="s">
-        <v>692</v>
+        <v>549</v>
       </c>
       <c r="Q96">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="R96" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="S96" t="s">
-        <v>701</v>
+        <v>559</v>
       </c>
       <c r="T96" t="s">
         <v>36</v>
       </c>
       <c r="U96" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="97" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B97" t="s">
-        <v>229</v>
+        <v>435</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="D97" t="s">
         <v>24</v>
@@ -10606,40 +10632,40 @@
         <v>25</v>
       </c>
       <c r="F97" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G97" t="s">
         <v>27</v>
       </c>
       <c r="H97">
-        <v>5650000</v>
+        <v>4950000</v>
       </c>
       <c r="I97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J97" t="s">
         <v>28</v>
       </c>
       <c r="K97" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="N97" t="s">
-        <v>231</v>
+        <v>697</v>
       </c>
       <c r="O97" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="P97" t="s">
-        <v>94</v>
+        <v>699</v>
       </c>
       <c r="Q97">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R97" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="S97" t="s">
         <v>701</v>
@@ -10648,18 +10674,18 @@
         <v>36</v>
       </c>
       <c r="U97" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B98" t="s">
-        <v>709</v>
+        <v>233</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="D98" t="s">
         <v>24</v>
@@ -10674,54 +10700,54 @@
         <v>27</v>
       </c>
       <c r="H98">
-        <v>6300000</v>
+        <v>5650000</v>
       </c>
       <c r="I98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J98" t="s">
         <v>28</v>
       </c>
       <c r="K98" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>711</v>
+        <v>30</v>
       </c>
       <c r="N98" t="s">
-        <v>712</v>
+        <v>235</v>
       </c>
       <c r="O98" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="P98" t="s">
-        <v>395</v>
+        <v>94</v>
       </c>
       <c r="Q98">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R98" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="S98" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="T98" t="s">
         <v>36</v>
       </c>
       <c r="U98" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
     </row>
     <row r="99" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="B99" t="s">
-        <v>617</v>
+        <v>364</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="D99" t="s">
         <v>24</v>
@@ -10733,10 +10759,10 @@
         <v>52</v>
       </c>
       <c r="G99" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="H99">
-        <v>5500000</v>
+        <v>6200000</v>
       </c>
       <c r="I99">
         <v>4</v>
@@ -10745,45 +10771,45 @@
         <v>28</v>
       </c>
       <c r="K99" t="s">
-        <v>262</v>
+        <v>29</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>263</v>
+        <v>62</v>
       </c>
       <c r="N99" t="s">
-        <v>719</v>
+        <v>366</v>
       </c>
       <c r="O99" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="P99" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="Q99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R99" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="S99" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="T99" t="s">
         <v>36</v>
       </c>
       <c r="U99" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
     </row>
     <row r="100" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="B100" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D100" t="s">
         <v>24</v>
@@ -10792,13 +10818,13 @@
         <v>25</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G100" t="s">
         <v>27</v>
       </c>
       <c r="H100">
-        <v>6000000</v>
+        <v>6300000</v>
       </c>
       <c r="I100">
         <v>5</v>
@@ -10810,42 +10836,42 @@
         <v>72</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>73</v>
+        <v>715</v>
       </c>
       <c r="N100" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="O100" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="P100" t="s">
-        <v>729</v>
+        <v>398</v>
       </c>
       <c r="Q100">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="R100" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="S100" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="T100" t="s">
         <v>36</v>
       </c>
       <c r="U100" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="B101" t="s">
-        <v>734</v>
+        <v>623</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="D101" t="s">
         <v>24</v>
@@ -10854,60 +10880,60 @@
         <v>25</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G101" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="H101">
-        <v>7200000</v>
+        <v>5500000</v>
       </c>
       <c r="I101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J101" t="s">
         <v>28</v>
       </c>
       <c r="K101" t="s">
-        <v>72</v>
+        <v>264</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>73</v>
+        <v>265</v>
       </c>
       <c r="N101" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="O101" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="P101" t="s">
-        <v>738</v>
+        <v>104</v>
       </c>
       <c r="Q101">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="R101" t="s">
-        <v>551</v>
+        <v>725</v>
       </c>
       <c r="S101" t="s">
-        <v>552</v>
+        <v>726</v>
       </c>
       <c r="T101" t="s">
         <v>36</v>
       </c>
       <c r="U101" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="B102" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="D102" t="s">
         <v>24</v>
@@ -10916,7 +10942,7 @@
         <v>25</v>
       </c>
       <c r="F102" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G102" t="s">
         <v>27</v>
@@ -10925,51 +10951,51 @@
         <v>6000000</v>
       </c>
       <c r="I102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J102" t="s">
         <v>28</v>
       </c>
       <c r="K102" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="N102" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="O102" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="P102" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="Q102">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="R102" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="S102" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="T102" t="s">
         <v>36</v>
       </c>
       <c r="U102" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="B103" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="D103" t="s">
         <v>24</v>
@@ -10978,60 +11004,60 @@
         <v>25</v>
       </c>
       <c r="F103" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G103" t="s">
         <v>27</v>
       </c>
       <c r="H103">
-        <v>6000000</v>
+        <v>7200000</v>
       </c>
       <c r="I103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J103" t="s">
         <v>28</v>
       </c>
       <c r="K103" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="N103" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="O103" t="s">
-        <v>331</v>
+        <v>741</v>
       </c>
       <c r="P103" t="s">
-        <v>55</v>
+        <v>742</v>
       </c>
       <c r="Q103">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="R103" t="s">
-        <v>753</v>
+        <v>558</v>
       </c>
       <c r="S103" t="s">
-        <v>747</v>
+        <v>559</v>
       </c>
       <c r="T103" t="s">
         <v>36</v>
       </c>
       <c r="U103" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B104" t="s">
-        <v>427</v>
+        <v>745</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="D104" t="s">
         <v>24</v>
@@ -11046,54 +11072,54 @@
         <v>27</v>
       </c>
       <c r="H104">
-        <v>4950000</v>
+        <v>6000000</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J104" t="s">
         <v>28</v>
       </c>
       <c r="K104" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="N104" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="O104" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="P104" t="s">
-        <v>648</v>
+        <v>749</v>
       </c>
       <c r="Q104">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="R104" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="S104" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="T104" t="s">
         <v>36</v>
       </c>
       <c r="U104" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="105" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="B105" t="s">
-        <v>617</v>
+        <v>754</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D105" t="s">
         <v>24</v>
@@ -11105,10 +11131,10 @@
         <v>52</v>
       </c>
       <c r="G105" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="H105">
-        <v>5600000</v>
+        <v>6000000</v>
       </c>
       <c r="I105">
         <v>4</v>
@@ -11117,42 +11143,45 @@
         <v>28</v>
       </c>
       <c r="K105" t="s">
-        <v>262</v>
+        <v>29</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>263</v>
+        <v>62</v>
+      </c>
+      <c r="N105" t="s">
+        <v>756</v>
       </c>
       <c r="O105" t="s">
-        <v>763</v>
+        <v>333</v>
       </c>
       <c r="P105" t="s">
-        <v>256</v>
+        <v>55</v>
       </c>
       <c r="Q105">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="R105" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="S105" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="T105" t="s">
         <v>36</v>
       </c>
       <c r="U105" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
     </row>
     <row r="106" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="B106" t="s">
-        <v>768</v>
+        <v>435</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="D106" t="s">
         <v>24</v>
@@ -11161,60 +11190,60 @@
         <v>25</v>
       </c>
       <c r="F106" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G106" t="s">
         <v>27</v>
       </c>
       <c r="H106">
-        <v>6200000</v>
+        <v>4950000</v>
       </c>
       <c r="I106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J106" t="s">
         <v>28</v>
       </c>
       <c r="K106" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="N106" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="O106" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="P106" t="s">
-        <v>772</v>
+        <v>654</v>
       </c>
       <c r="Q106">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="R106" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="S106" t="s">
-        <v>774</v>
+        <v>751</v>
       </c>
       <c r="T106" t="s">
         <v>36</v>
       </c>
       <c r="U106" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
     </row>
     <row r="107" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="B107" t="s">
-        <v>472</v>
+        <v>623</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="D107" t="s">
         <v>24</v>
@@ -11226,54 +11255,54 @@
         <v>52</v>
       </c>
       <c r="G107" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="H107">
-        <v>6700000</v>
+        <v>5600000</v>
       </c>
       <c r="I107">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J107" t="s">
         <v>28</v>
       </c>
       <c r="K107" t="s">
-        <v>72</v>
+        <v>264</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>73</v>
+        <v>265</v>
       </c>
       <c r="O107" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="P107" t="s">
-        <v>779</v>
+        <v>258</v>
       </c>
       <c r="Q107">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="R107" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="S107" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="T107" t="s">
         <v>36</v>
       </c>
       <c r="U107" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
     </row>
     <row r="108" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="B108" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="D108" t="s">
         <v>24</v>
@@ -11282,60 +11311,60 @@
         <v>25</v>
       </c>
       <c r="F108" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G108" t="s">
         <v>27</v>
       </c>
       <c r="H108">
-        <v>6600000</v>
+        <v>6200000</v>
       </c>
       <c r="I108">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J108" t="s">
         <v>28</v>
       </c>
       <c r="K108" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="N108" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="O108" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="P108" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="Q108">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R108" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="S108" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="T108" t="s">
         <v>36</v>
       </c>
       <c r="U108" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="B109" t="s">
-        <v>793</v>
+        <v>480</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="D109" t="s">
         <v>24</v>
@@ -11344,13 +11373,13 @@
         <v>25</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G109" t="s">
         <v>27</v>
       </c>
       <c r="H109">
-        <v>6100000</v>
+        <v>6700000</v>
       </c>
       <c r="I109">
         <v>5</v>
@@ -11364,164 +11393,161 @@
       <c r="M109" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="N109" t="s">
-        <v>795</v>
-      </c>
       <c r="O109" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="P109" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="Q109">
-        <v>212</v>
+        <v>61</v>
       </c>
       <c r="R109" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="S109" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="T109" t="s">
         <v>36</v>
       </c>
       <c r="U109" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
     </row>
     <row r="110" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>801</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>118</v>
+      <c r="A110" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B110" t="s">
+        <v>788</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="D110" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="D110" t="s">
         <v>24</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" t="s">
         <v>25</v>
       </c>
-      <c r="F110" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G110" s="3" t="s">
+      <c r="F110" t="s">
+        <v>52</v>
+      </c>
+      <c r="G110" t="s">
         <v>27</v>
       </c>
-      <c r="H110" s="3">
-        <v>5500000</v>
-      </c>
-      <c r="I110" s="3">
-        <v>4</v>
-      </c>
-      <c r="J110" s="3" t="s">
+      <c r="H110">
+        <v>6600000</v>
+      </c>
+      <c r="I110">
+        <v>5</v>
+      </c>
+      <c r="J110" t="s">
         <v>28</v>
       </c>
-      <c r="K110" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L110" s="3"/>
-      <c r="M110" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="N110" s="3"/>
-      <c r="O110" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="P110" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="Q110" s="3">
-        <v>87</v>
-      </c>
-      <c r="R110" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="S110" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="T110" s="3" t="s">
+      <c r="K110" t="s">
+        <v>72</v>
+      </c>
+      <c r="M110" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N110" t="s">
+        <v>790</v>
+      </c>
+      <c r="O110" t="s">
+        <v>791</v>
+      </c>
+      <c r="P110" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q110">
+        <v>115</v>
+      </c>
+      <c r="R110" t="s">
+        <v>793</v>
+      </c>
+      <c r="S110" t="s">
+        <v>794</v>
+      </c>
+      <c r="T110" t="s">
         <v>36</v>
       </c>
-      <c r="U110" s="3" t="s">
-        <v>124</v>
+      <c r="U110" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>588</v>
+      <c r="A111" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B111" t="s">
+        <v>797</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="D111" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="D111" t="s">
         <v>24</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" t="s">
         <v>25</v>
       </c>
-      <c r="F111" s="3" t="s">
+      <c r="F111" t="s">
         <v>41</v>
       </c>
-      <c r="G111" s="3" t="s">
+      <c r="G111" t="s">
         <v>27</v>
       </c>
-      <c r="H111" s="3">
-        <v>5200000</v>
-      </c>
-      <c r="I111" s="3">
-        <v>3</v>
-      </c>
-      <c r="J111" s="3" t="s">
+      <c r="H111">
+        <v>6100000</v>
+      </c>
+      <c r="I111">
+        <v>5</v>
+      </c>
+      <c r="J111" t="s">
         <v>28</v>
       </c>
-      <c r="K111" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L111" s="3"/>
+      <c r="K111" t="s">
+        <v>72</v>
+      </c>
       <c r="M111" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N111" s="6" t="s">
-        <v>808</v>
-      </c>
-      <c r="O111" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="P111" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q111" s="3">
-        <v>16</v>
-      </c>
-      <c r="R111" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="S111" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="T111" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N111" t="s">
+        <v>799</v>
+      </c>
+      <c r="O111" t="s">
+        <v>800</v>
+      </c>
+      <c r="P111" t="s">
+        <v>801</v>
+      </c>
+      <c r="Q111">
+        <v>212</v>
+      </c>
+      <c r="R111" t="s">
+        <v>802</v>
+      </c>
+      <c r="S111" t="s">
+        <v>803</v>
+      </c>
+      <c r="T111" t="s">
         <v>36</v>
       </c>
-      <c r="U111" s="3" t="s">
-        <v>810</v>
+      <c r="U111" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="112" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>24</v>
@@ -11530,61 +11556,59 @@
         <v>25</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H112" s="3">
-        <v>6200000</v>
+        <v>5500000</v>
       </c>
       <c r="I112" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J112" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L112" s="3"/>
       <c r="M112" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N112" s="6" t="s">
-        <v>322</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="N112" s="3"/>
       <c r="O112" s="3" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="P112" s="3" t="s">
-        <v>535</v>
+        <v>142</v>
       </c>
       <c r="Q112" s="3">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="R112" s="3" t="s">
-        <v>234</v>
+        <v>808</v>
       </c>
       <c r="S112" s="3" t="s">
-        <v>235</v>
+        <v>809</v>
       </c>
       <c r="T112" s="3" t="s">
         <v>36</v>
       </c>
       <c r="U112" s="3" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="113" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>361</v>
+        <v>812</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>24</v>
@@ -11593,13 +11617,13 @@
         <v>25</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H113" s="3">
-        <v>6200000</v>
+        <v>5350000</v>
       </c>
       <c r="I113" s="3">
         <v>4</v>
@@ -11608,35 +11632,159 @@
         <v>28</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="L113" s="3"/>
       <c r="M113" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N113" s="6" t="s">
-        <v>363</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="N113" s="3"/>
       <c r="O113" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="P113" s="3" t="s">
-        <v>94</v>
+        <v>237</v>
       </c>
       <c r="Q113" s="3">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="R113" s="3" t="s">
-        <v>706</v>
+        <v>527</v>
       </c>
       <c r="S113" s="3" t="s">
-        <v>701</v>
+        <v>528</v>
       </c>
       <c r="T113" s="3" t="s">
         <v>36</v>
       </c>
       <c r="U113" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H114" s="3">
+        <v>6199000</v>
+      </c>
+      <c r="I114" s="3">
+        <v>5</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N114" s="5" t="s">
         <v>818</v>
+      </c>
+      <c r="O114" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="P114" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q114" s="3">
+        <v>123</v>
+      </c>
+      <c r="R114" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="S114" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="T114" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U114" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H115" s="3">
+        <v>5200000</v>
+      </c>
+      <c r="I115" s="3">
+        <v>4</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="L115" s="3"/>
+      <c r="M115" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="N115" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="O115" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="P115" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="Q115" s="3">
+        <v>40</v>
+      </c>
+      <c r="R115" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="S115" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="T115" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U115" s="3" t="s">
+        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -11753,6 +11901,8 @@
     <hyperlink ref="C111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
     <hyperlink ref="C112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="C113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
